--- a/Code/Results/Cases/Case_0_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9605138914216622</v>
+        <v>0.9605138914216629</v>
       </c>
       <c r="D2">
-        <v>0.9728425164135928</v>
+        <v>0.972842516413593</v>
       </c>
       <c r="E2">
-        <v>0.9739074697418346</v>
+        <v>0.9739074697418351</v>
       </c>
       <c r="F2">
-        <v>0.978210795836426</v>
+        <v>0.9782107958364267</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.040559512538069</v>
       </c>
       <c r="J2">
-        <v>0.9839433665645276</v>
+        <v>0.9839433665645283</v>
       </c>
       <c r="K2">
-        <v>0.9846936279217551</v>
+        <v>0.9846936279217555</v>
       </c>
       <c r="L2">
-        <v>0.9857426947948451</v>
+        <v>0.9857426947948456</v>
       </c>
       <c r="M2">
-        <v>0.9899822734226525</v>
+        <v>0.989982273422653</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9707812691561062</v>
+        <v>0.9707812691561053</v>
       </c>
       <c r="D3">
-        <v>0.9818387721115975</v>
+        <v>0.9818387721115969</v>
       </c>
       <c r="E3">
-        <v>0.9825745529083025</v>
+        <v>0.9825745529083018</v>
       </c>
       <c r="F3">
-        <v>0.9880529875708433</v>
+        <v>0.9880529875708427</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.042956134511891</v>
       </c>
       <c r="J3">
-        <v>0.9921014486525329</v>
+        <v>0.9921014486525321</v>
       </c>
       <c r="K3">
-        <v>0.9927094271196785</v>
+        <v>0.9927094271196779</v>
       </c>
       <c r="L3">
-        <v>0.9934353602323797</v>
+        <v>0.993435360232379</v>
       </c>
       <c r="M3">
-        <v>0.9988410499533826</v>
+        <v>0.9988410499533821</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.977137363177926</v>
+        <v>0.9771373631779262</v>
       </c>
       <c r="D4">
-        <v>0.9874144483292961</v>
+        <v>0.987414448329296</v>
       </c>
       <c r="E4">
-        <v>0.9879481299338685</v>
+        <v>0.9879481299338689</v>
       </c>
       <c r="F4">
-        <v>0.9941431346740314</v>
+        <v>0.9941431346740316</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.044407757907745</v>
       </c>
       <c r="J4">
-        <v>0.9971445466102432</v>
+        <v>0.9971445466102434</v>
       </c>
       <c r="K4">
-        <v>0.9976671813218547</v>
+        <v>0.9976671813218548</v>
       </c>
       <c r="L4">
-        <v>0.9981942201808625</v>
+        <v>0.9981942201808629</v>
       </c>
       <c r="M4">
-        <v>1.004312764691959</v>
+        <v>1.00431276469196</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9797459996930423</v>
+        <v>0.979745999693043</v>
       </c>
       <c r="D5">
-        <v>0.9897041794047469</v>
+        <v>0.9897041794047476</v>
       </c>
       <c r="E5">
-        <v>0.9901553016834669</v>
+        <v>0.9901553016834673</v>
       </c>
       <c r="F5">
-        <v>0.9966417817737214</v>
+        <v>0.9966417817737221</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044995614327834</v>
+        <v>1.044995614327836</v>
       </c>
       <c r="J5">
-        <v>0.9992124546955042</v>
+        <v>0.9992124546955049</v>
       </c>
       <c r="K5">
-        <v>0.999700710318811</v>
+        <v>0.9997007103188116</v>
       </c>
       <c r="L5">
         <v>1.000146389749154</v>
       </c>
       <c r="M5">
-        <v>1.006555284769191</v>
+        <v>1.006555284769192</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9801804234153757</v>
+        <v>0.9801804234153763</v>
       </c>
       <c r="D6">
-        <v>0.9900855722297086</v>
+        <v>0.9900855722297091</v>
       </c>
       <c r="E6">
-        <v>0.990522967875918</v>
+        <v>0.9905229678759185</v>
       </c>
       <c r="F6">
-        <v>0.9970578341141848</v>
+        <v>0.9970578341141852</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.045093039707998</v>
       </c>
       <c r="J6">
-        <v>0.9995567168336835</v>
+        <v>0.999556716833684</v>
       </c>
       <c r="K6">
-        <v>1.000039285054591</v>
+        <v>1.000039285054592</v>
       </c>
       <c r="L6">
-        <v>1.000471431218605</v>
+        <v>1.000471431218606</v>
       </c>
       <c r="M6">
-        <v>1.006928547383275</v>
+        <v>1.006928547383276</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9771724626777574</v>
+        <v>0.9771724626777569</v>
       </c>
       <c r="D7">
-        <v>0.9874452516089829</v>
+        <v>0.9874452516089824</v>
       </c>
       <c r="E7">
-        <v>0.9879778208607822</v>
+        <v>0.9879778208607817</v>
       </c>
       <c r="F7">
-        <v>0.9941767578229569</v>
+        <v>0.9941767578229566</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.044415699278416</v>
       </c>
       <c r="J7">
-        <v>0.9971723780648424</v>
+        <v>0.9971723780648419</v>
       </c>
       <c r="K7">
-        <v>0.997694547644285</v>
+        <v>0.9976945476442846</v>
       </c>
       <c r="L7">
-        <v>0.9982204907379508</v>
+        <v>0.9982204907379503</v>
       </c>
       <c r="M7">
-        <v>1.004342950804761</v>
+        <v>1.00434295080476</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9640468174649957</v>
+        <v>0.964046817464996</v>
       </c>
       <c r="D8">
-        <v>0.9759365692597767</v>
+        <v>0.975936569259777</v>
       </c>
       <c r="E8">
-        <v>0.9768878879188825</v>
+        <v>0.9768878879188826</v>
       </c>
       <c r="F8">
-        <v>0.981597879172833</v>
+        <v>0.9815978791728333</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.041390849223018</v>
       </c>
       <c r="J8">
-        <v>0.9867519587374636</v>
+        <v>0.9867519587374639</v>
       </c>
       <c r="K8">
-        <v>0.9874526718067141</v>
+        <v>0.9874526718067145</v>
       </c>
       <c r="L8">
-        <v>0.9883903038427857</v>
+        <v>0.9883903038427858</v>
       </c>
       <c r="M8">
-        <v>0.9930330267391319</v>
+        <v>0.9930330267391322</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9384286196012113</v>
+        <v>0.9384286196012104</v>
       </c>
       <c r="D9">
-        <v>0.9535380328331872</v>
+        <v>0.9535380328331862</v>
       </c>
       <c r="E9">
-        <v>0.955321706075983</v>
+        <v>0.955321706075982</v>
       </c>
       <c r="F9">
-        <v>0.9570343698058099</v>
+        <v>0.9570343698058088</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035230738468595</v>
+        <v>1.035230738468594</v>
       </c>
       <c r="J9">
-        <v>0.9663600493569906</v>
+        <v>0.9663600493569897</v>
       </c>
       <c r="K9">
-        <v>0.9674327605962132</v>
+        <v>0.9674327605962122</v>
       </c>
       <c r="L9">
-        <v>0.9691837849038921</v>
+        <v>0.9691837849038915</v>
       </c>
       <c r="M9">
-        <v>0.9708652484867334</v>
+        <v>0.9708652484867325</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9191830513804963</v>
+        <v>0.9191830513804977</v>
       </c>
       <c r="D10">
-        <v>0.9367718402967679</v>
+        <v>0.9367718402967693</v>
       </c>
       <c r="E10">
-        <v>0.9391929726636381</v>
+        <v>0.939192972663639</v>
       </c>
       <c r="F10">
-        <v>0.9385906705181796</v>
+        <v>0.9385906705181805</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.030445420022142</v>
       </c>
       <c r="J10">
-        <v>0.9510154284113715</v>
+        <v>0.9510154284113728</v>
       </c>
       <c r="K10">
-        <v>0.952384926538252</v>
+        <v>0.9523849265382535</v>
       </c>
       <c r="L10">
-        <v>0.9547543435600486</v>
+        <v>0.9547543435600497</v>
       </c>
       <c r="M10">
-        <v>0.9541648735457476</v>
+        <v>0.9541648735457485</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9101883242635382</v>
+        <v>0.910188324263537</v>
       </c>
       <c r="D11">
-        <v>0.9289552230940243</v>
+        <v>0.9289552230940228</v>
       </c>
       <c r="E11">
-        <v>0.9316776883656619</v>
+        <v>0.9316776883656609</v>
       </c>
       <c r="F11">
-        <v>0.9299783445610316</v>
+        <v>0.9299783445610302</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028176780284372</v>
+        <v>1.028176780284371</v>
       </c>
       <c r="J11">
-        <v>0.9438413276802089</v>
+        <v>0.9438413276802076</v>
       </c>
       <c r="K11">
-        <v>0.9453539797115512</v>
+        <v>0.9453539797115498</v>
       </c>
       <c r="L11">
-        <v>0.9480143096982804</v>
+        <v>0.9480143096982792</v>
       </c>
       <c r="M11">
-        <v>0.9463536933268893</v>
+        <v>0.9463536933268881</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9067315354432303</v>
+        <v>0.9067315354432288</v>
       </c>
       <c r="D12">
-        <v>0.9259546319150724</v>
+        <v>0.9259546319150709</v>
       </c>
       <c r="E12">
-        <v>0.9287934689882908</v>
+        <v>0.9287934689882898</v>
       </c>
       <c r="F12">
-        <v>0.9266702518135188</v>
+        <v>0.9266702518135177</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.027300652985655</v>
       </c>
       <c r="J12">
-        <v>0.9410842283888674</v>
+        <v>0.9410842283888661</v>
       </c>
       <c r="K12">
-        <v>0.9426525978603473</v>
+        <v>0.9426525978603458</v>
       </c>
       <c r="L12">
-        <v>0.9454250299617046</v>
+        <v>0.9454250299617035</v>
       </c>
       <c r="M12">
-        <v>0.9433514268926804</v>
+        <v>0.9433514268926794</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9074785745149763</v>
+        <v>0.9074785745149774</v>
       </c>
       <c r="D13">
-        <v>0.9266029187077959</v>
+        <v>0.9266029187077968</v>
       </c>
       <c r="E13">
-        <v>0.9294165804773119</v>
+        <v>0.9294165804773128</v>
       </c>
       <c r="F13">
-        <v>0.9273850675340483</v>
+        <v>0.9273850675340489</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.027490172387005</v>
       </c>
       <c r="J13">
-        <v>0.9416800520335423</v>
+        <v>0.9416800520335433</v>
       </c>
       <c r="K13">
-        <v>0.9432363483360164</v>
+        <v>0.9432363483360172</v>
       </c>
       <c r="L13">
-        <v>0.9459845404863824</v>
+        <v>0.9459845404863833</v>
       </c>
       <c r="M13">
-        <v>0.9440002443941826</v>
+        <v>0.9440002443941833</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9099050557212226</v>
+        <v>0.9099050557212233</v>
       </c>
       <c r="D14">
-        <v>0.928709265185708</v>
+        <v>0.9287092651857086</v>
       </c>
       <c r="E14">
-        <v>0.9314412548526835</v>
+        <v>0.9314412548526839</v>
       </c>
       <c r="F14">
-        <v>0.9297072221698627</v>
+        <v>0.9297072221698629</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.028105067806578</v>
       </c>
       <c r="J14">
-        <v>0.9436153931074456</v>
+        <v>0.9436153931074461</v>
       </c>
       <c r="K14">
-        <v>0.9451325965679417</v>
+        <v>0.9451325965679424</v>
       </c>
       <c r="L14">
-        <v>0.9478021066656257</v>
+        <v>0.947802106665626</v>
       </c>
       <c r="M14">
-        <v>0.9461076737975149</v>
+        <v>0.946107673797515</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9113841935270967</v>
+        <v>0.9113841935270969</v>
       </c>
       <c r="D15">
         <v>0.9299937209195364</v>
       </c>
       <c r="E15">
-        <v>0.9326760004272446</v>
+        <v>0.9326760004272447</v>
       </c>
       <c r="F15">
-        <v>0.9311230105113227</v>
+        <v>0.931123010511323</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.02847935908512</v>
       </c>
       <c r="J15">
-        <v>0.9447951537093312</v>
+        <v>0.9447951537093318</v>
       </c>
       <c r="K15">
-        <v>0.9462886196059178</v>
+        <v>0.946288619605918</v>
       </c>
       <c r="L15">
-        <v>0.948910206332126</v>
+        <v>0.9489102063321264</v>
       </c>
       <c r="M15">
-        <v>0.9473922995543195</v>
+        <v>0.9473922995543197</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9197647586154986</v>
+        <v>0.9197647586154994</v>
       </c>
       <c r="D16">
-        <v>0.937277792700439</v>
+        <v>0.9372777927004399</v>
       </c>
       <c r="E16">
-        <v>0.9396795110024928</v>
+        <v>0.9396795110024934</v>
       </c>
       <c r="F16">
-        <v>0.9391478486309427</v>
+        <v>0.9391478486309436</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.030591526359824</v>
       </c>
       <c r="J16">
-        <v>0.9514793698532528</v>
+        <v>0.9514793698532537</v>
       </c>
       <c r="K16">
-        <v>0.9528397032890811</v>
+        <v>0.9528397032890817</v>
       </c>
       <c r="L16">
-        <v>0.9551903463178024</v>
+        <v>0.9551903463178031</v>
       </c>
       <c r="M16">
-        <v>0.954669960537364</v>
+        <v>0.954669960537365</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9248342313565602</v>
+        <v>0.9248342313565596</v>
       </c>
       <c r="D17">
-        <v>0.9416892688567617</v>
+        <v>0.941689268856761</v>
       </c>
       <c r="E17">
-        <v>0.9439221798506403</v>
+        <v>0.9439221798506399</v>
       </c>
       <c r="F17">
-        <v>0.9440044558137658</v>
+        <v>0.944004455813765</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.031861309908497</v>
       </c>
       <c r="J17">
-        <v>0.9555222889912224</v>
+        <v>0.9555222889912218</v>
       </c>
       <c r="K17">
-        <v>0.9568032497819442</v>
+        <v>0.9568032497819433</v>
       </c>
       <c r="L17">
-        <v>0.9589904926688854</v>
+        <v>0.958990492668885</v>
       </c>
       <c r="M17">
-        <v>0.9590710913416096</v>
+        <v>0.959071091341609</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>0.9277286554832731</v>
+        <v>0.9277286554832711</v>
       </c>
       <c r="D18">
-        <v>0.9442097507286137</v>
+        <v>0.9442097507286118</v>
       </c>
       <c r="E18">
-        <v>0.9463465906997306</v>
+        <v>0.946346590699729</v>
       </c>
       <c r="F18">
-        <v>0.9467780043328343</v>
+        <v>0.9467780043328325</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032583294289355</v>
+        <v>1.032583294289354</v>
       </c>
       <c r="J18">
-        <v>0.9578303384951022</v>
+        <v>0.9578303384951005</v>
       </c>
       <c r="K18">
-        <v>0.9590663883342981</v>
+        <v>0.9590663883342964</v>
       </c>
       <c r="L18">
-        <v>0.9611605112369453</v>
+        <v>0.9611605112369438</v>
       </c>
       <c r="M18">
-        <v>0.9615833313366228</v>
+        <v>0.961583331336621</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9287054119845636</v>
+        <v>0.9287054119845619</v>
       </c>
       <c r="D19">
-        <v>0.9450605980795002</v>
+        <v>0.9450605980794983</v>
       </c>
       <c r="E19">
-        <v>0.9471650689419691</v>
+        <v>0.9471650689419673</v>
       </c>
       <c r="F19">
-        <v>0.9477140670283032</v>
+        <v>0.9477140670283012</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032826412315155</v>
+        <v>1.032826412315154</v>
       </c>
       <c r="J19">
-        <v>0.9586091619837578</v>
+        <v>0.9586091619837561</v>
       </c>
       <c r="K19">
-        <v>0.9598301242825725</v>
+        <v>0.9598301242825706</v>
       </c>
       <c r="L19">
-        <v>0.9618928518274149</v>
+        <v>0.9618928518274135</v>
       </c>
       <c r="M19">
-        <v>0.9624310002863047</v>
+        <v>0.9624310002863029</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9242968970003778</v>
+        <v>0.9242968970003791</v>
       </c>
       <c r="D20">
-        <v>0.9412214932876776</v>
+        <v>0.9412214932876783</v>
       </c>
       <c r="E20">
-        <v>0.9434722642169727</v>
+        <v>0.9434722642169736</v>
       </c>
       <c r="F20">
-        <v>0.9434896114239458</v>
+        <v>0.9434896114239473</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031727029605037</v>
+        <v>1.031727029605038</v>
       </c>
       <c r="J20">
-        <v>0.955093788236268</v>
+        <v>0.9550937882362691</v>
       </c>
       <c r="K20">
-        <v>0.9563831194063808</v>
+        <v>0.9563831194063818</v>
       </c>
       <c r="L20">
-        <v>0.9585876635462678</v>
+        <v>0.9585876635462688</v>
       </c>
       <c r="M20">
-        <v>0.95860465560237</v>
+        <v>0.9586046556023713</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9091938649197457</v>
+        <v>0.9091938649197439</v>
       </c>
       <c r="D21">
-        <v>0.9280918056926711</v>
+        <v>0.9280918056926694</v>
       </c>
       <c r="E21">
-        <v>0.9308477171333426</v>
+        <v>0.9308477171333414</v>
       </c>
       <c r="F21">
-        <v>0.9290265562276584</v>
+        <v>0.9290265562276573</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.027924956114865</v>
       </c>
       <c r="J21">
-        <v>0.9430481498151516</v>
+        <v>0.9430481498151499</v>
       </c>
       <c r="K21">
-        <v>0.9445767917250208</v>
+        <v>0.9445767917250192</v>
       </c>
       <c r="L21">
-        <v>0.9472693548242745</v>
+        <v>0.9472693548242732</v>
       </c>
       <c r="M21">
-        <v>0.9454899994668344</v>
+        <v>0.9454899994668334</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8990168896154116</v>
+        <v>0.8990168896154106</v>
       </c>
       <c r="D22">
-        <v>0.9192651892091813</v>
+        <v>0.9192651892091807</v>
       </c>
       <c r="E22">
-        <v>0.9223648595258905</v>
+        <v>0.9223648595258899</v>
       </c>
       <c r="F22">
-        <v>0.9192914683684568</v>
+        <v>0.919291468368456</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.025338193921506</v>
       </c>
       <c r="J22">
-        <v>0.9349316175514567</v>
+        <v>0.9349316175514558</v>
       </c>
       <c r="K22">
-        <v>0.9366256815398728</v>
+        <v>0.936625681539872</v>
       </c>
       <c r="L22">
-        <v>0.9396488746338064</v>
+        <v>0.9396488746338058</v>
       </c>
       <c r="M22">
-        <v>0.9366513094002994</v>
+        <v>0.9366513094002988</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9044830863112102</v>
+        <v>0.9044830863112094</v>
       </c>
       <c r="D23">
-        <v>0.924003960560722</v>
+        <v>0.9240039605607215</v>
       </c>
       <c r="E23">
-        <v>0.9269186584027821</v>
+        <v>0.9269186584027814</v>
       </c>
       <c r="F23">
-        <v>0.9245190968550856</v>
+        <v>0.9245190968550852</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02672966050747</v>
+        <v>1.026729660507469</v>
       </c>
       <c r="J23">
-        <v>0.9392909443456228</v>
+        <v>0.9392909443456219</v>
       </c>
       <c r="K23">
-        <v>0.940895757706938</v>
+        <v>0.9408957577069375</v>
       </c>
       <c r="L23">
-        <v>0.9437411930060464</v>
+        <v>0.9437411930060461</v>
       </c>
       <c r="M23">
-        <v>0.9413986100875521</v>
+        <v>0.9413986100875517</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9245398872540614</v>
+        <v>0.9245398872540618</v>
       </c>
       <c r="D24">
-        <v>0.9414330226723867</v>
+        <v>0.9414330226723874</v>
       </c>
       <c r="E24">
-        <v>0.943675716122247</v>
+        <v>0.9436757161222472</v>
       </c>
       <c r="F24">
-        <v>0.9437224293767335</v>
+        <v>0.9437224293767331</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.0317877624684</v>
       </c>
       <c r="J24">
-        <v>0.9552875632284835</v>
+        <v>0.9552875632284838</v>
       </c>
       <c r="K24">
-        <v>0.9565731079271355</v>
+        <v>0.956573107927136</v>
       </c>
       <c r="L24">
-        <v>0.9587698276536816</v>
+        <v>0.9587698276536819</v>
       </c>
       <c r="M24">
-        <v>0.958815586380616</v>
+        <v>0.9588155863806157</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9453915385497307</v>
+        <v>0.9453915385497299</v>
       </c>
       <c r="D25">
-        <v>0.9596171026297698</v>
+        <v>0.959617102629769</v>
       </c>
       <c r="E25">
-        <v>0.9611726644818438</v>
+        <v>0.961172664481843</v>
       </c>
       <c r="F25">
-        <v>0.9637104743556804</v>
+        <v>0.9637104743556799</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036932682025034</v>
+        <v>1.036932682025033</v>
       </c>
       <c r="J25">
-        <v>0.971907611437729</v>
+        <v>0.9719076114377282</v>
       </c>
       <c r="K25">
-        <v>0.9728764234169196</v>
+        <v>0.9728764234169188</v>
       </c>
       <c r="L25">
-        <v>0.9744051936115899</v>
+        <v>0.9744051936115893</v>
       </c>
       <c r="M25">
-        <v>0.9768995342526986</v>
+        <v>0.9768995342526982</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9605138914216629</v>
+        <v>0.9605138914216622</v>
       </c>
       <c r="D2">
-        <v>0.972842516413593</v>
+        <v>0.9728425164135928</v>
       </c>
       <c r="E2">
-        <v>0.9739074697418351</v>
+        <v>0.9739074697418346</v>
       </c>
       <c r="F2">
-        <v>0.9782107958364267</v>
+        <v>0.978210795836426</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.040559512538069</v>
       </c>
       <c r="J2">
-        <v>0.9839433665645283</v>
+        <v>0.9839433665645276</v>
       </c>
       <c r="K2">
-        <v>0.9846936279217555</v>
+        <v>0.9846936279217551</v>
       </c>
       <c r="L2">
-        <v>0.9857426947948456</v>
+        <v>0.9857426947948451</v>
       </c>
       <c r="M2">
-        <v>0.989982273422653</v>
+        <v>0.9899822734226525</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9707812691561053</v>
+        <v>0.9707812691561062</v>
       </c>
       <c r="D3">
-        <v>0.9818387721115969</v>
+        <v>0.9818387721115975</v>
       </c>
       <c r="E3">
-        <v>0.9825745529083018</v>
+        <v>0.9825745529083025</v>
       </c>
       <c r="F3">
-        <v>0.9880529875708427</v>
+        <v>0.9880529875708433</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.042956134511891</v>
       </c>
       <c r="J3">
-        <v>0.9921014486525321</v>
+        <v>0.9921014486525329</v>
       </c>
       <c r="K3">
-        <v>0.9927094271196779</v>
+        <v>0.9927094271196785</v>
       </c>
       <c r="L3">
-        <v>0.993435360232379</v>
+        <v>0.9934353602323797</v>
       </c>
       <c r="M3">
-        <v>0.9988410499533821</v>
+        <v>0.9988410499533826</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9771373631779262</v>
+        <v>0.977137363177926</v>
       </c>
       <c r="D4">
-        <v>0.987414448329296</v>
+        <v>0.9874144483292961</v>
       </c>
       <c r="E4">
-        <v>0.9879481299338689</v>
+        <v>0.9879481299338685</v>
       </c>
       <c r="F4">
-        <v>0.9941431346740316</v>
+        <v>0.9941431346740314</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.044407757907745</v>
       </c>
       <c r="J4">
-        <v>0.9971445466102434</v>
+        <v>0.9971445466102432</v>
       </c>
       <c r="K4">
-        <v>0.9976671813218548</v>
+        <v>0.9976671813218547</v>
       </c>
       <c r="L4">
-        <v>0.9981942201808629</v>
+        <v>0.9981942201808625</v>
       </c>
       <c r="M4">
-        <v>1.00431276469196</v>
+        <v>1.004312764691959</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.979745999693043</v>
+        <v>0.9797459996930423</v>
       </c>
       <c r="D5">
-        <v>0.9897041794047476</v>
+        <v>0.9897041794047469</v>
       </c>
       <c r="E5">
-        <v>0.9901553016834673</v>
+        <v>0.9901553016834669</v>
       </c>
       <c r="F5">
-        <v>0.9966417817737221</v>
+        <v>0.9966417817737214</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044995614327836</v>
+        <v>1.044995614327834</v>
       </c>
       <c r="J5">
-        <v>0.9992124546955049</v>
+        <v>0.9992124546955042</v>
       </c>
       <c r="K5">
-        <v>0.9997007103188116</v>
+        <v>0.999700710318811</v>
       </c>
       <c r="L5">
         <v>1.000146389749154</v>
       </c>
       <c r="M5">
-        <v>1.006555284769192</v>
+        <v>1.006555284769191</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9801804234153763</v>
+        <v>0.9801804234153757</v>
       </c>
       <c r="D6">
-        <v>0.9900855722297091</v>
+        <v>0.9900855722297086</v>
       </c>
       <c r="E6">
-        <v>0.9905229678759185</v>
+        <v>0.990522967875918</v>
       </c>
       <c r="F6">
-        <v>0.9970578341141852</v>
+        <v>0.9970578341141848</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.045093039707998</v>
       </c>
       <c r="J6">
-        <v>0.999556716833684</v>
+        <v>0.9995567168336835</v>
       </c>
       <c r="K6">
-        <v>1.000039285054592</v>
+        <v>1.000039285054591</v>
       </c>
       <c r="L6">
-        <v>1.000471431218606</v>
+        <v>1.000471431218605</v>
       </c>
       <c r="M6">
-        <v>1.006928547383276</v>
+        <v>1.006928547383275</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9771724626777569</v>
+        <v>0.9771724626777574</v>
       </c>
       <c r="D7">
-        <v>0.9874452516089824</v>
+        <v>0.9874452516089829</v>
       </c>
       <c r="E7">
-        <v>0.9879778208607817</v>
+        <v>0.9879778208607822</v>
       </c>
       <c r="F7">
-        <v>0.9941767578229566</v>
+        <v>0.9941767578229569</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.044415699278416</v>
       </c>
       <c r="J7">
-        <v>0.9971723780648419</v>
+        <v>0.9971723780648424</v>
       </c>
       <c r="K7">
-        <v>0.9976945476442846</v>
+        <v>0.997694547644285</v>
       </c>
       <c r="L7">
-        <v>0.9982204907379503</v>
+        <v>0.9982204907379508</v>
       </c>
       <c r="M7">
-        <v>1.00434295080476</v>
+        <v>1.004342950804761</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.964046817464996</v>
+        <v>0.9640468174649957</v>
       </c>
       <c r="D8">
-        <v>0.975936569259777</v>
+        <v>0.9759365692597767</v>
       </c>
       <c r="E8">
-        <v>0.9768878879188826</v>
+        <v>0.9768878879188825</v>
       </c>
       <c r="F8">
-        <v>0.9815978791728333</v>
+        <v>0.981597879172833</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.041390849223018</v>
       </c>
       <c r="J8">
-        <v>0.9867519587374639</v>
+        <v>0.9867519587374636</v>
       </c>
       <c r="K8">
-        <v>0.9874526718067145</v>
+        <v>0.9874526718067141</v>
       </c>
       <c r="L8">
-        <v>0.9883903038427858</v>
+        <v>0.9883903038427857</v>
       </c>
       <c r="M8">
-        <v>0.9930330267391322</v>
+        <v>0.9930330267391319</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9384286196012104</v>
+        <v>0.9384286196012113</v>
       </c>
       <c r="D9">
-        <v>0.9535380328331862</v>
+        <v>0.9535380328331872</v>
       </c>
       <c r="E9">
-        <v>0.955321706075982</v>
+        <v>0.955321706075983</v>
       </c>
       <c r="F9">
-        <v>0.9570343698058088</v>
+        <v>0.9570343698058099</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035230738468594</v>
+        <v>1.035230738468595</v>
       </c>
       <c r="J9">
-        <v>0.9663600493569897</v>
+        <v>0.9663600493569906</v>
       </c>
       <c r="K9">
-        <v>0.9674327605962122</v>
+        <v>0.9674327605962132</v>
       </c>
       <c r="L9">
-        <v>0.9691837849038915</v>
+        <v>0.9691837849038921</v>
       </c>
       <c r="M9">
-        <v>0.9708652484867325</v>
+        <v>0.9708652484867334</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9191830513804977</v>
+        <v>0.9191830513804963</v>
       </c>
       <c r="D10">
-        <v>0.9367718402967693</v>
+        <v>0.9367718402967679</v>
       </c>
       <c r="E10">
-        <v>0.939192972663639</v>
+        <v>0.9391929726636381</v>
       </c>
       <c r="F10">
-        <v>0.9385906705181805</v>
+        <v>0.9385906705181796</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.030445420022142</v>
       </c>
       <c r="J10">
-        <v>0.9510154284113728</v>
+        <v>0.9510154284113715</v>
       </c>
       <c r="K10">
-        <v>0.9523849265382535</v>
+        <v>0.952384926538252</v>
       </c>
       <c r="L10">
-        <v>0.9547543435600497</v>
+        <v>0.9547543435600486</v>
       </c>
       <c r="M10">
-        <v>0.9541648735457485</v>
+        <v>0.9541648735457476</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.910188324263537</v>
+        <v>0.9101883242635382</v>
       </c>
       <c r="D11">
-        <v>0.9289552230940228</v>
+        <v>0.9289552230940243</v>
       </c>
       <c r="E11">
-        <v>0.9316776883656609</v>
+        <v>0.9316776883656619</v>
       </c>
       <c r="F11">
-        <v>0.9299783445610302</v>
+        <v>0.9299783445610316</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028176780284371</v>
+        <v>1.028176780284372</v>
       </c>
       <c r="J11">
-        <v>0.9438413276802076</v>
+        <v>0.9438413276802089</v>
       </c>
       <c r="K11">
-        <v>0.9453539797115498</v>
+        <v>0.9453539797115512</v>
       </c>
       <c r="L11">
-        <v>0.9480143096982792</v>
+        <v>0.9480143096982804</v>
       </c>
       <c r="M11">
-        <v>0.9463536933268881</v>
+        <v>0.9463536933268893</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9067315354432288</v>
+        <v>0.9067315354432303</v>
       </c>
       <c r="D12">
-        <v>0.9259546319150709</v>
+        <v>0.9259546319150724</v>
       </c>
       <c r="E12">
-        <v>0.9287934689882898</v>
+        <v>0.9287934689882908</v>
       </c>
       <c r="F12">
-        <v>0.9266702518135177</v>
+        <v>0.9266702518135188</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.027300652985655</v>
       </c>
       <c r="J12">
-        <v>0.9410842283888661</v>
+        <v>0.9410842283888674</v>
       </c>
       <c r="K12">
-        <v>0.9426525978603458</v>
+        <v>0.9426525978603473</v>
       </c>
       <c r="L12">
-        <v>0.9454250299617035</v>
+        <v>0.9454250299617046</v>
       </c>
       <c r="M12">
-        <v>0.9433514268926794</v>
+        <v>0.9433514268926804</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9074785745149774</v>
+        <v>0.9074785745149763</v>
       </c>
       <c r="D13">
-        <v>0.9266029187077968</v>
+        <v>0.9266029187077959</v>
       </c>
       <c r="E13">
-        <v>0.9294165804773128</v>
+        <v>0.9294165804773119</v>
       </c>
       <c r="F13">
-        <v>0.9273850675340489</v>
+        <v>0.9273850675340483</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.027490172387005</v>
       </c>
       <c r="J13">
-        <v>0.9416800520335433</v>
+        <v>0.9416800520335423</v>
       </c>
       <c r="K13">
-        <v>0.9432363483360172</v>
+        <v>0.9432363483360164</v>
       </c>
       <c r="L13">
-        <v>0.9459845404863833</v>
+        <v>0.9459845404863824</v>
       </c>
       <c r="M13">
-        <v>0.9440002443941833</v>
+        <v>0.9440002443941826</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9099050557212233</v>
+        <v>0.9099050557212226</v>
       </c>
       <c r="D14">
-        <v>0.9287092651857086</v>
+        <v>0.928709265185708</v>
       </c>
       <c r="E14">
-        <v>0.9314412548526839</v>
+        <v>0.9314412548526835</v>
       </c>
       <c r="F14">
-        <v>0.9297072221698629</v>
+        <v>0.9297072221698627</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.028105067806578</v>
       </c>
       <c r="J14">
-        <v>0.9436153931074461</v>
+        <v>0.9436153931074456</v>
       </c>
       <c r="K14">
-        <v>0.9451325965679424</v>
+        <v>0.9451325965679417</v>
       </c>
       <c r="L14">
-        <v>0.947802106665626</v>
+        <v>0.9478021066656257</v>
       </c>
       <c r="M14">
-        <v>0.946107673797515</v>
+        <v>0.9461076737975149</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9113841935270969</v>
+        <v>0.9113841935270967</v>
       </c>
       <c r="D15">
         <v>0.9299937209195364</v>
       </c>
       <c r="E15">
-        <v>0.9326760004272447</v>
+        <v>0.9326760004272446</v>
       </c>
       <c r="F15">
-        <v>0.931123010511323</v>
+        <v>0.9311230105113227</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.02847935908512</v>
       </c>
       <c r="J15">
-        <v>0.9447951537093318</v>
+        <v>0.9447951537093312</v>
       </c>
       <c r="K15">
-        <v>0.946288619605918</v>
+        <v>0.9462886196059178</v>
       </c>
       <c r="L15">
-        <v>0.9489102063321264</v>
+        <v>0.948910206332126</v>
       </c>
       <c r="M15">
-        <v>0.9473922995543197</v>
+        <v>0.9473922995543195</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9197647586154994</v>
+        <v>0.9197647586154986</v>
       </c>
       <c r="D16">
-        <v>0.9372777927004399</v>
+        <v>0.937277792700439</v>
       </c>
       <c r="E16">
-        <v>0.9396795110024934</v>
+        <v>0.9396795110024928</v>
       </c>
       <c r="F16">
-        <v>0.9391478486309436</v>
+        <v>0.9391478486309427</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.030591526359824</v>
       </c>
       <c r="J16">
-        <v>0.9514793698532537</v>
+        <v>0.9514793698532528</v>
       </c>
       <c r="K16">
-        <v>0.9528397032890817</v>
+        <v>0.9528397032890811</v>
       </c>
       <c r="L16">
-        <v>0.9551903463178031</v>
+        <v>0.9551903463178024</v>
       </c>
       <c r="M16">
-        <v>0.954669960537365</v>
+        <v>0.954669960537364</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9248342313565596</v>
+        <v>0.9248342313565602</v>
       </c>
       <c r="D17">
-        <v>0.941689268856761</v>
+        <v>0.9416892688567617</v>
       </c>
       <c r="E17">
-        <v>0.9439221798506399</v>
+        <v>0.9439221798506403</v>
       </c>
       <c r="F17">
-        <v>0.944004455813765</v>
+        <v>0.9440044558137658</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.031861309908497</v>
       </c>
       <c r="J17">
-        <v>0.9555222889912218</v>
+        <v>0.9555222889912224</v>
       </c>
       <c r="K17">
-        <v>0.9568032497819433</v>
+        <v>0.9568032497819442</v>
       </c>
       <c r="L17">
-        <v>0.958990492668885</v>
+        <v>0.9589904926688854</v>
       </c>
       <c r="M17">
-        <v>0.959071091341609</v>
+        <v>0.9590710913416096</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9277286554832711</v>
+        <v>0.9277286554832731</v>
       </c>
       <c r="D18">
-        <v>0.9442097507286118</v>
+        <v>0.9442097507286137</v>
       </c>
       <c r="E18">
-        <v>0.946346590699729</v>
+        <v>0.9463465906997306</v>
       </c>
       <c r="F18">
-        <v>0.9467780043328325</v>
+        <v>0.9467780043328343</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032583294289354</v>
+        <v>1.032583294289355</v>
       </c>
       <c r="J18">
-        <v>0.9578303384951005</v>
+        <v>0.9578303384951022</v>
       </c>
       <c r="K18">
-        <v>0.9590663883342964</v>
+        <v>0.9590663883342981</v>
       </c>
       <c r="L18">
-        <v>0.9611605112369438</v>
+        <v>0.9611605112369453</v>
       </c>
       <c r="M18">
-        <v>0.961583331336621</v>
+        <v>0.9615833313366228</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9287054119845619</v>
+        <v>0.9287054119845636</v>
       </c>
       <c r="D19">
-        <v>0.9450605980794983</v>
+        <v>0.9450605980795002</v>
       </c>
       <c r="E19">
-        <v>0.9471650689419673</v>
+        <v>0.9471650689419691</v>
       </c>
       <c r="F19">
-        <v>0.9477140670283012</v>
+        <v>0.9477140670283032</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032826412315154</v>
+        <v>1.032826412315155</v>
       </c>
       <c r="J19">
-        <v>0.9586091619837561</v>
+        <v>0.9586091619837578</v>
       </c>
       <c r="K19">
-        <v>0.9598301242825706</v>
+        <v>0.9598301242825725</v>
       </c>
       <c r="L19">
-        <v>0.9618928518274135</v>
+        <v>0.9618928518274149</v>
       </c>
       <c r="M19">
-        <v>0.9624310002863029</v>
+        <v>0.9624310002863047</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9242968970003791</v>
+        <v>0.9242968970003778</v>
       </c>
       <c r="D20">
-        <v>0.9412214932876783</v>
+        <v>0.9412214932876776</v>
       </c>
       <c r="E20">
-        <v>0.9434722642169736</v>
+        <v>0.9434722642169727</v>
       </c>
       <c r="F20">
-        <v>0.9434896114239473</v>
+        <v>0.9434896114239458</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031727029605038</v>
+        <v>1.031727029605037</v>
       </c>
       <c r="J20">
-        <v>0.9550937882362691</v>
+        <v>0.955093788236268</v>
       </c>
       <c r="K20">
-        <v>0.9563831194063818</v>
+        <v>0.9563831194063808</v>
       </c>
       <c r="L20">
-        <v>0.9585876635462688</v>
+        <v>0.9585876635462678</v>
       </c>
       <c r="M20">
-        <v>0.9586046556023713</v>
+        <v>0.95860465560237</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9091938649197439</v>
+        <v>0.9091938649197457</v>
       </c>
       <c r="D21">
-        <v>0.9280918056926694</v>
+        <v>0.9280918056926711</v>
       </c>
       <c r="E21">
-        <v>0.9308477171333414</v>
+        <v>0.9308477171333426</v>
       </c>
       <c r="F21">
-        <v>0.9290265562276573</v>
+        <v>0.9290265562276584</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.027924956114865</v>
       </c>
       <c r="J21">
-        <v>0.9430481498151499</v>
+        <v>0.9430481498151516</v>
       </c>
       <c r="K21">
-        <v>0.9445767917250192</v>
+        <v>0.9445767917250208</v>
       </c>
       <c r="L21">
-        <v>0.9472693548242732</v>
+        <v>0.9472693548242745</v>
       </c>
       <c r="M21">
-        <v>0.9454899994668334</v>
+        <v>0.9454899994668344</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8990168896154106</v>
+        <v>0.8990168896154116</v>
       </c>
       <c r="D22">
-        <v>0.9192651892091807</v>
+        <v>0.9192651892091813</v>
       </c>
       <c r="E22">
-        <v>0.9223648595258899</v>
+        <v>0.9223648595258905</v>
       </c>
       <c r="F22">
-        <v>0.919291468368456</v>
+        <v>0.9192914683684568</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.025338193921506</v>
       </c>
       <c r="J22">
-        <v>0.9349316175514558</v>
+        <v>0.9349316175514567</v>
       </c>
       <c r="K22">
-        <v>0.936625681539872</v>
+        <v>0.9366256815398728</v>
       </c>
       <c r="L22">
-        <v>0.9396488746338058</v>
+        <v>0.9396488746338064</v>
       </c>
       <c r="M22">
-        <v>0.9366513094002988</v>
+        <v>0.9366513094002994</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9044830863112094</v>
+        <v>0.9044830863112102</v>
       </c>
       <c r="D23">
-        <v>0.9240039605607215</v>
+        <v>0.924003960560722</v>
       </c>
       <c r="E23">
-        <v>0.9269186584027814</v>
+        <v>0.9269186584027821</v>
       </c>
       <c r="F23">
-        <v>0.9245190968550852</v>
+        <v>0.9245190968550856</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026729660507469</v>
+        <v>1.02672966050747</v>
       </c>
       <c r="J23">
-        <v>0.9392909443456219</v>
+        <v>0.9392909443456228</v>
       </c>
       <c r="K23">
-        <v>0.9408957577069375</v>
+        <v>0.940895757706938</v>
       </c>
       <c r="L23">
-        <v>0.9437411930060461</v>
+        <v>0.9437411930060464</v>
       </c>
       <c r="M23">
-        <v>0.9413986100875517</v>
+        <v>0.9413986100875521</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9245398872540618</v>
+        <v>0.9245398872540614</v>
       </c>
       <c r="D24">
-        <v>0.9414330226723874</v>
+        <v>0.9414330226723867</v>
       </c>
       <c r="E24">
-        <v>0.9436757161222472</v>
+        <v>0.943675716122247</v>
       </c>
       <c r="F24">
-        <v>0.9437224293767331</v>
+        <v>0.9437224293767335</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.0317877624684</v>
       </c>
       <c r="J24">
-        <v>0.9552875632284838</v>
+        <v>0.9552875632284835</v>
       </c>
       <c r="K24">
-        <v>0.956573107927136</v>
+        <v>0.9565731079271355</v>
       </c>
       <c r="L24">
-        <v>0.9587698276536819</v>
+        <v>0.9587698276536816</v>
       </c>
       <c r="M24">
-        <v>0.9588155863806157</v>
+        <v>0.958815586380616</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9453915385497299</v>
+        <v>0.9453915385497307</v>
       </c>
       <c r="D25">
-        <v>0.959617102629769</v>
+        <v>0.9596171026297698</v>
       </c>
       <c r="E25">
-        <v>0.961172664481843</v>
+        <v>0.9611726644818438</v>
       </c>
       <c r="F25">
-        <v>0.9637104743556799</v>
+        <v>0.9637104743556804</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036932682025033</v>
+        <v>1.036932682025034</v>
       </c>
       <c r="J25">
-        <v>0.9719076114377282</v>
+        <v>0.971907611437729</v>
       </c>
       <c r="K25">
-        <v>0.9728764234169188</v>
+        <v>0.9728764234169196</v>
       </c>
       <c r="L25">
-        <v>0.9744051936115893</v>
+        <v>0.9744051936115899</v>
       </c>
       <c r="M25">
-        <v>0.9768995342526982</v>
+        <v>0.9768995342526986</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9605138914216622</v>
+        <v>0.9605419049247722</v>
       </c>
       <c r="D2">
-        <v>0.9728425164135928</v>
+        <v>0.9728684069014463</v>
       </c>
       <c r="E2">
-        <v>0.9739074697418346</v>
+        <v>0.9739320594952304</v>
       </c>
       <c r="F2">
-        <v>0.978210795836426</v>
+        <v>0.978234325454134</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040559512538069</v>
+        <v>1.04056523039897</v>
       </c>
       <c r="J2">
-        <v>0.9839433665645276</v>
+        <v>0.9839704434162373</v>
       </c>
       <c r="K2">
-        <v>0.9846936279217551</v>
+        <v>0.984719131663193</v>
       </c>
       <c r="L2">
-        <v>0.9857426947948451</v>
+        <v>0.98576691825212</v>
       </c>
       <c r="M2">
-        <v>0.9899822734226525</v>
+        <v>0.9900054564416545</v>
+      </c>
+      <c r="N2">
+        <v>0.9913982725740313</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9707812691561062</v>
+        <v>0.9708022261938424</v>
       </c>
       <c r="D3">
-        <v>0.9818387721115975</v>
+        <v>0.9818582120467576</v>
       </c>
       <c r="E3">
-        <v>0.9825745529083025</v>
+        <v>0.9825930419261361</v>
       </c>
       <c r="F3">
-        <v>0.9880529875708433</v>
+        <v>0.9880705834485221</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042956134511891</v>
+        <v>1.042960409247256</v>
       </c>
       <c r="J3">
-        <v>0.9921014486525329</v>
+        <v>0.9921217861239557</v>
       </c>
       <c r="K3">
-        <v>0.9927094271196785</v>
+        <v>0.9927286066324343</v>
       </c>
       <c r="L3">
-        <v>0.9934353602323797</v>
+        <v>0.9934536020319468</v>
       </c>
       <c r="M3">
-        <v>0.9988410499533826</v>
+        <v>0.9988584138155305</v>
+      </c>
+      <c r="N3">
+        <v>0.9969355908274294</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.977137363177926</v>
+        <v>0.9771540838048219</v>
       </c>
       <c r="D4">
-        <v>0.9874144483292961</v>
+        <v>0.987430004842496</v>
       </c>
       <c r="E4">
-        <v>0.9879481299338685</v>
+        <v>0.9879629473132168</v>
       </c>
       <c r="F4">
-        <v>0.9941431346740314</v>
+        <v>0.9941571758751477</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044407757907745</v>
+        <v>1.044411168118046</v>
       </c>
       <c r="J4">
-        <v>0.9971445466102432</v>
+        <v>0.9971608118259426</v>
       </c>
       <c r="K4">
-        <v>0.9976671813218547</v>
+        <v>0.9976825440762358</v>
       </c>
       <c r="L4">
-        <v>0.9981942201808625</v>
+        <v>0.9982088532555515</v>
       </c>
       <c r="M4">
-        <v>1.004312764691959</v>
+        <v>1.004326633939278</v>
+      </c>
+      <c r="N4">
+        <v>1.000357762789916</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9797459996930423</v>
+        <v>0.9797610087772946</v>
       </c>
       <c r="D5">
-        <v>0.9897041794047469</v>
+        <v>0.9897181647528066</v>
       </c>
       <c r="E5">
-        <v>0.9901553016834669</v>
+        <v>0.990168633852881</v>
       </c>
       <c r="F5">
-        <v>0.9966417817737214</v>
+        <v>0.9966543885008462</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044995614327834</v>
+        <v>1.04499867561172</v>
       </c>
       <c r="J5">
-        <v>0.9992124546955042</v>
+        <v>0.9992270690908794</v>
       </c>
       <c r="K5">
-        <v>0.999700710318811</v>
+        <v>0.9997145268393192</v>
       </c>
       <c r="L5">
-        <v>1.000146389749154</v>
+        <v>1.000159561157891</v>
       </c>
       <c r="M5">
-        <v>1.006555284769191</v>
+        <v>1.006567741925203</v>
+      </c>
+      <c r="N5">
+        <v>1.001760795975914</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9801804234153757</v>
+        <v>0.9801951489516009</v>
       </c>
       <c r="D6">
-        <v>0.9900855722297086</v>
+        <v>0.9900992971635983</v>
       </c>
       <c r="E6">
-        <v>0.990522967875918</v>
+        <v>0.9905360538935113</v>
       </c>
       <c r="F6">
-        <v>0.9970578341141848</v>
+        <v>0.9970702032858755</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045093039707998</v>
+        <v>1.045096043203609</v>
       </c>
       <c r="J6">
-        <v>0.9995567168336835</v>
+        <v>0.9995710574294755</v>
       </c>
       <c r="K6">
-        <v>1.000039285054591</v>
+        <v>1.000052845178771</v>
       </c>
       <c r="L6">
-        <v>1.000471431218605</v>
+        <v>1.000484360270629</v>
       </c>
       <c r="M6">
-        <v>1.006928547383275</v>
+        <v>1.006940770586699</v>
+      </c>
+      <c r="N6">
+        <v>1.001994357446305</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9771724626777574</v>
+        <v>0.9771891601733479</v>
       </c>
       <c r="D7">
-        <v>0.9874452516089829</v>
+        <v>0.9874607868965438</v>
       </c>
       <c r="E7">
-        <v>0.9879778208607822</v>
+        <v>0.9879926181746359</v>
       </c>
       <c r="F7">
-        <v>0.9941767578229569</v>
+        <v>0.9941907796310214</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044415699278416</v>
+        <v>1.044419104771755</v>
       </c>
       <c r="J7">
-        <v>0.9971723780648424</v>
+        <v>0.9971886209913806</v>
       </c>
       <c r="K7">
-        <v>0.997694547644285</v>
+        <v>0.9977098895177077</v>
       </c>
       <c r="L7">
-        <v>0.9982204907379508</v>
+        <v>0.9982351040725875</v>
       </c>
       <c r="M7">
-        <v>1.004342950804761</v>
+        <v>1.00435680096878</v>
+      </c>
+      <c r="N7">
+        <v>1.000376646749751</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9640468174649957</v>
+        <v>0.9640723717008657</v>
       </c>
       <c r="D8">
-        <v>0.9759365692597767</v>
+        <v>0.9759602142354638</v>
       </c>
       <c r="E8">
-        <v>0.9768878879188825</v>
+        <v>0.9769103536703577</v>
       </c>
       <c r="F8">
-        <v>0.981597879172833</v>
+        <v>0.9816193389977178</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041390849223018</v>
+        <v>1.041396063664996</v>
       </c>
       <c r="J8">
-        <v>0.9867519587374636</v>
+        <v>0.9867766930023298</v>
       </c>
       <c r="K8">
-        <v>0.9874526718067141</v>
+        <v>0.9874759761924906</v>
       </c>
       <c r="L8">
-        <v>0.9883903038427857</v>
+        <v>0.9884124467874779</v>
       </c>
       <c r="M8">
-        <v>0.9930330267391319</v>
+        <v>0.9930541819419456</v>
+      </c>
+      <c r="N8">
+        <v>0.993304780392462</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9384286196012113</v>
+        <v>0.9384728448072782</v>
       </c>
       <c r="D9">
-        <v>0.9535380328331872</v>
+        <v>0.9535786546717037</v>
       </c>
       <c r="E9">
-        <v>0.955321706075983</v>
+        <v>0.9553602362310434</v>
       </c>
       <c r="F9">
-        <v>0.9570343698058099</v>
+        <v>0.957071590705726</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035230738468595</v>
+        <v>1.035239788656559</v>
       </c>
       <c r="J9">
-        <v>0.9663600493569906</v>
+        <v>0.966402405979201</v>
       </c>
       <c r="K9">
-        <v>0.9674327605962132</v>
+        <v>0.9674726371091388</v>
       </c>
       <c r="L9">
-        <v>0.9691837849038921</v>
+        <v>0.9692216115415493</v>
       </c>
       <c r="M9">
-        <v>0.9708652484867334</v>
+        <v>0.970901792934499</v>
+      </c>
+      <c r="N9">
+        <v>0.9794595651889477</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9191830513804963</v>
+        <v>0.919242800852545</v>
       </c>
       <c r="D10">
-        <v>0.9367718402967679</v>
+        <v>0.9368264503600631</v>
       </c>
       <c r="E10">
-        <v>0.9391929726636381</v>
+        <v>0.9392447482860428</v>
       </c>
       <c r="F10">
-        <v>0.9385906705181796</v>
+        <v>0.9386410735580761</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030445420022142</v>
+        <v>1.030457684020191</v>
       </c>
       <c r="J10">
-        <v>0.9510154284113715</v>
+        <v>0.9510721604254919</v>
       </c>
       <c r="K10">
-        <v>0.952384926538252</v>
+        <v>0.9524383662250325</v>
       </c>
       <c r="L10">
-        <v>0.9547543435600486</v>
+        <v>0.9548050171132018</v>
       </c>
       <c r="M10">
-        <v>0.9541648735457476</v>
+        <v>0.9542142019052759</v>
+      </c>
+      <c r="N10">
+        <v>0.9690386098968705</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9101883242635382</v>
+        <v>0.9102558681216656</v>
       </c>
       <c r="D11">
-        <v>0.9289552230940243</v>
+        <v>0.9290168124375793</v>
       </c>
       <c r="E11">
-        <v>0.9316776883656619</v>
+        <v>0.9317360750937654</v>
       </c>
       <c r="F11">
-        <v>0.9299783445610316</v>
+        <v>0.9300353897297464</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028176780284372</v>
+        <v>1.028190665773215</v>
       </c>
       <c r="J11">
-        <v>0.9438413276802089</v>
+        <v>0.9439051871206813</v>
       </c>
       <c r="K11">
-        <v>0.9453539797115512</v>
+        <v>0.9454141580131185</v>
       </c>
       <c r="L11">
-        <v>0.9480143096982804</v>
+        <v>0.9480713691638712</v>
       </c>
       <c r="M11">
-        <v>0.9463536933268893</v>
+        <v>0.9464094353912776</v>
+      </c>
+      <c r="N11">
+        <v>0.9641663320746486</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9067315354432303</v>
+        <v>0.9068021778834978</v>
       </c>
       <c r="D12">
-        <v>0.9259546319150724</v>
+        <v>0.9260189877157005</v>
       </c>
       <c r="E12">
-        <v>0.9287934689882908</v>
+        <v>0.9288544766174199</v>
       </c>
       <c r="F12">
-        <v>0.9266702518135188</v>
+        <v>0.926729941526228</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027300652985655</v>
+        <v>1.027315184437144</v>
       </c>
       <c r="J12">
-        <v>0.9410842283888674</v>
+        <v>0.9411509051621132</v>
       </c>
       <c r="K12">
-        <v>0.9426525978603473</v>
+        <v>0.9427154422334753</v>
       </c>
       <c r="L12">
-        <v>0.9454250299617046</v>
+        <v>0.9454846164860276</v>
       </c>
       <c r="M12">
-        <v>0.9433514268926804</v>
+        <v>0.9434097176516537</v>
+      </c>
+      <c r="N12">
+        <v>0.9622938830143429</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9074785745149763</v>
+        <v>0.9075485422510351</v>
       </c>
       <c r="D13">
-        <v>0.9266029187077959</v>
+        <v>0.9266666725130379</v>
       </c>
       <c r="E13">
-        <v>0.9294165804773119</v>
+        <v>0.9294770177674527</v>
       </c>
       <c r="F13">
-        <v>0.9273850675340483</v>
+        <v>0.9274441812193027</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027490172387005</v>
+        <v>1.02750456311947</v>
       </c>
       <c r="J13">
-        <v>0.9416800520335423</v>
+        <v>0.9417461161114673</v>
       </c>
       <c r="K13">
-        <v>0.9432363483360164</v>
+        <v>0.9432986127941536</v>
       </c>
       <c r="L13">
-        <v>0.9459845404863824</v>
+        <v>0.946043577308551</v>
       </c>
       <c r="M13">
-        <v>0.9440002443941826</v>
+        <v>0.9440579802361057</v>
+      </c>
+      <c r="N13">
+        <v>0.9626985267745881</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9099050557212226</v>
+        <v>0.9099728512617417</v>
       </c>
       <c r="D14">
-        <v>0.928709265185708</v>
+        <v>0.9287710794058127</v>
       </c>
       <c r="E14">
-        <v>0.9314412548526835</v>
+        <v>0.9314998546178358</v>
       </c>
       <c r="F14">
-        <v>0.9297072221698627</v>
+        <v>0.929764482058566</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028105067806578</v>
+        <v>1.028119005735836</v>
       </c>
       <c r="J14">
-        <v>0.9436153931074456</v>
+        <v>0.9436794817234481</v>
       </c>
       <c r="K14">
-        <v>0.9451325965679417</v>
+        <v>0.945192991690032</v>
       </c>
       <c r="L14">
-        <v>0.9478021066656257</v>
+        <v>0.9478593716354549</v>
       </c>
       <c r="M14">
-        <v>0.9461076737975149</v>
+        <v>0.9461636229019231</v>
+      </c>
+      <c r="N14">
+        <v>0.9640128905231296</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9113841935270967</v>
+        <v>0.9114506791752874</v>
       </c>
       <c r="D15">
-        <v>0.9299937209195364</v>
+        <v>0.9300543644279415</v>
       </c>
       <c r="E15">
-        <v>0.9326760004272446</v>
+        <v>0.9327334911326731</v>
       </c>
       <c r="F15">
-        <v>0.9311230105113227</v>
+        <v>0.9311791530434611</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02847935908512</v>
+        <v>1.028493024140752</v>
       </c>
       <c r="J15">
-        <v>0.9447951537093312</v>
+        <v>0.9448580489135061</v>
       </c>
       <c r="K15">
-        <v>0.9462886196059178</v>
+        <v>0.9463478857528747</v>
       </c>
       <c r="L15">
-        <v>0.948910206332126</v>
+        <v>0.9489664012717447</v>
       </c>
       <c r="M15">
-        <v>0.9473922995543195</v>
+        <v>0.9474471710673704</v>
+      </c>
+      <c r="N15">
+        <v>0.9648141164970719</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9197647586154986</v>
+        <v>0.9198240166846632</v>
       </c>
       <c r="D16">
-        <v>0.937277792700439</v>
+        <v>0.9373319617694981</v>
       </c>
       <c r="E16">
-        <v>0.9396795110024928</v>
+        <v>0.9397308689436682</v>
       </c>
       <c r="F16">
-        <v>0.9391478486309427</v>
+        <v>0.9391978334184002</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030591526359824</v>
+        <v>1.03060368829976</v>
       </c>
       <c r="J16">
-        <v>0.9514793698532528</v>
+        <v>0.9515356505366104</v>
       </c>
       <c r="K16">
-        <v>0.9528397032890811</v>
+        <v>0.952892716568202</v>
       </c>
       <c r="L16">
-        <v>0.9551903463178024</v>
+        <v>0.955240615848746</v>
       </c>
       <c r="M16">
-        <v>0.954669960537364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9547188844244073</v>
+      </c>
+      <c r="N16">
+        <v>0.9693536959587544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9248342313565602</v>
+        <v>0.9248892685061033</v>
       </c>
       <c r="D17">
-        <v>0.9416892688567617</v>
+        <v>0.9417396451860134</v>
       </c>
       <c r="E17">
-        <v>0.9439221798506403</v>
+        <v>0.9439699458144859</v>
       </c>
       <c r="F17">
-        <v>0.9440044558137658</v>
+        <v>0.9440508505814121</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031861309908497</v>
+        <v>1.031872596079798</v>
       </c>
       <c r="J17">
-        <v>0.9555222889912224</v>
+        <v>0.9555746831216719</v>
       </c>
       <c r="K17">
-        <v>0.9568032497819442</v>
+        <v>0.9568525926507495</v>
       </c>
       <c r="L17">
-        <v>0.9589904926688854</v>
+        <v>0.9590372848215388</v>
       </c>
       <c r="M17">
-        <v>0.9590710913416096</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9591165404683382</v>
+      </c>
+      <c r="N17">
+        <v>0.9720994350171569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9277286554832731</v>
+        <v>0.9277813306286297</v>
       </c>
       <c r="D18">
-        <v>0.9442097507286137</v>
+        <v>0.9442580008986298</v>
       </c>
       <c r="E18">
-        <v>0.9463465906997306</v>
+        <v>0.9463923432617187</v>
       </c>
       <c r="F18">
-        <v>0.9467780043328343</v>
+        <v>0.9468223921994059</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032583294289355</v>
+        <v>1.032594091072081</v>
       </c>
       <c r="J18">
-        <v>0.9578303384951022</v>
+        <v>0.9578805499681128</v>
       </c>
       <c r="K18">
-        <v>0.9590663883342981</v>
+        <v>0.9591136711393148</v>
       </c>
       <c r="L18">
-        <v>0.9611605112369453</v>
+        <v>0.9612053519435658</v>
       </c>
       <c r="M18">
-        <v>0.9615833313366228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9616268356042929</v>
+      </c>
+      <c r="N18">
+        <v>0.9736669239869553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9287054119845636</v>
+        <v>0.9287572976420664</v>
       </c>
       <c r="D19">
-        <v>0.9450605980795002</v>
+        <v>0.9451081369891723</v>
       </c>
       <c r="E19">
-        <v>0.9471650689419691</v>
+        <v>0.9472101479996777</v>
       </c>
       <c r="F19">
-        <v>0.9477140670283032</v>
+        <v>0.9477577844345456</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032826412315155</v>
+        <v>1.032837045634093</v>
       </c>
       <c r="J19">
-        <v>0.9586091619837578</v>
+        <v>0.9586586426601017</v>
       </c>
       <c r="K19">
-        <v>0.9598301242825725</v>
+        <v>0.9598767175344343</v>
       </c>
       <c r="L19">
-        <v>0.9618928518274149</v>
+        <v>0.961937039383293</v>
       </c>
       <c r="M19">
-        <v>0.9624310002863047</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.96247385443278</v>
+      </c>
+      <c r="N19">
+        <v>0.9741958499544414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9242968970003778</v>
+        <v>0.9243523764114505</v>
       </c>
       <c r="D20">
-        <v>0.9412214932876776</v>
+        <v>0.941272267418628</v>
       </c>
       <c r="E20">
-        <v>0.9434722642169727</v>
+        <v>0.9435204069030799</v>
       </c>
       <c r="F20">
-        <v>0.9434896114239458</v>
+        <v>0.9435363821294198</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031727029605037</v>
+        <v>1.031738407464732</v>
       </c>
       <c r="J20">
-        <v>0.955093788236268</v>
+        <v>0.9551465904249854</v>
       </c>
       <c r="K20">
-        <v>0.9563831194063808</v>
+        <v>0.9564328475111109</v>
       </c>
       <c r="L20">
-        <v>0.9585876635462678</v>
+        <v>0.9586348206454195</v>
       </c>
       <c r="M20">
-        <v>0.95860465560237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9586504688529567</v>
+      </c>
+      <c r="N20">
+        <v>0.9718084212252223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9091938649197457</v>
+        <v>0.9092622940883691</v>
       </c>
       <c r="D21">
-        <v>0.9280918056926711</v>
+        <v>0.9281541859212364</v>
       </c>
       <c r="E21">
-        <v>0.9308477171333426</v>
+        <v>0.9309068531133569</v>
       </c>
       <c r="F21">
-        <v>0.9290265562276584</v>
+        <v>0.9290843567546353</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027924956114865</v>
+        <v>1.027939026088592</v>
       </c>
       <c r="J21">
-        <v>0.9430481498151516</v>
+        <v>0.9431128151313978</v>
       </c>
       <c r="K21">
-        <v>0.9445767917250208</v>
+        <v>0.9446377324969262</v>
       </c>
       <c r="L21">
-        <v>0.9472693548242745</v>
+        <v>0.9473271369740329</v>
       </c>
       <c r="M21">
-        <v>0.9454899994668344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9455464697917866</v>
+      </c>
+      <c r="N21">
+        <v>0.9636276527255623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8990168896154116</v>
+        <v>0.899094670939084</v>
       </c>
       <c r="D22">
-        <v>0.9192651892091813</v>
+        <v>0.919335901364556</v>
       </c>
       <c r="E22">
-        <v>0.9223648595258905</v>
+        <v>0.922431889810291</v>
       </c>
       <c r="F22">
-        <v>0.9192914683684568</v>
+        <v>0.9193572590719177</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025338193921506</v>
+        <v>1.025354216352645</v>
       </c>
       <c r="J22">
-        <v>0.9349316175514567</v>
+        <v>0.9350047513493529</v>
       </c>
       <c r="K22">
-        <v>0.9366256815398728</v>
+        <v>0.936694641289651</v>
       </c>
       <c r="L22">
-        <v>0.9396488746338064</v>
+        <v>0.9397142587428029</v>
       </c>
       <c r="M22">
-        <v>0.9366513094002994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9367154697766085</v>
+      </c>
+      <c r="N22">
+        <v>0.9581155412356618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9044830863112102</v>
+        <v>0.9045557767651994</v>
       </c>
       <c r="D23">
-        <v>0.924003960560722</v>
+        <v>0.9240701423475881</v>
       </c>
       <c r="E23">
-        <v>0.9269186584027821</v>
+        <v>0.9269813960545008</v>
       </c>
       <c r="F23">
-        <v>0.9245190968550856</v>
+        <v>0.9245805356856127</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02672966050747</v>
+        <v>1.026744619311897</v>
       </c>
       <c r="J23">
-        <v>0.9392909443456228</v>
+        <v>0.9393594783126669</v>
       </c>
       <c r="K23">
-        <v>0.940895757706938</v>
+        <v>0.9409603602974422</v>
       </c>
       <c r="L23">
-        <v>0.9437411930060464</v>
+        <v>0.9438024462296368</v>
       </c>
       <c r="M23">
-        <v>0.9413986100875521</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9414585850765926</v>
+      </c>
+      <c r="N23">
+        <v>0.9610760130188698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9245398872540614</v>
+        <v>0.9245951665202253</v>
       </c>
       <c r="D24">
-        <v>0.9414330226723867</v>
+        <v>0.9414836167903982</v>
       </c>
       <c r="E24">
-        <v>0.943675716122247</v>
+        <v>0.9437236883336001</v>
       </c>
       <c r="F24">
-        <v>0.9437224293767335</v>
+        <v>0.9437690299455801</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0317877624684</v>
+        <v>1.031799098832478</v>
       </c>
       <c r="J24">
-        <v>0.9552875632284835</v>
+        <v>0.9553401807751695</v>
       </c>
       <c r="K24">
-        <v>0.9565731079271355</v>
+        <v>0.9566226617129281</v>
       </c>
       <c r="L24">
-        <v>0.9587698276536816</v>
+        <v>0.9588168196139812</v>
       </c>
       <c r="M24">
-        <v>0.958815586380616</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9588612348486445</v>
+      </c>
+      <c r="N24">
+        <v>0.9719400224406179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9453915385497307</v>
+        <v>0.9454304855395993</v>
       </c>
       <c r="D25">
-        <v>0.9596171026297698</v>
+        <v>0.9596529419780188</v>
       </c>
       <c r="E25">
-        <v>0.9611726644818438</v>
+        <v>0.9612066678299738</v>
       </c>
       <c r="F25">
-        <v>0.9637104743556804</v>
+        <v>0.963743228873387</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036932682025034</v>
+        <v>1.036940644585623</v>
       </c>
       <c r="J25">
-        <v>0.971907611437729</v>
+        <v>0.97194502396181</v>
       </c>
       <c r="K25">
-        <v>0.9728764234169196</v>
+        <v>0.9729116442348417</v>
       </c>
       <c r="L25">
-        <v>0.9744051936115899</v>
+        <v>0.9744386125673409</v>
       </c>
       <c r="M25">
-        <v>0.9768995342526986</v>
+        <v>0.9769317296630458</v>
+      </c>
+      <c r="N25">
+        <v>0.9832266811035713</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9605419049247722</v>
+        <v>1.006354948769115</v>
       </c>
       <c r="D2">
-        <v>0.9728684069014463</v>
+        <v>1.021451926135153</v>
       </c>
       <c r="E2">
-        <v>0.9739320594952304</v>
+        <v>1.019747647716987</v>
       </c>
       <c r="F2">
-        <v>0.978234325454134</v>
+        <v>1.02861615676734</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04056523039897</v>
+        <v>1.045863153966711</v>
       </c>
       <c r="J2">
-        <v>0.9839704434162373</v>
+        <v>1.028347231702913</v>
       </c>
       <c r="K2">
-        <v>0.984719131663193</v>
+        <v>1.032620277270776</v>
       </c>
       <c r="L2">
-        <v>0.98576691825212</v>
+        <v>1.030938554581139</v>
       </c>
       <c r="M2">
-        <v>0.9900054564416545</v>
+        <v>1.039690714461866</v>
       </c>
       <c r="N2">
-        <v>0.9913982725740313</v>
+        <v>1.029807602725008</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9708022261938424</v>
+        <v>1.018044298370743</v>
       </c>
       <c r="D3">
-        <v>0.9818582120467576</v>
+        <v>1.032398548516669</v>
       </c>
       <c r="E3">
-        <v>0.9825930419261361</v>
+        <v>1.029970686889279</v>
       </c>
       <c r="F3">
-        <v>0.9880705834485221</v>
+        <v>1.039341694511811</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042960409247256</v>
+        <v>1.04755313035409</v>
       </c>
       <c r="J3">
-        <v>0.9921217861239557</v>
+        <v>1.038054858899457</v>
       </c>
       <c r="K3">
-        <v>0.9927286066324343</v>
+        <v>1.042633009778914</v>
       </c>
       <c r="L3">
-        <v>0.9934536020319468</v>
+        <v>1.040233927521435</v>
       </c>
       <c r="M3">
-        <v>0.9988584138155305</v>
+        <v>1.049494770740591</v>
       </c>
       <c r="N3">
-        <v>0.9969355908274294</v>
+        <v>1.039529015865651</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9771540838048219</v>
+        <v>1.025284600314185</v>
       </c>
       <c r="D4">
-        <v>0.987430004842496</v>
+        <v>1.039185094177989</v>
       </c>
       <c r="E4">
-        <v>0.9879629473132168</v>
+        <v>1.036308942199794</v>
       </c>
       <c r="F4">
-        <v>0.9941571758751477</v>
+        <v>1.045991006405806</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044411168118046</v>
+        <v>1.048582015481428</v>
       </c>
       <c r="J4">
-        <v>0.9971608118259426</v>
+        <v>1.044062915381262</v>
       </c>
       <c r="K4">
-        <v>0.9976825440762358</v>
+        <v>1.048832518595436</v>
       </c>
       <c r="L4">
-        <v>0.9982088532555515</v>
+        <v>1.04598804325158</v>
       </c>
       <c r="M4">
-        <v>1.004326633939278</v>
+        <v>1.055564324528208</v>
       </c>
       <c r="N4">
-        <v>1.000357762789916</v>
+        <v>1.045545604476794</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9797610087772946</v>
+        <v>1.028257421174372</v>
       </c>
       <c r="D5">
-        <v>0.9897181647528066</v>
+        <v>1.041972953370973</v>
       </c>
       <c r="E5">
-        <v>0.990168633852881</v>
+        <v>1.038912685142325</v>
       </c>
       <c r="F5">
-        <v>0.9966543885008462</v>
+        <v>1.048722407566242</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04499867561172</v>
+        <v>1.049000035426723</v>
       </c>
       <c r="J5">
-        <v>0.9992270690908794</v>
+        <v>1.046528510174198</v>
       </c>
       <c r="K5">
-        <v>0.9997145268393192</v>
+        <v>1.051377299089723</v>
       </c>
       <c r="L5">
-        <v>1.000159561157891</v>
+        <v>1.048349689427549</v>
       </c>
       <c r="M5">
-        <v>1.006567741925203</v>
+        <v>1.058055547908339</v>
       </c>
       <c r="N5">
-        <v>1.001760795975914</v>
+        <v>1.048014700697143</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9801951489516009</v>
+        <v>1.028752578790927</v>
       </c>
       <c r="D6">
-        <v>0.9900992971635983</v>
+        <v>1.04243737849794</v>
       </c>
       <c r="E6">
-        <v>0.9905360538935113</v>
+        <v>1.039346439898714</v>
       </c>
       <c r="F6">
-        <v>0.9970702032858755</v>
+        <v>1.049177421363334</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045096043203609</v>
+        <v>1.049069396555199</v>
       </c>
       <c r="J6">
-        <v>0.9995710574294755</v>
+        <v>1.046939105034646</v>
       </c>
       <c r="K6">
-        <v>1.000052845178771</v>
+        <v>1.051801116730832</v>
       </c>
       <c r="L6">
-        <v>1.000484360270629</v>
+        <v>1.048742988623406</v>
       </c>
       <c r="M6">
-        <v>1.006940770586699</v>
+        <v>1.058470432506682</v>
       </c>
       <c r="N6">
-        <v>1.001994357446305</v>
+        <v>1.048425878649389</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9771891601733479</v>
+        <v>1.025324594402604</v>
       </c>
       <c r="D7">
-        <v>0.9874607868965438</v>
+        <v>1.039222594781571</v>
       </c>
       <c r="E7">
-        <v>0.9879926181746359</v>
+        <v>1.036343966076357</v>
       </c>
       <c r="F7">
-        <v>0.9941907796310214</v>
+        <v>1.046027747954603</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044419104771755</v>
+        <v>1.048587656984058</v>
       </c>
       <c r="J7">
-        <v>0.9971886209913806</v>
+        <v>1.044096090846606</v>
       </c>
       <c r="K7">
-        <v>0.9977098895177077</v>
+        <v>1.048866757097706</v>
       </c>
       <c r="L7">
-        <v>0.9982351040725875</v>
+        <v>1.046019819033741</v>
       </c>
       <c r="M7">
-        <v>1.00435680096878</v>
+        <v>1.055597843338171</v>
       </c>
       <c r="N7">
-        <v>1.000376646749751</v>
+        <v>1.045578827055104</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9640723717008657</v>
+        <v>1.010376565264151</v>
       </c>
       <c r="D8">
-        <v>0.9759602142354638</v>
+        <v>1.025216569219071</v>
       </c>
       <c r="E8">
-        <v>0.9769103536703577</v>
+        <v>1.023263354605198</v>
       </c>
       <c r="F8">
-        <v>0.9816193389977178</v>
+        <v>1.032304774256384</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041396063664996</v>
+        <v>1.046448288907836</v>
       </c>
       <c r="J8">
-        <v>0.9867766930023298</v>
+        <v>1.031687988345831</v>
       </c>
       <c r="K8">
-        <v>0.9874759761924906</v>
+        <v>1.036065465056984</v>
       </c>
       <c r="L8">
-        <v>0.9884124467874779</v>
+        <v>1.034137166014171</v>
       </c>
       <c r="M8">
-        <v>0.9930541819419456</v>
+        <v>1.043064238983201</v>
       </c>
       <c r="N8">
-        <v>0.993304780392462</v>
+        <v>1.033153103625549</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9384728448072782</v>
+        <v>0.9812128709805162</v>
       </c>
       <c r="D9">
-        <v>0.9535786546717037</v>
+        <v>0.9979525994926221</v>
       </c>
       <c r="E9">
-        <v>0.9553602362310434</v>
+        <v>0.9978054421890453</v>
       </c>
       <c r="F9">
-        <v>0.957071590705726</v>
+        <v>1.005592837654795</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035239788656559</v>
+        <v>1.04213246165769</v>
       </c>
       <c r="J9">
-        <v>0.966402405979201</v>
+        <v>1.007446951494841</v>
       </c>
       <c r="K9">
-        <v>0.9674726371091388</v>
+        <v>1.011078981911253</v>
       </c>
       <c r="L9">
-        <v>0.9692216115415493</v>
+        <v>1.010934225191936</v>
       </c>
       <c r="M9">
-        <v>0.970901792934499</v>
+        <v>1.018595822035369</v>
       </c>
       <c r="N9">
-        <v>0.9794595651889477</v>
+        <v>1.008877641721745</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.919242800852545</v>
+        <v>0.9592693268184231</v>
       </c>
       <c r="D10">
-        <v>0.9368264503600631</v>
+        <v>0.9774976854679727</v>
       </c>
       <c r="E10">
-        <v>0.9392447482860428</v>
+        <v>0.9787125095242137</v>
       </c>
       <c r="F10">
-        <v>0.9386410735580761</v>
+        <v>0.9855571488266091</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030457684020191</v>
+        <v>1.038799941088144</v>
       </c>
       <c r="J10">
-        <v>0.9510721604254919</v>
+        <v>0.9891976417007419</v>
       </c>
       <c r="K10">
-        <v>0.9524383662250325</v>
+        <v>0.9922854697650658</v>
       </c>
       <c r="L10">
-        <v>0.9548050171132018</v>
+        <v>0.9934770557285681</v>
       </c>
       <c r="M10">
-        <v>0.9542142019052759</v>
+        <v>1.00019216346045</v>
       </c>
       <c r="N10">
-        <v>0.9690386098968705</v>
+        <v>0.9906024158145124</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9102558681216656</v>
+        <v>0.9489907124650906</v>
       </c>
       <c r="D11">
-        <v>0.9290168124375793</v>
+        <v>0.9679354051853284</v>
       </c>
       <c r="E11">
-        <v>0.9317360750937654</v>
+        <v>0.9697897430224236</v>
       </c>
       <c r="F11">
-        <v>0.9300353897297464</v>
+        <v>0.9761933492933043</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028190665773215</v>
+        <v>1.037222286343136</v>
       </c>
       <c r="J11">
-        <v>0.9439051871206813</v>
+        <v>0.9806510546492686</v>
       </c>
       <c r="K11">
-        <v>0.9454141580131185</v>
+        <v>0.9834884507998436</v>
       </c>
       <c r="L11">
-        <v>0.9480713691638712</v>
+        <v>0.9853047900892934</v>
       </c>
       <c r="M11">
-        <v>0.9464094353912776</v>
+        <v>0.9915786362631752</v>
       </c>
       <c r="N11">
-        <v>0.9641663320746486</v>
+        <v>0.9820436916291186</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9068021778834978</v>
+        <v>0.9450351966023658</v>
       </c>
       <c r="D12">
-        <v>0.9260189877157005</v>
+        <v>0.9642589586973617</v>
       </c>
       <c r="E12">
-        <v>0.9288544766174199</v>
+        <v>0.9663597244909943</v>
       </c>
       <c r="F12">
-        <v>0.926729941526228</v>
+        <v>0.9725937318706926</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027315184437144</v>
+        <v>1.036613039614723</v>
       </c>
       <c r="J12">
-        <v>0.9411509051621132</v>
+        <v>0.9773627522648769</v>
       </c>
       <c r="K12">
-        <v>0.9427154422334753</v>
+        <v>0.9801045013213294</v>
       </c>
       <c r="L12">
-        <v>0.9454846164860276</v>
+        <v>0.9821611006760976</v>
       </c>
       <c r="M12">
-        <v>0.9434097176516537</v>
+        <v>0.9882655267573087</v>
       </c>
       <c r="N12">
-        <v>0.9622938830143429</v>
+        <v>0.9787507194781675</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9075485422510351</v>
+        <v>0.9458902911668954</v>
       </c>
       <c r="D13">
-        <v>0.9266666725130379</v>
+        <v>0.9650535614501751</v>
       </c>
       <c r="E13">
-        <v>0.9294770177674527</v>
+        <v>0.9671010386910438</v>
       </c>
       <c r="F13">
-        <v>0.9274441812193027</v>
+        <v>0.9733717033119372</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02750456311947</v>
+        <v>1.036744833563381</v>
       </c>
       <c r="J13">
-        <v>0.9417461161114673</v>
+        <v>0.9780735714340456</v>
       </c>
       <c r="K13">
-        <v>0.9432986127941536</v>
+        <v>0.9808359635807007</v>
       </c>
       <c r="L13">
-        <v>0.946043577308551</v>
+        <v>0.9828406310686585</v>
       </c>
       <c r="M13">
-        <v>0.9440579802361057</v>
+        <v>0.9889816630284138</v>
       </c>
       <c r="N13">
-        <v>0.9626985267745881</v>
+        <v>0.9794625480920889</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9099728512617417</v>
+        <v>0.9486666957848724</v>
       </c>
       <c r="D14">
-        <v>0.9287710794058127</v>
+        <v>0.9676341763522494</v>
       </c>
       <c r="E14">
-        <v>0.9314998546178358</v>
+        <v>0.9695086932305749</v>
       </c>
       <c r="F14">
-        <v>0.929764482058566</v>
+        <v>0.975898404040709</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028119005735836</v>
+        <v>1.037172420042915</v>
       </c>
       <c r="J14">
-        <v>0.9436794817234481</v>
+        <v>0.9803816763100781</v>
       </c>
       <c r="K14">
-        <v>0.945192991690032</v>
+        <v>0.9832112225178407</v>
       </c>
       <c r="L14">
-        <v>0.9478593716354549</v>
+        <v>0.9850472459231872</v>
       </c>
       <c r="M14">
-        <v>0.9461636229019231</v>
+        <v>0.9913072056553367</v>
       </c>
       <c r="N14">
-        <v>0.9640128905231296</v>
+        <v>0.9817739307417884</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9114506791752874</v>
+        <v>0.9503583800289379</v>
       </c>
       <c r="D15">
-        <v>0.9300543644279415</v>
+        <v>0.9692070265744247</v>
       </c>
       <c r="E15">
-        <v>0.9327334911326731</v>
+        <v>0.9709762027847056</v>
       </c>
       <c r="F15">
-        <v>0.9311791530434611</v>
+        <v>0.9774384667418907</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028493024140752</v>
+        <v>1.037432687926964</v>
       </c>
       <c r="J15">
-        <v>0.9448580489135061</v>
+        <v>0.9817881251458338</v>
       </c>
       <c r="K15">
-        <v>0.9463478857528747</v>
+        <v>0.9846586854049539</v>
       </c>
       <c r="L15">
-        <v>0.9489664012717447</v>
+        <v>0.9863919319754206</v>
       </c>
       <c r="M15">
-        <v>0.9474471710673704</v>
+        <v>0.9927244087789097</v>
       </c>
       <c r="N15">
-        <v>0.9648141164970719</v>
+        <v>0.9831823768962128</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9198240166846632</v>
+        <v>0.9599334574204585</v>
       </c>
       <c r="D16">
-        <v>0.9373319617694981</v>
+        <v>0.9781159618982019</v>
       </c>
       <c r="E16">
-        <v>0.9397308689436682</v>
+        <v>0.9792895037532813</v>
       </c>
       <c r="F16">
-        <v>0.9391978334184002</v>
+        <v>0.986162654031454</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03060368829976</v>
+        <v>1.038901568468392</v>
       </c>
       <c r="J16">
-        <v>0.9515356505366104</v>
+        <v>0.9897499276339551</v>
       </c>
       <c r="K16">
-        <v>0.952892716568202</v>
+        <v>0.9928540322964992</v>
       </c>
       <c r="L16">
-        <v>0.955240615848746</v>
+        <v>0.9940052279237004</v>
       </c>
       <c r="M16">
-        <v>0.9547188844244073</v>
+        <v>1.000748895374482</v>
       </c>
       <c r="N16">
-        <v>0.9693536959587544</v>
+        <v>0.9911554860570988</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9248892685061033</v>
+        <v>0.9657185438452386</v>
       </c>
       <c r="D17">
-        <v>0.9417396451860134</v>
+        <v>0.9835037812420316</v>
       </c>
       <c r="E17">
-        <v>0.9439699458144859</v>
+        <v>0.9843179029486556</v>
       </c>
       <c r="F17">
-        <v>0.9440508505814121</v>
+        <v>0.991439472048106</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031872596079798</v>
+        <v>1.039785014448211</v>
       </c>
       <c r="J17">
-        <v>0.9555746831216719</v>
+        <v>0.9945609791484789</v>
       </c>
       <c r="K17">
-        <v>0.9568525926507495</v>
+        <v>0.9978073662372787</v>
       </c>
       <c r="L17">
-        <v>0.9590372848215388</v>
+        <v>0.9986065991378809</v>
       </c>
       <c r="M17">
-        <v>0.9591165404683382</v>
+        <v>1.005599281875222</v>
       </c>
       <c r="N17">
-        <v>0.9720994350171569</v>
+        <v>0.9959733698166086</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9277813306286297</v>
+        <v>0.9690195802327063</v>
       </c>
       <c r="D18">
-        <v>0.9442580008986298</v>
+        <v>0.9865798439744075</v>
       </c>
       <c r="E18">
-        <v>0.9463923432617187</v>
+        <v>0.9871890118174422</v>
       </c>
       <c r="F18">
-        <v>0.9468223921994059</v>
+        <v>0.994452380744431</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032594091072081</v>
+        <v>1.040287559272032</v>
       </c>
       <c r="J18">
-        <v>0.9578805499681128</v>
+        <v>0.997306335658997</v>
       </c>
       <c r="K18">
-        <v>0.9591136711393148</v>
+        <v>1.000634318691845</v>
       </c>
       <c r="L18">
-        <v>0.9612053519435658</v>
+        <v>1.001232605467601</v>
       </c>
       <c r="M18">
-        <v>0.9616268356042929</v>
+        <v>1.008367565381912</v>
       </c>
       <c r="N18">
-        <v>0.9736669239869553</v>
+        <v>0.9987226250482683</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9287572976420664</v>
+        <v>0.9701332628102656</v>
       </c>
       <c r="D19">
-        <v>0.9451081369891723</v>
+        <v>0.9876179029746308</v>
       </c>
       <c r="E19">
-        <v>0.9472101479996777</v>
+        <v>0.9881579454480098</v>
       </c>
       <c r="F19">
-        <v>0.9477577844345456</v>
+        <v>0.995469161230973</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032837045634093</v>
+        <v>1.040456830066329</v>
       </c>
       <c r="J19">
-        <v>0.9586586426601017</v>
+        <v>0.9982325550801142</v>
       </c>
       <c r="K19">
-        <v>0.9598767175344343</v>
+        <v>1.001588134267204</v>
       </c>
       <c r="L19">
-        <v>0.961937039383293</v>
+        <v>1.002118607671523</v>
       </c>
       <c r="M19">
-        <v>0.96247385443278</v>
+        <v>1.009301597744944</v>
       </c>
       <c r="N19">
-        <v>0.9741958499544414</v>
+        <v>0.9996501598072024</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9243523764114505</v>
+        <v>0.9651055748613856</v>
       </c>
       <c r="D20">
-        <v>0.941272267418628</v>
+        <v>0.982932723501989</v>
       </c>
       <c r="E20">
-        <v>0.9435204069030799</v>
+        <v>0.9837849135129924</v>
       </c>
       <c r="F20">
-        <v>0.9435363821294198</v>
+        <v>0.9908801555800499</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031738407464732</v>
+        <v>1.039691567600719</v>
       </c>
       <c r="J20">
-        <v>0.9551465904249854</v>
+        <v>0.9940512009791891</v>
       </c>
       <c r="K20">
-        <v>0.9564328475111109</v>
+        <v>0.9972824693947667</v>
       </c>
       <c r="L20">
-        <v>0.9586348206454195</v>
+        <v>0.9981190067194429</v>
       </c>
       <c r="M20">
-        <v>0.9586504688529567</v>
+        <v>1.005085284694389</v>
       </c>
       <c r="N20">
-        <v>0.9718084212252223</v>
+        <v>0.9954628677038461</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9092622940883691</v>
+        <v>0.947853107636889</v>
       </c>
       <c r="D21">
-        <v>0.9281541859212364</v>
+        <v>0.9668778637803433</v>
       </c>
       <c r="E21">
-        <v>0.9309068531133569</v>
+        <v>0.9688030546674967</v>
       </c>
       <c r="F21">
-        <v>0.9290843567546353</v>
+        <v>0.9751578768611431</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027939026088592</v>
+        <v>1.037047176021858</v>
       </c>
       <c r="J21">
-        <v>0.9431128151313978</v>
+        <v>0.9797052945726815</v>
       </c>
       <c r="K21">
-        <v>0.9446377324969262</v>
+        <v>0.9825151418370536</v>
       </c>
       <c r="L21">
-        <v>0.9473271369740329</v>
+        <v>0.9844005884316783</v>
       </c>
       <c r="M21">
-        <v>0.9455464697917866</v>
+        <v>0.9906256866087351</v>
       </c>
       <c r="N21">
-        <v>0.9636276527255623</v>
+        <v>0.9810965884647423</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.899094670939084</v>
+        <v>0.9361948635501228</v>
       </c>
       <c r="D22">
-        <v>0.919335901364556</v>
+        <v>0.9560493875935381</v>
       </c>
       <c r="E22">
-        <v>0.922431889810291</v>
+        <v>0.9587016326652008</v>
       </c>
       <c r="F22">
-        <v>0.9193572590719177</v>
+        <v>0.9645568774358615</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025354216352645</v>
+        <v>1.03524797470994</v>
       </c>
       <c r="J22">
-        <v>0.9350047513493529</v>
+        <v>0.9700154543529322</v>
       </c>
       <c r="K22">
-        <v>0.936694641289651</v>
+        <v>0.9725448605340645</v>
       </c>
       <c r="L22">
-        <v>0.9397142587428029</v>
+        <v>0.9751381474855915</v>
       </c>
       <c r="M22">
-        <v>0.9367154697766085</v>
+        <v>0.980864757637638</v>
       </c>
       <c r="N22">
-        <v>0.9581155412356618</v>
+        <v>0.9713929875604409</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9045557767651994</v>
+        <v>0.9424605543381899</v>
       </c>
       <c r="D23">
-        <v>0.9240701423475881</v>
+        <v>0.9618670025191938</v>
       </c>
       <c r="E23">
-        <v>0.9269813960545008</v>
+        <v>0.9641282732028574</v>
       </c>
       <c r="F23">
-        <v>0.9245805356856127</v>
+        <v>0.9702519292320282</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026744619311897</v>
+        <v>1.036215938862675</v>
       </c>
       <c r="J23">
-        <v>0.9393594783126669</v>
+        <v>0.9752226548264399</v>
       </c>
       <c r="K23">
-        <v>0.9409603602974422</v>
+        <v>0.9779023600810527</v>
       </c>
       <c r="L23">
-        <v>0.9438024462296368</v>
+        <v>0.9801153011251127</v>
       </c>
       <c r="M23">
-        <v>0.9414585850765926</v>
+        <v>0.986109573089323</v>
       </c>
       <c r="N23">
-        <v>0.9610760130188698</v>
+        <v>0.9766075828558956</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9245951665202253</v>
+        <v>0.9653827741826803</v>
       </c>
       <c r="D24">
-        <v>0.9414836167903982</v>
+        <v>0.9831909642509943</v>
       </c>
       <c r="E24">
-        <v>0.9437236883336001</v>
+        <v>0.9840259384431327</v>
       </c>
       <c r="F24">
-        <v>0.9437690299455801</v>
+        <v>0.9911330860768958</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031799098832478</v>
+        <v>1.039733831404301</v>
       </c>
       <c r="J24">
-        <v>0.9553401807751695</v>
+        <v>0.9942817346017595</v>
       </c>
       <c r="K24">
-        <v>0.9566226617129281</v>
+        <v>0.9975198387765524</v>
       </c>
       <c r="L24">
-        <v>0.9588168196139812</v>
+        <v>0.9983395064942299</v>
       </c>
       <c r="M24">
-        <v>0.9588612348486445</v>
+        <v>1.005317724762704</v>
       </c>
       <c r="N24">
-        <v>0.9719400224406179</v>
+        <v>0.9956937287106029</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9454304855395993</v>
+        <v>0.989141583845887</v>
       </c>
       <c r="D25">
-        <v>0.9596529419780188</v>
+        <v>1.005356313593885</v>
       </c>
       <c r="E25">
-        <v>0.9612066678299738</v>
+        <v>1.004717851366692</v>
       </c>
       <c r="F25">
-        <v>0.963743228873387</v>
+        <v>1.012846146520835</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036940644585623</v>
+        <v>1.04332092829716</v>
       </c>
       <c r="J25">
-        <v>0.97194502396181</v>
+        <v>1.014039985425447</v>
       </c>
       <c r="K25">
-        <v>0.9729116442348417</v>
+        <v>1.017872044870517</v>
       </c>
       <c r="L25">
-        <v>0.9744386125673409</v>
+        <v>1.017243367598097</v>
       </c>
       <c r="M25">
-        <v>0.9769317296630458</v>
+        <v>1.025248262732922</v>
       </c>
       <c r="N25">
-        <v>0.9832266811035713</v>
+        <v>1.015480038516764</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006354948769115</v>
+        <v>0.9504654457681876</v>
       </c>
       <c r="D2">
-        <v>1.021451926135153</v>
+        <v>0.959400826946288</v>
       </c>
       <c r="E2">
-        <v>1.019747647716987</v>
+        <v>0.9706199254383542</v>
       </c>
       <c r="F2">
-        <v>1.02861615676734</v>
+        <v>0.9776430849446309</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045863153966711</v>
+        <v>1.043168581173006</v>
       </c>
       <c r="J2">
-        <v>1.028347231702913</v>
+        <v>0.9742358735463021</v>
       </c>
       <c r="K2">
-        <v>1.032620277270776</v>
+        <v>0.9714563269524898</v>
       </c>
       <c r="L2">
-        <v>1.030938554581139</v>
+        <v>0.9825043354207204</v>
       </c>
       <c r="M2">
-        <v>1.039690714461866</v>
+        <v>0.9894229315158056</v>
       </c>
       <c r="N2">
-        <v>1.029807602725008</v>
+        <v>0.9928092696562392</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018044298370743</v>
+        <v>0.9622554571054238</v>
       </c>
       <c r="D3">
-        <v>1.032398548516669</v>
+        <v>0.9703989608296536</v>
       </c>
       <c r="E3">
-        <v>1.029970686889279</v>
+        <v>0.9808081297496835</v>
       </c>
       <c r="F3">
-        <v>1.039341694511811</v>
+        <v>0.9882083248982065</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04755313035409</v>
+        <v>1.043953303569603</v>
       </c>
       <c r="J3">
-        <v>1.038054858899457</v>
+        <v>0.9838307755340499</v>
       </c>
       <c r="K3">
-        <v>1.042633009778914</v>
+        <v>0.9814251472274184</v>
       </c>
       <c r="L3">
-        <v>1.040233927521435</v>
+        <v>0.9916926100855499</v>
       </c>
       <c r="M3">
-        <v>1.049494770740591</v>
+        <v>0.9989943393935236</v>
       </c>
       <c r="N3">
-        <v>1.039529015865651</v>
+        <v>0.9963219280289346</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025284600314185</v>
+        <v>0.9695377021298046</v>
       </c>
       <c r="D4">
-        <v>1.039185094177989</v>
+        <v>0.9772005369688507</v>
       </c>
       <c r="E4">
-        <v>1.036308942199794</v>
+        <v>0.9871090196740669</v>
       </c>
       <c r="F4">
-        <v>1.045991006405806</v>
+        <v>0.9947410436857946</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048582015481428</v>
+        <v>1.044419456256567</v>
       </c>
       <c r="J4">
-        <v>1.044062915381262</v>
+        <v>0.989754093578218</v>
       </c>
       <c r="K4">
-        <v>1.048832518595436</v>
+        <v>0.9875821495551879</v>
       </c>
       <c r="L4">
-        <v>1.04598804325158</v>
+        <v>0.9973655583699611</v>
       </c>
       <c r="M4">
-        <v>1.055564324528208</v>
+        <v>1.004903356830212</v>
       </c>
       <c r="N4">
-        <v>1.045545604476794</v>
+        <v>0.9984869674177763</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028257421174372</v>
+        <v>0.9725234887905586</v>
       </c>
       <c r="D5">
-        <v>1.041972953370973</v>
+        <v>0.979991078745781</v>
       </c>
       <c r="E5">
-        <v>1.038912685142325</v>
+        <v>0.989694067556111</v>
       </c>
       <c r="F5">
-        <v>1.048722407566242</v>
+        <v>0.9974207746181833</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049000035426723</v>
+        <v>1.04460591658327</v>
       </c>
       <c r="J5">
-        <v>1.046528510174198</v>
+        <v>0.992181793719667</v>
       </c>
       <c r="K5">
-        <v>1.051377299089723</v>
+        <v>0.990106312317468</v>
       </c>
       <c r="L5">
-        <v>1.048349689427549</v>
+        <v>0.9996907205415203</v>
       </c>
       <c r="M5">
-        <v>1.058055547908339</v>
+        <v>1.007325044137353</v>
       </c>
       <c r="N5">
-        <v>1.048014700697143</v>
+        <v>0.9993733928387236</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028752578790927</v>
+        <v>0.9730205720569564</v>
       </c>
       <c r="D6">
-        <v>1.04243737849794</v>
+        <v>0.9804557598176618</v>
       </c>
       <c r="E6">
-        <v>1.039346439898714</v>
+        <v>0.9901245222470378</v>
       </c>
       <c r="F6">
-        <v>1.049177421363334</v>
+        <v>0.9978669675608187</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049069396555199</v>
+        <v>1.044636678398349</v>
       </c>
       <c r="J6">
-        <v>1.046939105034646</v>
+        <v>0.9925859065542132</v>
       </c>
       <c r="K6">
-        <v>1.051801116730832</v>
+        <v>0.9905265226822618</v>
       </c>
       <c r="L6">
-        <v>1.048742988623406</v>
+        <v>1.000077767372888</v>
       </c>
       <c r="M6">
-        <v>1.058470432506682</v>
+        <v>1.007728141707164</v>
       </c>
       <c r="N6">
-        <v>1.048425878649389</v>
+        <v>0.999520889335608</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025324594402604</v>
+        <v>0.9695778867744235</v>
       </c>
       <c r="D7">
-        <v>1.039222594781571</v>
+        <v>0.9772380868376421</v>
       </c>
       <c r="E7">
-        <v>1.036343966076357</v>
+        <v>0.9871438048309965</v>
       </c>
       <c r="F7">
-        <v>1.046027747954603</v>
+        <v>0.9947771047588707</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048587656984058</v>
+        <v>1.044421984565221</v>
       </c>
       <c r="J7">
-        <v>1.044096090846606</v>
+        <v>0.9897867709761495</v>
       </c>
       <c r="K7">
-        <v>1.048866757097706</v>
+        <v>0.9876161226346595</v>
       </c>
       <c r="L7">
-        <v>1.046019819033741</v>
+        <v>0.9973968553765294</v>
       </c>
       <c r="M7">
-        <v>1.055597843338171</v>
+        <v>1.004935954146813</v>
       </c>
       <c r="N7">
-        <v>1.045578827055104</v>
+        <v>0.9984989027032867</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010376565264151</v>
+        <v>0.9545264804186238</v>
       </c>
       <c r="D8">
-        <v>1.025216569219071</v>
+        <v>0.9631871709835212</v>
       </c>
       <c r="E8">
-        <v>1.023263354605198</v>
+        <v>0.9741273111824368</v>
       </c>
       <c r="F8">
-        <v>1.032304774256384</v>
+        <v>0.9812804872691661</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046448288907836</v>
+        <v>1.043442692121956</v>
       </c>
       <c r="J8">
-        <v>1.031687988345831</v>
+        <v>0.9775413536518222</v>
       </c>
       <c r="K8">
-        <v>1.036065465056984</v>
+        <v>0.9748900163501396</v>
       </c>
       <c r="L8">
-        <v>1.034137166014171</v>
+        <v>0.9856695370204287</v>
       </c>
       <c r="M8">
-        <v>1.043064238983201</v>
+        <v>0.9927201421791051</v>
       </c>
       <c r="N8">
-        <v>1.033153103625549</v>
+        <v>0.9940200712187696</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9812128709805162</v>
+        <v>0.9249496404578933</v>
       </c>
       <c r="D9">
-        <v>0.9979525994926221</v>
+        <v>0.9356589004860345</v>
       </c>
       <c r="E9">
-        <v>0.9978054421890453</v>
+        <v>0.9486343445776612</v>
       </c>
       <c r="F9">
-        <v>1.005592837654795</v>
+        <v>0.9548417682874012</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04213246165769</v>
+        <v>1.041373808130224</v>
       </c>
       <c r="J9">
-        <v>1.007446951494841</v>
+        <v>0.9534625040513112</v>
       </c>
       <c r="K9">
-        <v>1.011078981911253</v>
+        <v>0.9498899032500486</v>
       </c>
       <c r="L9">
-        <v>1.010934225191936</v>
+        <v>0.9626196564778154</v>
       </c>
       <c r="M9">
-        <v>1.018595822035369</v>
+        <v>0.9687126164359218</v>
       </c>
       <c r="N9">
-        <v>1.008877641721745</v>
+        <v>0.9851892208383146</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9592693268184231</v>
+        <v>0.902467614265846</v>
       </c>
       <c r="D10">
-        <v>0.9774976854679727</v>
+        <v>0.9148120755757065</v>
       </c>
       <c r="E10">
-        <v>0.9787125095242137</v>
+        <v>0.929347498296599</v>
       </c>
       <c r="F10">
-        <v>0.9855571488266091</v>
+        <v>0.9348459083366039</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038799941088144</v>
+        <v>1.039720486536996</v>
       </c>
       <c r="J10">
-        <v>0.9891976417007419</v>
+        <v>0.9351670350232005</v>
       </c>
       <c r="K10">
-        <v>0.9922854697650658</v>
+        <v>0.930910922536658</v>
       </c>
       <c r="L10">
-        <v>0.9934770557285681</v>
+        <v>0.9451214013670017</v>
       </c>
       <c r="M10">
-        <v>1.00019216346045</v>
+        <v>0.9505003862294156</v>
       </c>
       <c r="N10">
-        <v>0.9906024158145124</v>
+        <v>0.9784722151241934</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9489907124650906</v>
+        <v>0.8918537163795347</v>
       </c>
       <c r="D11">
-        <v>0.9679354051853284</v>
+        <v>0.9049952154286207</v>
       </c>
       <c r="E11">
-        <v>0.9697897430224236</v>
+        <v>0.9202735740530776</v>
       </c>
       <c r="F11">
-        <v>0.9761933492933043</v>
+        <v>0.9254429722340785</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037222286343136</v>
+        <v>1.038926141769141</v>
       </c>
       <c r="J11">
-        <v>0.9806510546492686</v>
+        <v>0.926537166599355</v>
       </c>
       <c r="K11">
-        <v>0.9834884507998436</v>
+        <v>0.9219625382485911</v>
       </c>
       <c r="L11">
-        <v>0.9853047900892934</v>
+        <v>0.9368737634257315</v>
       </c>
       <c r="M11">
-        <v>0.9915786362631752</v>
+        <v>0.9419226118330116</v>
       </c>
       <c r="N11">
-        <v>0.9820436916291186</v>
+        <v>0.9753049005725274</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9450351966023658</v>
+        <v>0.8877530147132714</v>
       </c>
       <c r="D12">
-        <v>0.9642589586973617</v>
+        <v>0.9012069437000562</v>
       </c>
       <c r="E12">
-        <v>0.9663597244909943</v>
+        <v>0.9167736878101921</v>
       </c>
       <c r="F12">
-        <v>0.9725937318706926</v>
+        <v>0.9218171967826595</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036613039614723</v>
+        <v>1.038617744959535</v>
       </c>
       <c r="J12">
-        <v>0.9773627522648769</v>
+        <v>0.9232047905110843</v>
       </c>
       <c r="K12">
-        <v>0.9801045013213294</v>
+        <v>0.9185077486938049</v>
       </c>
       <c r="L12">
-        <v>0.9821611006760976</v>
+        <v>0.9336901948891471</v>
       </c>
       <c r="M12">
-        <v>0.9882655267573087</v>
+        <v>0.9386129265683653</v>
       </c>
       <c r="N12">
-        <v>0.9787507194781675</v>
+        <v>0.9740823239861544</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9458902911668954</v>
+        <v>0.8886402970742296</v>
       </c>
       <c r="D13">
-        <v>0.9650535614501751</v>
+        <v>0.9020264087005502</v>
       </c>
       <c r="E13">
-        <v>0.9671010386910438</v>
+        <v>0.9175306860027511</v>
       </c>
       <c r="F13">
-        <v>0.9733717033119372</v>
+        <v>0.9226013721592632</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036744833563381</v>
+        <v>1.038684530875379</v>
       </c>
       <c r="J13">
-        <v>0.9780735714340456</v>
+        <v>0.9239257346107629</v>
       </c>
       <c r="K13">
-        <v>0.9808359635807007</v>
+        <v>0.9192551504072271</v>
       </c>
       <c r="L13">
-        <v>0.9828406310686585</v>
+        <v>0.9343788853954843</v>
       </c>
       <c r="M13">
-        <v>0.9889816630284138</v>
+        <v>0.9393288337618729</v>
       </c>
       <c r="N13">
-        <v>0.9794625480920889</v>
+        <v>0.9743467961889415</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9486666957848724</v>
+        <v>0.8915181587232345</v>
       </c>
       <c r="D14">
-        <v>0.9676341763522494</v>
+        <v>0.9046851283869539</v>
       </c>
       <c r="E14">
-        <v>0.9695086932305749</v>
+        <v>0.9199870556902936</v>
       </c>
       <c r="F14">
-        <v>0.975898404040709</v>
+        <v>0.925146125382674</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037172420042915</v>
+        <v>1.038900932394003</v>
       </c>
       <c r="J14">
-        <v>0.9803816763100781</v>
+        <v>0.9262644400187835</v>
       </c>
       <c r="K14">
-        <v>0.9832112225178407</v>
+        <v>0.9216797815318594</v>
       </c>
       <c r="L14">
-        <v>0.9850472459231872</v>
+        <v>0.9366131892181515</v>
       </c>
       <c r="M14">
-        <v>0.9913072056553367</v>
+        <v>0.9416516862038736</v>
       </c>
       <c r="N14">
-        <v>0.9817739307417884</v>
+        <v>0.97520483174287</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.9503583800289379</v>
+        <v>0.8932694207399238</v>
       </c>
       <c r="D15">
-        <v>0.9692070265744247</v>
+        <v>0.9063036460734512</v>
       </c>
       <c r="E15">
-        <v>0.9709762027847056</v>
+        <v>0.921482626283802</v>
       </c>
       <c r="F15">
-        <v>0.9774384667418907</v>
+        <v>0.9266956516789752</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037432687926964</v>
+        <v>1.039032442355312</v>
       </c>
       <c r="J15">
-        <v>0.9817881251458338</v>
+        <v>0.927687865692277</v>
       </c>
       <c r="K15">
-        <v>0.9846586854049539</v>
+        <v>0.9231555802233037</v>
       </c>
       <c r="L15">
-        <v>0.9863919319754206</v>
+        <v>0.9379732393867685</v>
       </c>
       <c r="M15">
-        <v>0.9927244087789097</v>
+        <v>0.9430658202488021</v>
       </c>
       <c r="N15">
-        <v>0.9831823768962128</v>
+        <v>0.9757271357555067</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9599334574204585</v>
+        <v>0.903151440689268</v>
       </c>
       <c r="D16">
-        <v>0.9781159618982019</v>
+        <v>0.9154451156287055</v>
       </c>
       <c r="E16">
-        <v>0.9792895037532813</v>
+        <v>0.9299328333602495</v>
       </c>
       <c r="F16">
-        <v>0.986162654031454</v>
+        <v>0.9354525853241735</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038901568468392</v>
+        <v>1.039771428756173</v>
       </c>
       <c r="J16">
-        <v>0.9897499276339551</v>
+        <v>0.9357232390397024</v>
       </c>
       <c r="K16">
-        <v>0.9928540322964992</v>
+        <v>0.9314877339397105</v>
       </c>
       <c r="L16">
-        <v>0.9940052279237004</v>
+        <v>0.945653117695882</v>
       </c>
       <c r="M16">
-        <v>1.000748895374482</v>
+        <v>0.9510535435805566</v>
       </c>
       <c r="N16">
-        <v>0.9911554860570988</v>
+        <v>0.978676397013868</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9657185438452386</v>
+        <v>0.9090986138241222</v>
       </c>
       <c r="D17">
-        <v>0.9835037812420316</v>
+        <v>0.9209534297076745</v>
       </c>
       <c r="E17">
-        <v>0.9843179029486556</v>
+        <v>0.9350270080517873</v>
       </c>
       <c r="F17">
-        <v>0.991439472048106</v>
+        <v>0.9407330330143924</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039785014448211</v>
+        <v>1.040213004049681</v>
       </c>
       <c r="J17">
-        <v>0.9945609791484789</v>
+        <v>0.9405613807990638</v>
       </c>
       <c r="K17">
-        <v>0.9978073662372787</v>
+        <v>0.9365055577669781</v>
       </c>
       <c r="L17">
-        <v>0.9986065991378809</v>
+        <v>0.9502789612256197</v>
       </c>
       <c r="M17">
-        <v>1.005599281875222</v>
+        <v>0.9558666586287417</v>
       </c>
       <c r="N17">
-        <v>0.9959733698166086</v>
+        <v>0.9804526187482761</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9690195802327063</v>
+        <v>0.9124847873350387</v>
       </c>
       <c r="D18">
-        <v>0.9865798439744075</v>
+        <v>0.9240919660952758</v>
       </c>
       <c r="E18">
-        <v>0.9871890118174422</v>
+        <v>0.9379303071154265</v>
       </c>
       <c r="F18">
-        <v>0.994452380744431</v>
+        <v>0.9437428881475284</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040287559272032</v>
+        <v>1.040463122997429</v>
       </c>
       <c r="J18">
-        <v>0.997306335658997</v>
+        <v>0.9433167397326507</v>
       </c>
       <c r="K18">
-        <v>1.000634318691845</v>
+        <v>0.9393636037762794</v>
       </c>
       <c r="L18">
-        <v>1.001232605467601</v>
+        <v>0.9529139607997535</v>
       </c>
       <c r="M18">
-        <v>1.008367565381912</v>
+        <v>0.9586088925784619</v>
       </c>
       <c r="N18">
-        <v>0.9987226250482683</v>
+        <v>0.9814642655606487</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9701332628102656</v>
+        <v>0.9136260320215387</v>
       </c>
       <c r="D19">
-        <v>0.9876179029746308</v>
+        <v>0.9251501110931187</v>
       </c>
       <c r="E19">
-        <v>0.9881579454480098</v>
+        <v>0.9389092559872336</v>
       </c>
       <c r="F19">
-        <v>0.995469161230973</v>
+        <v>0.9447578246978293</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040456830066329</v>
+        <v>1.040547184868718</v>
       </c>
       <c r="J19">
-        <v>0.9982325550801142</v>
+        <v>0.944245472817714</v>
       </c>
       <c r="K19">
-        <v>1.001588134267204</v>
+        <v>0.9403270096551575</v>
       </c>
       <c r="L19">
-        <v>1.002118607671523</v>
+        <v>0.9538022106439219</v>
       </c>
       <c r="M19">
-        <v>1.009301597744944</v>
+        <v>0.9595333766930851</v>
       </c>
       <c r="N19">
-        <v>0.9996501598072024</v>
+        <v>0.9818052605548387</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9651055748613856</v>
+        <v>0.9084692588505652</v>
       </c>
       <c r="D20">
-        <v>0.982932723501989</v>
+        <v>0.9203702785352365</v>
       </c>
       <c r="E20">
-        <v>0.9837849135129924</v>
+        <v>0.9344876217093642</v>
       </c>
       <c r="F20">
-        <v>0.9908801555800499</v>
+        <v>0.940173880336262</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039691567600719</v>
+        <v>1.04016640708842</v>
       </c>
       <c r="J20">
-        <v>0.9940512009791891</v>
+        <v>0.9400493173238067</v>
       </c>
       <c r="K20">
-        <v>0.9972824693947667</v>
+        <v>0.9359744397368195</v>
       </c>
       <c r="L20">
-        <v>0.9981190067194429</v>
+        <v>0.9497893084198502</v>
       </c>
       <c r="M20">
-        <v>1.005085284694389</v>
+        <v>0.955357122204527</v>
       </c>
       <c r="N20">
-        <v>0.9954628677038461</v>
+        <v>0.980264615729905</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.947853107636889</v>
+        <v>0.8906753181053823</v>
       </c>
       <c r="D21">
-        <v>0.9668778637803433</v>
+        <v>0.9039063385274986</v>
       </c>
       <c r="E21">
-        <v>0.9688030546674967</v>
+        <v>0.9192674877778422</v>
       </c>
       <c r="F21">
-        <v>0.9751578768611431</v>
+        <v>0.9244006357589591</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037047176021858</v>
+        <v>1.038837590624303</v>
       </c>
       <c r="J21">
-        <v>0.9797052945726815</v>
+        <v>0.9255794472541766</v>
       </c>
       <c r="K21">
-        <v>0.9825151418370536</v>
+        <v>0.9209696058610336</v>
       </c>
       <c r="L21">
-        <v>0.9844005884316783</v>
+        <v>0.9359587393740997</v>
       </c>
       <c r="M21">
-        <v>0.9906256866087351</v>
+        <v>0.9409712604429784</v>
       </c>
       <c r="N21">
-        <v>0.9810965884647423</v>
+        <v>0.9749535028085607</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9361948635501228</v>
+        <v>0.8785525862912403</v>
       </c>
       <c r="D22">
-        <v>0.9560493875935381</v>
+        <v>0.8927168721097375</v>
       </c>
       <c r="E22">
-        <v>0.9587016326652008</v>
+        <v>0.9089336829543015</v>
       </c>
       <c r="F22">
-        <v>0.9645568774358615</v>
+        <v>0.9136975197575199</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03524797470994</v>
+        <v>1.037923774011804</v>
       </c>
       <c r="J22">
-        <v>0.9700154543529322</v>
+        <v>0.9157324521064039</v>
       </c>
       <c r="K22">
-        <v>0.9725448605340645</v>
+        <v>0.9107619893051156</v>
       </c>
       <c r="L22">
-        <v>0.9751381474855915</v>
+        <v>0.9265541766231383</v>
       </c>
       <c r="M22">
-        <v>0.980864757637638</v>
+        <v>0.9311971411083103</v>
       </c>
       <c r="N22">
-        <v>0.9713929875604409</v>
+        <v>0.9713421631555974</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9424605543381899</v>
+        <v>0.8850787144087157</v>
       </c>
       <c r="D23">
-        <v>0.9618670025191938</v>
+        <v>0.898737774456337</v>
       </c>
       <c r="E23">
-        <v>0.9641282732028574</v>
+        <v>0.9144930290640607</v>
       </c>
       <c r="F23">
-        <v>0.9702519292320282</v>
+        <v>0.9194548380916346</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036215938862675</v>
+        <v>1.038416280719523</v>
       </c>
       <c r="J23">
-        <v>0.9752226548264399</v>
+        <v>0.9210321643284228</v>
       </c>
       <c r="K23">
-        <v>0.9779023600810527</v>
+        <v>0.9162554747692734</v>
       </c>
       <c r="L23">
-        <v>0.9801153011251127</v>
+        <v>0.9316149713746977</v>
       </c>
       <c r="M23">
-        <v>0.986109573089323</v>
+        <v>0.9364559164357464</v>
       </c>
       <c r="N23">
-        <v>0.9766075828558956</v>
+        <v>0.9732854106345225</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9653827741826803</v>
+        <v>0.9087538909882569</v>
       </c>
       <c r="D24">
-        <v>0.9831909642509943</v>
+        <v>0.9206340076011432</v>
       </c>
       <c r="E24">
-        <v>0.9840259384431327</v>
+        <v>0.9347315559569918</v>
       </c>
       <c r="F24">
-        <v>0.9911330860768958</v>
+        <v>0.9404267525834651</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039733831404301</v>
+        <v>1.040187485142435</v>
       </c>
       <c r="J24">
-        <v>0.9942817346017595</v>
+        <v>0.9402809012441967</v>
       </c>
       <c r="K24">
-        <v>0.9975198387765524</v>
+        <v>0.936214640085397</v>
       </c>
       <c r="L24">
-        <v>0.9983395064942299</v>
+        <v>0.9500107552893825</v>
       </c>
       <c r="M24">
-        <v>1.005317724762704</v>
+        <v>0.9555875597750005</v>
       </c>
       <c r="N24">
-        <v>0.9956937287106029</v>
+        <v>0.9803496410624988</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.989141583845887</v>
+        <v>0.9330215106616692</v>
       </c>
       <c r="D25">
-        <v>1.005356313593885</v>
+        <v>0.9431604754580069</v>
       </c>
       <c r="E25">
-        <v>1.004717851366692</v>
+        <v>0.9555792125495949</v>
       </c>
       <c r="F25">
-        <v>1.012846146520835</v>
+        <v>0.9620440064817962</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04332092829716</v>
+        <v>1.041953234652465</v>
       </c>
       <c r="J25">
-        <v>1.014039985425447</v>
+        <v>0.9600341643757175</v>
       </c>
       <c r="K25">
-        <v>1.017872044870517</v>
+        <v>0.9567102680425658</v>
       </c>
       <c r="L25">
-        <v>1.017243367598097</v>
+        <v>0.9689086056354966</v>
       </c>
       <c r="M25">
-        <v>1.025248262732922</v>
+        <v>0.9752615772953213</v>
       </c>
       <c r="N25">
-        <v>1.015480038516764</v>
+        <v>0.9876012786588302</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9504654457681876</v>
+        <v>1.040552626876211</v>
       </c>
       <c r="D2">
-        <v>0.959400826946288</v>
+        <v>1.043197025379953</v>
       </c>
       <c r="E2">
-        <v>0.9706199254383542</v>
+        <v>1.047581029945516</v>
       </c>
       <c r="F2">
-        <v>0.9776430849446309</v>
+        <v>1.055499912855133</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043168581173006</v>
+        <v>1.027521332220243</v>
       </c>
       <c r="J2">
-        <v>0.9742358735463021</v>
+        <v>1.045638614573486</v>
       </c>
       <c r="K2">
-        <v>0.9714563269524898</v>
+        <v>1.045971570969731</v>
       </c>
       <c r="L2">
-        <v>0.9825043354207204</v>
+        <v>1.050343268142906</v>
       </c>
       <c r="M2">
-        <v>0.9894229315158056</v>
+        <v>1.058240200855259</v>
       </c>
       <c r="N2">
-        <v>0.9928092696562392</v>
+        <v>1.018718237031132</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9622554571054238</v>
+        <v>1.042677659721558</v>
       </c>
       <c r="D3">
-        <v>0.9703989608296536</v>
+        <v>1.045236962835933</v>
       </c>
       <c r="E3">
-        <v>0.9808081297496835</v>
+        <v>1.04945847728362</v>
       </c>
       <c r="F3">
-        <v>0.9882083248982065</v>
+        <v>1.057433623175898</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043953303569603</v>
+        <v>1.027548965694502</v>
       </c>
       <c r="J3">
-        <v>0.9838307755340499</v>
+        <v>1.047403452191046</v>
       </c>
       <c r="K3">
-        <v>0.9814251472274184</v>
+        <v>1.047819283169714</v>
       </c>
       <c r="L3">
-        <v>0.9916926100855499</v>
+        <v>1.052029828701801</v>
       </c>
       <c r="M3">
-        <v>0.9989943393935236</v>
+        <v>1.059984510230903</v>
       </c>
       <c r="N3">
-        <v>0.9963219280289346</v>
+        <v>1.019338789505845</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9695377021298046</v>
+        <v>1.044047690269625</v>
       </c>
       <c r="D4">
-        <v>0.9772005369688507</v>
+        <v>1.046552335988866</v>
       </c>
       <c r="E4">
-        <v>0.9871090196740669</v>
+        <v>1.050668597753903</v>
       </c>
       <c r="F4">
-        <v>0.9947410436857946</v>
+        <v>1.058679433074639</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044419456256567</v>
+        <v>1.027564016835793</v>
       </c>
       <c r="J4">
-        <v>0.989754093578218</v>
+        <v>1.048540331842387</v>
       </c>
       <c r="K4">
-        <v>0.9875821495551879</v>
+        <v>1.049009904582399</v>
       </c>
       <c r="L4">
-        <v>0.9973655583699611</v>
+        <v>1.053116024412633</v>
       </c>
       <c r="M4">
-        <v>1.004903356830212</v>
+        <v>1.061107365112031</v>
       </c>
       <c r="N4">
-        <v>0.9984869674177763</v>
+        <v>1.019737683351249</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9725234887905586</v>
+        <v>1.044622481656577</v>
       </c>
       <c r="D5">
-        <v>0.979991078745781</v>
+        <v>1.047104244066611</v>
       </c>
       <c r="E5">
-        <v>0.989694067556111</v>
+        <v>1.051176228544913</v>
       </c>
       <c r="F5">
-        <v>0.9974207746181833</v>
+        <v>1.059201896416888</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04460591658327</v>
+        <v>1.027569667625648</v>
       </c>
       <c r="J5">
-        <v>0.992181793719667</v>
+        <v>1.049017082341346</v>
       </c>
       <c r="K5">
-        <v>0.990106312317468</v>
+        <v>1.049509276821298</v>
       </c>
       <c r="L5">
-        <v>0.9996907205415203</v>
+        <v>1.053571457918981</v>
       </c>
       <c r="M5">
-        <v>1.007325044137353</v>
+        <v>1.061578040742703</v>
       </c>
       <c r="N5">
-        <v>0.9993733928387236</v>
+        <v>1.019904753669177</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9730205720569564</v>
+        <v>1.044718923932512</v>
       </c>
       <c r="D6">
-        <v>0.9804557598176618</v>
+        <v>1.047196849618628</v>
       </c>
       <c r="E6">
-        <v>0.9901245222470378</v>
+        <v>1.05126139796773</v>
       </c>
       <c r="F6">
-        <v>0.9978669675608187</v>
+        <v>1.059289546253037</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044636678398349</v>
+        <v>1.02757057675512</v>
       </c>
       <c r="J6">
-        <v>0.9925859065542132</v>
+        <v>1.04909706155469</v>
       </c>
       <c r="K6">
-        <v>0.9905265226822618</v>
+        <v>1.049593056031967</v>
       </c>
       <c r="L6">
-        <v>1.000077767372888</v>
+        <v>1.053647857318362</v>
       </c>
       <c r="M6">
-        <v>1.007728141707164</v>
+        <v>1.061656989432815</v>
       </c>
       <c r="N6">
-        <v>0.999520889335608</v>
+        <v>1.019932769128691</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9695778867744235</v>
+        <v>1.044055375215838</v>
       </c>
       <c r="D7">
-        <v>0.9772380868376421</v>
+        <v>1.046559714798297</v>
       </c>
       <c r="E7">
-        <v>0.9871438048309965</v>
+        <v>1.050675385045649</v>
       </c>
       <c r="F7">
-        <v>0.9947771047588707</v>
+        <v>1.058686419232321</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044421984565221</v>
+        <v>1.027564094999896</v>
       </c>
       <c r="J7">
-        <v>0.9897867709761495</v>
+        <v>1.048546706863407</v>
       </c>
       <c r="K7">
-        <v>0.9876161226346595</v>
+        <v>1.049016581762295</v>
       </c>
       <c r="L7">
-        <v>0.9973968553765294</v>
+        <v>1.053122114634079</v>
       </c>
       <c r="M7">
-        <v>1.004935954146813</v>
+        <v>1.061113659664831</v>
       </c>
       <c r="N7">
-        <v>0.9984989027032867</v>
+        <v>1.019739918195873</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9545264804186238</v>
+        <v>1.041271846395986</v>
       </c>
       <c r="D8">
-        <v>0.9631871709835212</v>
+        <v>1.043887401260763</v>
       </c>
       <c r="E8">
-        <v>0.9741273111824368</v>
+        <v>1.048216512907943</v>
       </c>
       <c r="F8">
-        <v>0.9812804872691661</v>
+        <v>1.05615455865839</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043442692121956</v>
+        <v>1.027531257391537</v>
       </c>
       <c r="J8">
-        <v>0.9775413536518222</v>
+        <v>1.046236118083355</v>
       </c>
       <c r="K8">
-        <v>0.9748900163501396</v>
+        <v>1.04659705875029</v>
       </c>
       <c r="L8">
-        <v>0.9856695370204287</v>
+        <v>1.050914323599226</v>
       </c>
       <c r="M8">
-        <v>0.9927201421791051</v>
+        <v>1.058830919519351</v>
       </c>
       <c r="N8">
-        <v>0.9940200712187696</v>
+        <v>1.018928508536267</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9249496404578933</v>
+        <v>1.036327227002844</v>
       </c>
       <c r="D9">
-        <v>0.9356589004860345</v>
+        <v>1.039141963374086</v>
       </c>
       <c r="E9">
-        <v>0.9486343445776612</v>
+        <v>1.043846453447684</v>
       </c>
       <c r="F9">
-        <v>0.9548417682874012</v>
+        <v>1.051650385318968</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041373808130224</v>
+        <v>1.027451689026105</v>
       </c>
       <c r="J9">
-        <v>0.9534625040513112</v>
+        <v>1.042124487954971</v>
       </c>
       <c r="K9">
-        <v>0.9498899032500486</v>
+        <v>1.04229432561427</v>
       </c>
       <c r="L9">
-        <v>0.9626196564778154</v>
+        <v>1.046983645758231</v>
       </c>
       <c r="M9">
-        <v>0.9687126164359218</v>
+        <v>1.054762740730566</v>
       </c>
       <c r="N9">
-        <v>0.9851892208383146</v>
+        <v>1.017478053235575</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.902467614265846</v>
+        <v>1.033002253735928</v>
       </c>
       <c r="D10">
-        <v>0.9148120755757065</v>
+        <v>1.035952079611793</v>
       </c>
       <c r="E10">
-        <v>0.929347498296599</v>
+        <v>1.040906491269352</v>
       </c>
       <c r="F10">
-        <v>0.9348459083366039</v>
+        <v>1.048617299438485</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039720486536996</v>
+        <v>1.027384000459417</v>
       </c>
       <c r="J10">
-        <v>0.9351670350232005</v>
+        <v>1.039354893896583</v>
       </c>
       <c r="K10">
-        <v>0.930910922536658</v>
+        <v>1.039397849408819</v>
       </c>
       <c r="L10">
-        <v>0.9451214013670017</v>
+        <v>1.04433465063845</v>
       </c>
       <c r="M10">
-        <v>0.9505003862294156</v>
+        <v>1.052018415414991</v>
       </c>
       <c r="N10">
-        <v>0.9784722151241934</v>
+        <v>1.016496650368783</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8918537163795347</v>
+        <v>1.031555307326735</v>
       </c>
       <c r="D11">
-        <v>0.9049952154286207</v>
+        <v>1.034564207205569</v>
       </c>
       <c r="E11">
-        <v>0.9202735740530776</v>
+        <v>1.039626795410642</v>
       </c>
       <c r="F11">
-        <v>0.9254429722340785</v>
+        <v>1.047296394770215</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038926141769141</v>
+        <v>1.02735120511151</v>
       </c>
       <c r="J11">
-        <v>0.926537166599355</v>
+        <v>1.038148516231383</v>
       </c>
       <c r="K11">
-        <v>0.9219625382485911</v>
+        <v>1.038136641657674</v>
       </c>
       <c r="L11">
-        <v>0.9368737634257315</v>
+        <v>1.043180505700038</v>
       </c>
       <c r="M11">
-        <v>0.9419226118330116</v>
+        <v>1.050822119756158</v>
       </c>
       <c r="N11">
-        <v>0.9753049005725274</v>
+        <v>1.016068144778474</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8877530147132714</v>
+        <v>1.031016726993757</v>
       </c>
       <c r="D12">
-        <v>0.9012069437000562</v>
+        <v>1.034047659464746</v>
       </c>
       <c r="E12">
-        <v>0.9167736878101921</v>
+        <v>1.039150426190296</v>
       </c>
       <c r="F12">
-        <v>0.9218171967826595</v>
+        <v>1.046804585308307</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038617744959535</v>
+        <v>1.027338498581138</v>
       </c>
       <c r="J12">
-        <v>0.9232047905110843</v>
+        <v>1.037699312858788</v>
       </c>
       <c r="K12">
-        <v>0.9185077486938049</v>
+        <v>1.03766708754779</v>
       </c>
       <c r="L12">
-        <v>0.9336901948891471</v>
+        <v>1.042750707549676</v>
       </c>
       <c r="M12">
-        <v>0.9386129265683653</v>
+        <v>1.050376533637235</v>
       </c>
       <c r="N12">
-        <v>0.9740823239861544</v>
+        <v>1.015908434312794</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8886402970742296</v>
+        <v>1.031132305580853</v>
       </c>
       <c r="D13">
-        <v>0.9020264087005502</v>
+        <v>1.034158507872891</v>
       </c>
       <c r="E13">
-        <v>0.9175306860027511</v>
+        <v>1.039252656257609</v>
       </c>
       <c r="F13">
-        <v>0.9226013721592632</v>
+        <v>1.046910133405504</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038684530875379</v>
+        <v>1.027341247946384</v>
       </c>
       <c r="J13">
-        <v>0.9239257346107629</v>
+        <v>1.037795718824701</v>
       </c>
       <c r="K13">
-        <v>0.9192551504072271</v>
+        <v>1.037767858126908</v>
       </c>
       <c r="L13">
-        <v>0.9343788853954843</v>
+        <v>1.04284295083514</v>
       </c>
       <c r="M13">
-        <v>0.9393288337618729</v>
+        <v>1.05047216944256</v>
       </c>
       <c r="N13">
-        <v>0.9743467961889415</v>
+        <v>1.015942717561092</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8915181587232345</v>
+        <v>1.03151081117043</v>
       </c>
       <c r="D14">
-        <v>0.9046851283869539</v>
+        <v>1.034521530420164</v>
       </c>
       <c r="E14">
-        <v>0.9199870556902936</v>
+        <v>1.039587439838616</v>
       </c>
       <c r="F14">
-        <v>0.925146125382674</v>
+        <v>1.047255765627807</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038900932394003</v>
+        <v>1.027350165500123</v>
       </c>
       <c r="J14">
-        <v>0.9262644400187835</v>
+        <v>1.038111407578827</v>
       </c>
       <c r="K14">
-        <v>0.9216797815318594</v>
+        <v>1.038097850494686</v>
       </c>
       <c r="L14">
-        <v>0.9366131892181515</v>
+        <v>1.043145001004168</v>
       </c>
       <c r="M14">
-        <v>0.9416516862038736</v>
+        <v>1.050785312702376</v>
       </c>
       <c r="N14">
-        <v>0.97520483174287</v>
+        <v>1.016054954230589</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8932694207399238</v>
+        <v>1.031743871437572</v>
       </c>
       <c r="D15">
-        <v>0.9063036460734512</v>
+        <v>1.034745063069175</v>
       </c>
       <c r="E15">
-        <v>0.921482626283802</v>
+        <v>1.039793573216302</v>
       </c>
       <c r="F15">
-        <v>0.9266956516789752</v>
+        <v>1.047468565515191</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039032442355312</v>
+        <v>1.027355590311617</v>
       </c>
       <c r="J15">
-        <v>0.927687865692277</v>
+        <v>1.03830576702505</v>
       </c>
       <c r="K15">
-        <v>0.9231555802233037</v>
+        <v>1.03830102490495</v>
       </c>
       <c r="L15">
-        <v>0.9379732393867685</v>
+        <v>1.043330957806629</v>
       </c>
       <c r="M15">
-        <v>0.9430658202488021</v>
+        <v>1.050978086914896</v>
       </c>
       <c r="N15">
-        <v>0.9757271357555067</v>
+        <v>1.016124034480617</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.903151440689268</v>
+        <v>1.033098127762292</v>
       </c>
       <c r="D16">
-        <v>0.9154451156287055</v>
+        <v>1.036044045538463</v>
       </c>
       <c r="E16">
-        <v>0.9299328333602495</v>
+        <v>1.040991277272795</v>
       </c>
       <c r="F16">
-        <v>0.9354525853241735</v>
+        <v>1.048704801641955</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039771428756173</v>
+        <v>1.027386103438012</v>
       </c>
       <c r="J16">
-        <v>0.9357232390397024</v>
+        <v>1.03943480449685</v>
       </c>
       <c r="K16">
-        <v>0.9314877339397105</v>
+        <v>1.039481401145958</v>
       </c>
       <c r="L16">
-        <v>0.945653117695882</v>
+        <v>1.044411095140432</v>
       </c>
       <c r="M16">
-        <v>0.9510535435805566</v>
+        <v>1.052097638922656</v>
       </c>
       <c r="N16">
-        <v>0.978676397013868</v>
+        <v>1.016525013125345</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9090986138241222</v>
+        <v>1.033945660703903</v>
       </c>
       <c r="D17">
-        <v>0.9209534297076745</v>
+        <v>1.036857063748003</v>
       </c>
       <c r="E17">
-        <v>0.9350270080517873</v>
+        <v>1.041740757378222</v>
       </c>
       <c r="F17">
-        <v>0.9407330330143924</v>
+        <v>1.049478214511313</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040213004049681</v>
+        <v>1.027404309461618</v>
       </c>
       <c r="J17">
-        <v>0.9405613807990638</v>
+        <v>1.040141090881504</v>
       </c>
       <c r="K17">
-        <v>0.9365055577669781</v>
+        <v>1.040219919900547</v>
       </c>
       <c r="L17">
-        <v>0.9502789612256197</v>
+        <v>1.045086712372716</v>
       </c>
       <c r="M17">
-        <v>0.9558666586287417</v>
+        <v>1.05279774624877</v>
       </c>
       <c r="N17">
-        <v>0.9804526187482761</v>
+        <v>1.016775577978096</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9124847873350387</v>
+        <v>1.034439319072968</v>
       </c>
       <c r="D18">
-        <v>0.9240919660952758</v>
+        <v>1.037330645963545</v>
       </c>
       <c r="E18">
-        <v>0.9379303071154265</v>
+        <v>1.042177274709807</v>
       </c>
       <c r="F18">
-        <v>0.9437428881475284</v>
+        <v>1.049928605996445</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040463122997429</v>
+        <v>1.027414592485711</v>
       </c>
       <c r="J18">
-        <v>0.9433167397326507</v>
+        <v>1.040552370392338</v>
       </c>
       <c r="K18">
-        <v>0.9393636037762794</v>
+        <v>1.040650010761193</v>
       </c>
       <c r="L18">
-        <v>0.9529139607997535</v>
+        <v>1.045480104179902</v>
       </c>
       <c r="M18">
-        <v>0.9586088925784619</v>
+        <v>1.053205338587194</v>
       </c>
       <c r="N18">
-        <v>0.9814642655606487</v>
+        <v>1.016921386272358</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9136260320215387</v>
+        <v>1.034607527330816</v>
       </c>
       <c r="D19">
-        <v>0.9251501110931187</v>
+        <v>1.037492018135359</v>
       </c>
       <c r="E19">
-        <v>0.9389092559872336</v>
+        <v>1.042326007910901</v>
       </c>
       <c r="F19">
-        <v>0.9447578246978293</v>
+        <v>1.050082055447934</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040547184868718</v>
+        <v>1.027418041733671</v>
       </c>
       <c r="J19">
-        <v>0.944245472817714</v>
+        <v>1.040692490739381</v>
       </c>
       <c r="K19">
-        <v>0.9403270096551575</v>
+        <v>1.04079654714756</v>
       </c>
       <c r="L19">
-        <v>0.9538022106439219</v>
+        <v>1.045614125414607</v>
       </c>
       <c r="M19">
-        <v>0.9595333766930851</v>
+        <v>1.053344187575249</v>
       </c>
       <c r="N19">
-        <v>0.9818052605548387</v>
+        <v>1.016971045457183</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9084692588505652</v>
+        <v>1.033854800410446</v>
       </c>
       <c r="D20">
-        <v>0.9203702785352365</v>
+        <v>1.036769900776375</v>
       </c>
       <c r="E20">
-        <v>0.9344876217093642</v>
+        <v>1.041660411854093</v>
       </c>
       <c r="F20">
-        <v>0.940173880336262</v>
+        <v>1.049395310066655</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04016640708842</v>
+        <v>1.027402390915085</v>
       </c>
       <c r="J20">
-        <v>0.9400493173238067</v>
+        <v>1.040065384149003</v>
       </c>
       <c r="K20">
-        <v>0.9359744397368195</v>
+        <v>1.040140753834941</v>
       </c>
       <c r="L20">
-        <v>0.9497893084198502</v>
+        <v>1.045014296024126</v>
       </c>
       <c r="M20">
-        <v>0.955357122204527</v>
+        <v>1.052722711048523</v>
       </c>
       <c r="N20">
-        <v>0.980264615729905</v>
+        <v>1.016748730187451</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8906753181053823</v>
+        <v>1.031399381923311</v>
       </c>
       <c r="D21">
-        <v>0.9039063385274986</v>
+        <v>1.034414658039047</v>
       </c>
       <c r="E21">
-        <v>0.9192674877778422</v>
+        <v>1.039488883188596</v>
       </c>
       <c r="F21">
-        <v>0.9244006357589591</v>
+        <v>1.0471540180106</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038837590624303</v>
+        <v>1.027347554001759</v>
       </c>
       <c r="J21">
-        <v>0.9255794472541766</v>
+        <v>1.038018475749514</v>
       </c>
       <c r="K21">
-        <v>0.9209696058610336</v>
+        <v>1.038000706185486</v>
       </c>
       <c r="L21">
-        <v>0.9359587393740997</v>
+        <v>1.043056085282801</v>
       </c>
       <c r="M21">
-        <v>0.9409712604429784</v>
+        <v>1.050693133969558</v>
       </c>
       <c r="N21">
-        <v>0.9749535028085607</v>
+        <v>1.016021918444989</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8785525862912403</v>
+        <v>1.029849064233168</v>
       </c>
       <c r="D22">
-        <v>0.8927168721097375</v>
+        <v>1.032927846259191</v>
       </c>
       <c r="E22">
-        <v>0.9089336829543015</v>
+        <v>1.038117563577863</v>
       </c>
       <c r="F22">
-        <v>0.9136975197575199</v>
+        <v>1.04573806305028</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037923774011804</v>
+        <v>1.02731003845339</v>
       </c>
       <c r="J22">
-        <v>0.9157324521064039</v>
+        <v>1.036725117694935</v>
       </c>
       <c r="K22">
-        <v>0.9107619893051156</v>
+        <v>1.036648877507409</v>
       </c>
       <c r="L22">
-        <v>0.9265541766231383</v>
+        <v>1.041818517048812</v>
       </c>
       <c r="M22">
-        <v>0.9311971411083103</v>
+        <v>1.049409934989711</v>
       </c>
       <c r="N22">
-        <v>0.9713421631555974</v>
+        <v>1.015561787773161</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8850787144087157</v>
+        <v>1.030671545359475</v>
       </c>
       <c r="D23">
-        <v>0.898737774456337</v>
+        <v>1.033716611315359</v>
       </c>
       <c r="E23">
-        <v>0.9144930290640607</v>
+        <v>1.038845104528753</v>
       </c>
       <c r="F23">
-        <v>0.9194548380916346</v>
+        <v>1.046489339390022</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038416280719523</v>
+        <v>1.027330214474175</v>
       </c>
       <c r="J23">
-        <v>0.9210321643284228</v>
+        <v>1.037411366866077</v>
       </c>
       <c r="K23">
-        <v>0.9162554747692734</v>
+        <v>1.0373661149083</v>
       </c>
       <c r="L23">
-        <v>0.9316149713746977</v>
+        <v>1.04247518828931</v>
       </c>
       <c r="M23">
-        <v>0.9364559164357464</v>
+        <v>1.050090868081296</v>
       </c>
       <c r="N23">
-        <v>0.9732854106345225</v>
+        <v>1.015806014491281</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9087538909882569</v>
+        <v>1.033895858406796</v>
       </c>
       <c r="D24">
-        <v>0.9206340076011432</v>
+        <v>1.036809287940161</v>
       </c>
       <c r="E24">
-        <v>0.9347315559569918</v>
+        <v>1.041696718519882</v>
       </c>
       <c r="F24">
-        <v>0.9404267525834651</v>
+        <v>1.049432773262468</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040187485142435</v>
+        <v>1.027403258862695</v>
       </c>
       <c r="J24">
-        <v>0.9402809012441967</v>
+        <v>1.040099594879382</v>
       </c>
       <c r="K24">
-        <v>0.936214640085397</v>
+        <v>1.04017652765578</v>
       </c>
       <c r="L24">
-        <v>0.9500107552893825</v>
+        <v>1.04504701996836</v>
       </c>
       <c r="M24">
-        <v>0.9555875597750005</v>
+        <v>1.05275661859908</v>
       </c>
       <c r="N24">
-        <v>0.9803496410624988</v>
+        <v>1.016760862604633</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9330215106616692</v>
+        <v>1.037610424135921</v>
       </c>
       <c r="D25">
-        <v>0.9431604754580069</v>
+        <v>1.040373272461677</v>
       </c>
       <c r="E25">
-        <v>0.9555792125495949</v>
+        <v>1.044980788503476</v>
       </c>
       <c r="F25">
-        <v>0.9620440064817962</v>
+        <v>1.052820045408856</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041953234652465</v>
+        <v>1.027474836432801</v>
       </c>
       <c r="J25">
-        <v>0.9600341643757175</v>
+        <v>1.043192351513035</v>
       </c>
       <c r="K25">
-        <v>0.9567102680425658</v>
+        <v>1.043411498271781</v>
       </c>
       <c r="L25">
-        <v>0.9689086056354966</v>
+        <v>1.048004741973763</v>
       </c>
       <c r="M25">
-        <v>0.9752615772953213</v>
+        <v>1.055820028967252</v>
       </c>
       <c r="N25">
-        <v>0.9876012786588302</v>
+        <v>1.017855533650782</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040552626876211</v>
+        <v>0.9504654457681874</v>
       </c>
       <c r="D2">
-        <v>1.043197025379953</v>
+        <v>0.9594008269462876</v>
       </c>
       <c r="E2">
-        <v>1.047581029945516</v>
+        <v>0.970619925438354</v>
       </c>
       <c r="F2">
-        <v>1.055499912855133</v>
+        <v>0.9776430849446308</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027521332220243</v>
+        <v>1.043168581173006</v>
       </c>
       <c r="J2">
-        <v>1.045638614573486</v>
+        <v>0.9742358735463019</v>
       </c>
       <c r="K2">
-        <v>1.045971570969731</v>
+        <v>0.9714563269524895</v>
       </c>
       <c r="L2">
-        <v>1.050343268142906</v>
+        <v>0.9825043354207201</v>
       </c>
       <c r="M2">
-        <v>1.058240200855259</v>
+        <v>0.9894229315158054</v>
       </c>
       <c r="N2">
-        <v>1.018718237031132</v>
+        <v>0.9928092696562392</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042677659721558</v>
+        <v>0.962255457105424</v>
       </c>
       <c r="D3">
-        <v>1.045236962835933</v>
+        <v>0.9703989608296536</v>
       </c>
       <c r="E3">
-        <v>1.04945847728362</v>
+        <v>0.9808081297496838</v>
       </c>
       <c r="F3">
-        <v>1.057433623175898</v>
+        <v>0.9882083248982072</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027548965694502</v>
+        <v>1.043953303569603</v>
       </c>
       <c r="J3">
-        <v>1.047403452191046</v>
+        <v>0.9838307755340502</v>
       </c>
       <c r="K3">
-        <v>1.047819283169714</v>
+        <v>0.9814251472274185</v>
       </c>
       <c r="L3">
-        <v>1.052029828701801</v>
+        <v>0.9916926100855501</v>
       </c>
       <c r="M3">
-        <v>1.059984510230903</v>
+        <v>0.9989943393935241</v>
       </c>
       <c r="N3">
-        <v>1.019338789505845</v>
+        <v>0.9963219280289347</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044047690269625</v>
+        <v>0.9695377021298026</v>
       </c>
       <c r="D4">
-        <v>1.046552335988866</v>
+        <v>0.9772005369688488</v>
       </c>
       <c r="E4">
-        <v>1.050668597753903</v>
+        <v>0.9871090196740652</v>
       </c>
       <c r="F4">
-        <v>1.058679433074639</v>
+        <v>0.994741043685793</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027564016835793</v>
+        <v>1.044419456256567</v>
       </c>
       <c r="J4">
-        <v>1.048540331842387</v>
+        <v>0.9897540935782162</v>
       </c>
       <c r="K4">
-        <v>1.049009904582399</v>
+        <v>0.987582149555186</v>
       </c>
       <c r="L4">
-        <v>1.053116024412633</v>
+        <v>0.9973655583699593</v>
       </c>
       <c r="M4">
-        <v>1.061107365112031</v>
+        <v>1.004903356830211</v>
       </c>
       <c r="N4">
-        <v>1.019737683351249</v>
+        <v>0.9984869674177758</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044622481656577</v>
+        <v>0.9725234887905581</v>
       </c>
       <c r="D5">
-        <v>1.047104244066611</v>
+        <v>0.9799910787457805</v>
       </c>
       <c r="E5">
-        <v>1.051176228544913</v>
+        <v>0.9896940675561104</v>
       </c>
       <c r="F5">
-        <v>1.059201896416888</v>
+        <v>0.9974207746181827</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027569667625648</v>
+        <v>1.04460591658327</v>
       </c>
       <c r="J5">
-        <v>1.049017082341346</v>
+        <v>0.9921817937196665</v>
       </c>
       <c r="K5">
-        <v>1.049509276821298</v>
+        <v>0.9901063123174677</v>
       </c>
       <c r="L5">
-        <v>1.053571457918981</v>
+        <v>0.9996907205415196</v>
       </c>
       <c r="M5">
-        <v>1.061578040742703</v>
+        <v>1.007325044137352</v>
       </c>
       <c r="N5">
-        <v>1.019904753669177</v>
+        <v>0.9993733928387234</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044718923932512</v>
+        <v>0.9730205720569549</v>
       </c>
       <c r="D6">
-        <v>1.047196849618628</v>
+        <v>0.9804557598176602</v>
       </c>
       <c r="E6">
-        <v>1.05126139796773</v>
+        <v>0.9901245222470362</v>
       </c>
       <c r="F6">
-        <v>1.059289546253037</v>
+        <v>0.9978669675608169</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.02757057675512</v>
+        <v>1.044636678398349</v>
       </c>
       <c r="J6">
-        <v>1.04909706155469</v>
+        <v>0.9925859065542117</v>
       </c>
       <c r="K6">
-        <v>1.049593056031967</v>
+        <v>0.9905265226822605</v>
       </c>
       <c r="L6">
-        <v>1.053647857318362</v>
+        <v>1.000077767372886</v>
       </c>
       <c r="M6">
-        <v>1.061656989432815</v>
+        <v>1.007728141707162</v>
       </c>
       <c r="N6">
-        <v>1.019932769128691</v>
+        <v>0.9995208893356075</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044055375215838</v>
+        <v>0.9695778867744231</v>
       </c>
       <c r="D7">
-        <v>1.046559714798297</v>
+        <v>0.9772380868376421</v>
       </c>
       <c r="E7">
-        <v>1.050675385045649</v>
+        <v>0.9871438048309963</v>
       </c>
       <c r="F7">
-        <v>1.058686419232321</v>
+        <v>0.9947771047588708</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027564094999896</v>
+        <v>1.044421984565221</v>
       </c>
       <c r="J7">
-        <v>1.048546706863407</v>
+        <v>0.9897867709761494</v>
       </c>
       <c r="K7">
-        <v>1.049016581762295</v>
+        <v>0.9876161226346594</v>
       </c>
       <c r="L7">
-        <v>1.053122114634079</v>
+        <v>0.9973968553765291</v>
       </c>
       <c r="M7">
-        <v>1.061113659664831</v>
+        <v>1.004935954146813</v>
       </c>
       <c r="N7">
-        <v>1.019739918195873</v>
+        <v>0.9984989027032865</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041271846395986</v>
+        <v>0.9545264804186246</v>
       </c>
       <c r="D8">
-        <v>1.043887401260763</v>
+        <v>0.9631871709835217</v>
       </c>
       <c r="E8">
-        <v>1.048216512907943</v>
+        <v>0.9741273111824374</v>
       </c>
       <c r="F8">
-        <v>1.05615455865839</v>
+        <v>0.9812804872691666</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027531257391537</v>
+        <v>1.043442692121956</v>
       </c>
       <c r="J8">
-        <v>1.046236118083355</v>
+        <v>0.9775413536518228</v>
       </c>
       <c r="K8">
-        <v>1.04659705875029</v>
+        <v>0.9748900163501404</v>
       </c>
       <c r="L8">
-        <v>1.050914323599226</v>
+        <v>0.9856695370204296</v>
       </c>
       <c r="M8">
-        <v>1.058830919519351</v>
+        <v>0.9927201421791058</v>
       </c>
       <c r="N8">
-        <v>1.018928508536267</v>
+        <v>0.9940200712187699</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036327227002844</v>
+        <v>0.9249496404578914</v>
       </c>
       <c r="D9">
-        <v>1.039141963374086</v>
+        <v>0.9356589004860327</v>
       </c>
       <c r="E9">
-        <v>1.043846453447684</v>
+        <v>0.9486343445776596</v>
       </c>
       <c r="F9">
-        <v>1.051650385318968</v>
+        <v>0.9548417682873998</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027451689026105</v>
+        <v>1.041373808130224</v>
       </c>
       <c r="J9">
-        <v>1.042124487954971</v>
+        <v>0.9534625040513095</v>
       </c>
       <c r="K9">
-        <v>1.04229432561427</v>
+        <v>0.9498899032500469</v>
       </c>
       <c r="L9">
-        <v>1.046983645758231</v>
+        <v>0.9626196564778137</v>
       </c>
       <c r="M9">
-        <v>1.054762740730566</v>
+        <v>0.9687126164359203</v>
       </c>
       <c r="N9">
-        <v>1.017478053235575</v>
+        <v>0.985189220838314</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033002253735928</v>
+        <v>0.9024676142658457</v>
       </c>
       <c r="D10">
-        <v>1.035952079611793</v>
+        <v>0.9148120755757058</v>
       </c>
       <c r="E10">
-        <v>1.040906491269352</v>
+        <v>0.9293474982965982</v>
       </c>
       <c r="F10">
-        <v>1.048617299438485</v>
+        <v>0.9348459083366033</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027384000459417</v>
+        <v>1.039720486536996</v>
       </c>
       <c r="J10">
-        <v>1.039354893896583</v>
+        <v>0.9351670350232003</v>
       </c>
       <c r="K10">
-        <v>1.039397849408819</v>
+        <v>0.9309109225366573</v>
       </c>
       <c r="L10">
-        <v>1.04433465063845</v>
+        <v>0.9451214013670012</v>
       </c>
       <c r="M10">
-        <v>1.052018415414991</v>
+        <v>0.9505003862294149</v>
       </c>
       <c r="N10">
-        <v>1.016496650368783</v>
+        <v>0.9784722151241932</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031555307326735</v>
+        <v>0.8918537163795329</v>
       </c>
       <c r="D11">
-        <v>1.034564207205569</v>
+        <v>0.9049952154286189</v>
       </c>
       <c r="E11">
-        <v>1.039626795410642</v>
+        <v>0.9202735740530759</v>
       </c>
       <c r="F11">
-        <v>1.047296394770215</v>
+        <v>0.9254429722340768</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02735120511151</v>
+        <v>1.038926141769141</v>
       </c>
       <c r="J11">
-        <v>1.038148516231383</v>
+        <v>0.9265371665993534</v>
       </c>
       <c r="K11">
-        <v>1.038136641657674</v>
+        <v>0.9219625382485892</v>
       </c>
       <c r="L11">
-        <v>1.043180505700038</v>
+        <v>0.9368737634257298</v>
       </c>
       <c r="M11">
-        <v>1.050822119756158</v>
+        <v>0.9419226118330101</v>
       </c>
       <c r="N11">
-        <v>1.016068144778474</v>
+        <v>0.9753049005725268</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031016726993757</v>
+        <v>0.8877530147132725</v>
       </c>
       <c r="D12">
-        <v>1.034047659464746</v>
+        <v>0.9012069437000575</v>
       </c>
       <c r="E12">
-        <v>1.039150426190296</v>
+        <v>0.916773687810193</v>
       </c>
       <c r="F12">
-        <v>1.046804585308307</v>
+        <v>0.9218171967826606</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027338498581138</v>
+        <v>1.038617744959535</v>
       </c>
       <c r="J12">
-        <v>1.037699312858788</v>
+        <v>0.9232047905110854</v>
       </c>
       <c r="K12">
-        <v>1.03766708754779</v>
+        <v>0.9185077486938062</v>
       </c>
       <c r="L12">
-        <v>1.042750707549676</v>
+        <v>0.9336901948891478</v>
       </c>
       <c r="M12">
-        <v>1.050376533637235</v>
+        <v>0.938612926568366</v>
       </c>
       <c r="N12">
-        <v>1.015908434312794</v>
+        <v>0.9740823239861548</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031132305580853</v>
+        <v>0.888640297074228</v>
       </c>
       <c r="D13">
-        <v>1.034158507872891</v>
+        <v>0.9020264087005484</v>
       </c>
       <c r="E13">
-        <v>1.039252656257609</v>
+        <v>0.9175306860027498</v>
       </c>
       <c r="F13">
-        <v>1.046910133405504</v>
+        <v>0.922601372159262</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027341247946384</v>
+        <v>1.038684530875379</v>
       </c>
       <c r="J13">
-        <v>1.037795718824701</v>
+        <v>0.9239257346107617</v>
       </c>
       <c r="K13">
-        <v>1.037767858126908</v>
+        <v>0.9192551504072254</v>
       </c>
       <c r="L13">
-        <v>1.04284295083514</v>
+        <v>0.934378885395483</v>
       </c>
       <c r="M13">
-        <v>1.05047216944256</v>
+        <v>0.9393288337618717</v>
       </c>
       <c r="N13">
-        <v>1.015942717561092</v>
+        <v>0.9743467961889408</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03151081117043</v>
+        <v>0.8915181587232336</v>
       </c>
       <c r="D14">
-        <v>1.034521530420164</v>
+        <v>0.9046851283869535</v>
       </c>
       <c r="E14">
-        <v>1.039587439838616</v>
+        <v>0.9199870556902927</v>
       </c>
       <c r="F14">
-        <v>1.047255765627807</v>
+        <v>0.9251461253826734</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027350165500123</v>
+        <v>1.038900932394003</v>
       </c>
       <c r="J14">
-        <v>1.038111407578827</v>
+        <v>0.9262644400187827</v>
       </c>
       <c r="K14">
-        <v>1.038097850494686</v>
+        <v>0.9216797815318586</v>
       </c>
       <c r="L14">
-        <v>1.043145001004168</v>
+        <v>0.9366131892181505</v>
       </c>
       <c r="M14">
-        <v>1.050785312702376</v>
+        <v>0.9416516862038729</v>
       </c>
       <c r="N14">
-        <v>1.016054954230589</v>
+        <v>0.9752048317428696</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>1.031743871437572</v>
+        <v>0.8932694207399207</v>
       </c>
       <c r="D15">
-        <v>1.034745063069175</v>
+        <v>0.9063036460734479</v>
       </c>
       <c r="E15">
-        <v>1.039793573216302</v>
+        <v>0.9214826262837994</v>
       </c>
       <c r="F15">
-        <v>1.047468565515191</v>
+        <v>0.9266956516789728</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027355590311617</v>
+        <v>1.039032442355311</v>
       </c>
       <c r="J15">
-        <v>1.03830576702505</v>
+        <v>0.9276878656922743</v>
       </c>
       <c r="K15">
-        <v>1.03830102490495</v>
+        <v>0.9231555802233006</v>
       </c>
       <c r="L15">
-        <v>1.043330957806629</v>
+        <v>0.937973239386766</v>
       </c>
       <c r="M15">
-        <v>1.050978086914896</v>
+        <v>0.9430658202487998</v>
       </c>
       <c r="N15">
-        <v>1.016124034480617</v>
+        <v>0.9757271357555058</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033098127762292</v>
+        <v>0.90315144068927</v>
       </c>
       <c r="D16">
-        <v>1.036044045538463</v>
+        <v>0.9154451156287076</v>
       </c>
       <c r="E16">
-        <v>1.040991277272795</v>
+        <v>0.9299328333602513</v>
       </c>
       <c r="F16">
-        <v>1.048704801641955</v>
+        <v>0.9354525853241752</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027386103438012</v>
+        <v>1.039771428756173</v>
       </c>
       <c r="J16">
-        <v>1.03943480449685</v>
+        <v>0.9357232390397042</v>
       </c>
       <c r="K16">
-        <v>1.039481401145958</v>
+        <v>0.9314877339397126</v>
       </c>
       <c r="L16">
-        <v>1.044411095140432</v>
+        <v>0.9456531176958838</v>
       </c>
       <c r="M16">
-        <v>1.052097638922656</v>
+        <v>0.9510535435805584</v>
       </c>
       <c r="N16">
-        <v>1.016525013125345</v>
+        <v>0.9786763970138685</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033945660703903</v>
+        <v>0.9090986138241238</v>
       </c>
       <c r="D17">
-        <v>1.036857063748003</v>
+        <v>0.9209534297076758</v>
       </c>
       <c r="E17">
-        <v>1.041740757378222</v>
+        <v>0.9350270080517887</v>
       </c>
       <c r="F17">
-        <v>1.049478214511313</v>
+        <v>0.9407330330143935</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027404309461618</v>
+        <v>1.040213004049681</v>
       </c>
       <c r="J17">
-        <v>1.040141090881504</v>
+        <v>0.9405613807990653</v>
       </c>
       <c r="K17">
-        <v>1.040219919900547</v>
+        <v>0.9365055577669792</v>
       </c>
       <c r="L17">
-        <v>1.045086712372716</v>
+        <v>0.9502789612256209</v>
       </c>
       <c r="M17">
-        <v>1.05279774624877</v>
+        <v>0.9558666586287431</v>
       </c>
       <c r="N17">
-        <v>1.016775577978096</v>
+        <v>0.9804526187482765</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034439319072968</v>
+        <v>0.9124847873350393</v>
       </c>
       <c r="D18">
-        <v>1.037330645963545</v>
+        <v>0.9240919660952761</v>
       </c>
       <c r="E18">
-        <v>1.042177274709807</v>
+        <v>0.9379303071154269</v>
       </c>
       <c r="F18">
-        <v>1.049928605996445</v>
+        <v>0.9437428881475287</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027414592485711</v>
+        <v>1.040463122997429</v>
       </c>
       <c r="J18">
-        <v>1.040552370392338</v>
+        <v>0.9433167397326512</v>
       </c>
       <c r="K18">
-        <v>1.040650010761193</v>
+        <v>0.9393636037762798</v>
       </c>
       <c r="L18">
-        <v>1.045480104179902</v>
+        <v>0.9529139607997537</v>
       </c>
       <c r="M18">
-        <v>1.053205338587194</v>
+        <v>0.9586088925784622</v>
       </c>
       <c r="N18">
-        <v>1.016921386272358</v>
+        <v>0.981464265560649</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034607527330816</v>
+        <v>0.9136260320215385</v>
       </c>
       <c r="D19">
-        <v>1.037492018135359</v>
+        <v>0.9251501110931186</v>
       </c>
       <c r="E19">
-        <v>1.042326007910901</v>
+        <v>0.9389092559872334</v>
       </c>
       <c r="F19">
-        <v>1.050082055447934</v>
+        <v>0.9447578246978294</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027418041733671</v>
+        <v>1.040547184868718</v>
       </c>
       <c r="J19">
-        <v>1.040692490739381</v>
+        <v>0.9442454728177139</v>
       </c>
       <c r="K19">
-        <v>1.04079654714756</v>
+        <v>0.9403270096551571</v>
       </c>
       <c r="L19">
-        <v>1.045614125414607</v>
+        <v>0.9538022106439216</v>
       </c>
       <c r="M19">
-        <v>1.053344187575249</v>
+        <v>0.9595333766930851</v>
       </c>
       <c r="N19">
-        <v>1.016971045457183</v>
+        <v>0.9818052605548389</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033854800410446</v>
+        <v>0.9084692588505666</v>
       </c>
       <c r="D20">
-        <v>1.036769900776375</v>
+        <v>0.920370278535238</v>
       </c>
       <c r="E20">
-        <v>1.041660411854093</v>
+        <v>0.9344876217093656</v>
       </c>
       <c r="F20">
-        <v>1.049395310066655</v>
+        <v>0.9401738803362638</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027402390915085</v>
+        <v>1.04016640708842</v>
       </c>
       <c r="J20">
-        <v>1.040065384149003</v>
+        <v>0.940049317323808</v>
       </c>
       <c r="K20">
-        <v>1.040140753834941</v>
+        <v>0.935974439736821</v>
       </c>
       <c r="L20">
-        <v>1.045014296024126</v>
+        <v>0.9497893084198517</v>
       </c>
       <c r="M20">
-        <v>1.052722711048523</v>
+        <v>0.9553571222045284</v>
       </c>
       <c r="N20">
-        <v>1.016748730187451</v>
+        <v>0.9802646157299056</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031399381923311</v>
+        <v>0.8906753181053844</v>
       </c>
       <c r="D21">
-        <v>1.034414658039047</v>
+        <v>0.9039063385275008</v>
       </c>
       <c r="E21">
-        <v>1.039488883188596</v>
+        <v>0.9192674877778443</v>
       </c>
       <c r="F21">
-        <v>1.0471540180106</v>
+        <v>0.924400635758961</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027347554001759</v>
+        <v>1.038837590624303</v>
       </c>
       <c r="J21">
-        <v>1.038018475749514</v>
+        <v>0.9255794472541785</v>
       </c>
       <c r="K21">
-        <v>1.038000706185486</v>
+        <v>0.9209696058610357</v>
       </c>
       <c r="L21">
-        <v>1.043056085282801</v>
+        <v>0.9359587393741015</v>
       </c>
       <c r="M21">
-        <v>1.050693133969558</v>
+        <v>0.9409712604429801</v>
       </c>
       <c r="N21">
-        <v>1.016021918444989</v>
+        <v>0.9749535028085616</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029849064233168</v>
+        <v>0.8785525862912397</v>
       </c>
       <c r="D22">
-        <v>1.032927846259191</v>
+        <v>0.8927168721097366</v>
       </c>
       <c r="E22">
-        <v>1.038117563577863</v>
+        <v>0.9089336829543008</v>
       </c>
       <c r="F22">
-        <v>1.04573806305028</v>
+        <v>0.9136975197575196</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02731003845339</v>
+        <v>1.037923774011804</v>
       </c>
       <c r="J22">
-        <v>1.036725117694935</v>
+        <v>0.9157324521064031</v>
       </c>
       <c r="K22">
-        <v>1.036648877507409</v>
+        <v>0.9107619893051149</v>
       </c>
       <c r="L22">
-        <v>1.041818517048812</v>
+        <v>0.9265541766231377</v>
       </c>
       <c r="M22">
-        <v>1.049409934989711</v>
+        <v>0.9311971411083103</v>
       </c>
       <c r="N22">
-        <v>1.015561787773161</v>
+        <v>0.9713421631555972</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030671545359475</v>
+        <v>0.8850787144087147</v>
       </c>
       <c r="D23">
-        <v>1.033716611315359</v>
+        <v>0.898737774456336</v>
       </c>
       <c r="E23">
-        <v>1.038845104528753</v>
+        <v>0.9144930290640598</v>
       </c>
       <c r="F23">
-        <v>1.046489339390022</v>
+        <v>0.9194548380916333</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027330214474175</v>
+        <v>1.038416280719522</v>
       </c>
       <c r="J23">
-        <v>1.037411366866077</v>
+        <v>0.9210321643284219</v>
       </c>
       <c r="K23">
-        <v>1.0373661149083</v>
+        <v>0.9162554747692725</v>
       </c>
       <c r="L23">
-        <v>1.04247518828931</v>
+        <v>0.931614971374697</v>
       </c>
       <c r="M23">
-        <v>1.050090868081296</v>
+        <v>0.9364559164357453</v>
       </c>
       <c r="N23">
-        <v>1.015806014491281</v>
+        <v>0.9732854106345222</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033895858406796</v>
+        <v>0.908753890988255</v>
       </c>
       <c r="D24">
-        <v>1.036809287940161</v>
+        <v>0.9206340076011412</v>
       </c>
       <c r="E24">
-        <v>1.041696718519882</v>
+        <v>0.9347315559569901</v>
       </c>
       <c r="F24">
-        <v>1.049432773262468</v>
+        <v>0.9404267525834633</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027403258862695</v>
+        <v>1.040187485142435</v>
       </c>
       <c r="J24">
-        <v>1.040099594879382</v>
+        <v>0.9402809012441949</v>
       </c>
       <c r="K24">
-        <v>1.04017652765578</v>
+        <v>0.936214640085395</v>
       </c>
       <c r="L24">
-        <v>1.04504701996836</v>
+        <v>0.9500107552893808</v>
       </c>
       <c r="M24">
-        <v>1.05275661859908</v>
+        <v>0.9555875597749988</v>
       </c>
       <c r="N24">
-        <v>1.016760862604633</v>
+        <v>0.9803496410624981</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037610424135921</v>
+        <v>0.9330215106616685</v>
       </c>
       <c r="D25">
-        <v>1.040373272461677</v>
+        <v>0.9431604754580059</v>
       </c>
       <c r="E25">
-        <v>1.044980788503476</v>
+        <v>0.9555792125495943</v>
       </c>
       <c r="F25">
-        <v>1.052820045408856</v>
+        <v>0.9620440064817956</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027474836432801</v>
+        <v>1.041953234652465</v>
       </c>
       <c r="J25">
-        <v>1.043192351513035</v>
+        <v>0.9600341643757169</v>
       </c>
       <c r="K25">
-        <v>1.043411498271781</v>
+        <v>0.956710268042565</v>
       </c>
       <c r="L25">
-        <v>1.048004741973763</v>
+        <v>0.968908605635496</v>
       </c>
       <c r="M25">
-        <v>1.055820028967252</v>
+        <v>0.9752615772953207</v>
       </c>
       <c r="N25">
-        <v>1.017855533650782</v>
+        <v>0.98760127865883</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9504654457681874</v>
+        <v>1.012708564532812</v>
       </c>
       <c r="D2">
-        <v>0.9594008269462876</v>
+        <v>1.029286864137759</v>
       </c>
       <c r="E2">
-        <v>0.970619925438354</v>
+        <v>1.02733243112088</v>
       </c>
       <c r="F2">
-        <v>0.9776430849446308</v>
+        <v>1.038024576604587</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043168581173006</v>
+        <v>1.048768060234196</v>
       </c>
       <c r="J2">
-        <v>0.9742358735463019</v>
+        <v>1.034515696875669</v>
       </c>
       <c r="K2">
-        <v>0.9714563269524895</v>
+        <v>1.040352724653925</v>
       </c>
       <c r="L2">
-        <v>0.9825043354207201</v>
+        <v>1.038423674762039</v>
       </c>
       <c r="M2">
-        <v>0.9894229315158054</v>
+        <v>1.048978416141236</v>
       </c>
       <c r="N2">
-        <v>0.9928092696562392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015304854087655</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04733548964613</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039603151159554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.962255457105424</v>
+        <v>1.016063316262492</v>
       </c>
       <c r="D3">
-        <v>0.9703989608296536</v>
+        <v>1.031721797907937</v>
       </c>
       <c r="E3">
-        <v>0.9808081297496838</v>
+        <v>1.029912199104994</v>
       </c>
       <c r="F3">
-        <v>0.9882083248982072</v>
+        <v>1.04052129071808</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043953303569603</v>
+        <v>1.049260076871549</v>
       </c>
       <c r="J3">
-        <v>0.9838307755340502</v>
+        <v>1.036125455740816</v>
       </c>
       <c r="K3">
-        <v>0.9814251472274185</v>
+        <v>1.041964264364777</v>
       </c>
       <c r="L3">
-        <v>0.9916926100855501</v>
+        <v>1.040176135113624</v>
       </c>
       <c r="M3">
-        <v>0.9989943393935241</v>
+        <v>1.050660673562642</v>
       </c>
       <c r="N3">
-        <v>0.9963219280289347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015853277373944</v>
+      </c>
+      <c r="O3">
+        <v>1.029999999999999</v>
+      </c>
+      <c r="P3">
+        <v>1.048666869935268</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.040739985535983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9695377021298026</v>
+        <v>1.018200286332935</v>
       </c>
       <c r="D4">
-        <v>0.9772005369688488</v>
+        <v>1.033279321065122</v>
       </c>
       <c r="E4">
-        <v>0.9871090196740652</v>
+        <v>1.031561379004301</v>
       </c>
       <c r="F4">
-        <v>0.994741043685793</v>
+        <v>1.042118158894983</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044419456256567</v>
+        <v>1.049563243163286</v>
       </c>
       <c r="J4">
-        <v>0.9897540935782162</v>
+        <v>1.037149613323906</v>
       </c>
       <c r="K4">
-        <v>0.987582149555186</v>
+        <v>1.042992023582271</v>
       </c>
       <c r="L4">
-        <v>0.9973655583699593</v>
+        <v>1.041293243102436</v>
       </c>
       <c r="M4">
-        <v>1.004903356830211</v>
+        <v>1.05173350091363</v>
       </c>
       <c r="N4">
-        <v>0.9984869674177758</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016202110596781</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049515930888762</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041467591069123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9725234887905581</v>
+        <v>1.019094166674579</v>
       </c>
       <c r="D5">
-        <v>0.9799910787457805</v>
+        <v>1.033934732447189</v>
       </c>
       <c r="E5">
-        <v>0.9896940675561104</v>
+        <v>1.032253149852673</v>
       </c>
       <c r="F5">
-        <v>0.9974207746181827</v>
+        <v>1.042788429041591</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04460591658327</v>
+        <v>1.049688426573709</v>
       </c>
       <c r="J5">
-        <v>0.9921817937196665</v>
+        <v>1.037579365592458</v>
       </c>
       <c r="K5">
-        <v>0.9901063123174677</v>
+        <v>1.043425366925667</v>
       </c>
       <c r="L5">
-        <v>0.9996907205415196</v>
+        <v>1.041762044342331</v>
       </c>
       <c r="M5">
-        <v>1.007325044137352</v>
+        <v>1.0521841117527</v>
       </c>
       <c r="N5">
-        <v>0.9993733928387234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01634869835004</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.049872554681439</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.041781153429711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9730205720569549</v>
+        <v>1.019247909806571</v>
       </c>
       <c r="D6">
-        <v>0.9804557598176602</v>
+        <v>1.034050433411571</v>
       </c>
       <c r="E6">
-        <v>0.9901245222470362</v>
+        <v>1.032372873846102</v>
       </c>
       <c r="F6">
-        <v>0.9978669675608169</v>
+        <v>1.042904753218132</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044636678398349</v>
+        <v>1.049710870065327</v>
       </c>
       <c r="J6">
-        <v>0.9925859065542117</v>
+        <v>1.037655301210136</v>
       </c>
       <c r="K6">
-        <v>0.9905265226822605</v>
+        <v>1.043503758430642</v>
       </c>
       <c r="L6">
-        <v>1.000077767372886</v>
+        <v>1.041844332266696</v>
       </c>
       <c r="M6">
-        <v>1.007728141707162</v>
+        <v>1.052263550946729</v>
       </c>
       <c r="N6">
-        <v>0.9995208893356075</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016374882540241</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04993542467087</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.041845305783814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9695778867744231</v>
+        <v>1.018223360316006</v>
       </c>
       <c r="D7">
-        <v>0.9772380868376421</v>
+        <v>1.033303955168415</v>
       </c>
       <c r="E7">
-        <v>0.9871438048309963</v>
+        <v>1.031581015692586</v>
       </c>
       <c r="F7">
-        <v>0.9947771047588708</v>
+        <v>1.042138007175436</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044421984565221</v>
+        <v>1.049569345099015</v>
       </c>
       <c r="J7">
-        <v>0.9897867709761494</v>
+        <v>1.037166200567097</v>
       </c>
       <c r="K7">
-        <v>0.9876161226346594</v>
+        <v>1.043013511207338</v>
       </c>
       <c r="L7">
-        <v>0.9973968553765291</v>
+        <v>1.04130978163562</v>
       </c>
       <c r="M7">
-        <v>1.004935954146813</v>
+        <v>1.051750292938099</v>
       </c>
       <c r="N7">
-        <v>0.9984989027032865</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016208541676308</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.0495292204866</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041502849670999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9545264804186246</v>
+        <v>1.01386348179163</v>
       </c>
       <c r="D8">
-        <v>0.9631871709835217</v>
+        <v>1.030133364952174</v>
       </c>
       <c r="E8">
-        <v>0.9741273111824374</v>
+        <v>1.028221620417303</v>
       </c>
       <c r="F8">
-        <v>0.9812804872691666</v>
+        <v>1.03888596367391</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043442692121956</v>
+        <v>1.048943094558462</v>
       </c>
       <c r="J8">
-        <v>0.9775413536518228</v>
+        <v>1.035077037057171</v>
       </c>
       <c r="K8">
-        <v>0.9748900163501404</v>
+        <v>1.040920063010208</v>
       </c>
       <c r="L8">
-        <v>0.9856695370204296</v>
+        <v>1.039032413961682</v>
       </c>
       <c r="M8">
-        <v>0.9927201421791058</v>
+        <v>1.049563754037957</v>
       </c>
       <c r="N8">
-        <v>0.9940200712187699</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015497124677</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.047798740861452</v>
+      </c>
+      <c r="Q8">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R8">
+        <v>1.040027173463157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9249496404578914</v>
+        <v>1.005894260951049</v>
       </c>
       <c r="D9">
-        <v>0.9356589004860327</v>
+        <v>1.024377928559839</v>
       </c>
       <c r="E9">
-        <v>0.9486343445776596</v>
+        <v>1.022125865297544</v>
       </c>
       <c r="F9">
-        <v>0.9548417682873998</v>
+        <v>1.032990014126173</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041373808130224</v>
+        <v>1.047714543000039</v>
       </c>
       <c r="J9">
-        <v>0.9534625040513095</v>
+        <v>1.031240580947346</v>
       </c>
       <c r="K9">
-        <v>0.9498899032500469</v>
+        <v>1.037087495933572</v>
       </c>
       <c r="L9">
-        <v>0.9626196564778137</v>
+        <v>1.034869883106862</v>
       </c>
       <c r="M9">
-        <v>0.9687126164359203</v>
+        <v>1.045569602705499</v>
       </c>
       <c r="N9">
-        <v>0.985189220838314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014188810338862</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044637662693826</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037314129348644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9024676142658457</v>
+        <v>1.000439890148192</v>
       </c>
       <c r="D10">
-        <v>0.9148120755757058</v>
+        <v>1.020496700108333</v>
       </c>
       <c r="E10">
-        <v>0.9293474982965982</v>
+        <v>1.018010511032899</v>
       </c>
       <c r="F10">
-        <v>0.9348459083366033</v>
+        <v>1.029045216348365</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039720486536996</v>
+        <v>1.046837822108773</v>
       </c>
       <c r="J10">
-        <v>0.9351670350232003</v>
+        <v>1.028636066064638</v>
       </c>
       <c r="K10">
-        <v>0.9309109225366573</v>
+        <v>1.034505485822997</v>
       </c>
       <c r="L10">
-        <v>0.9451214013670012</v>
+        <v>1.032062020173868</v>
       </c>
       <c r="M10">
-        <v>0.9505003862294149</v>
+        <v>1.042909132433573</v>
       </c>
       <c r="N10">
-        <v>0.9784722151241932</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013304083039039</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.04258327125198</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035505292324167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8918537163795329</v>
+        <v>0.998446418435374</v>
       </c>
       <c r="D11">
-        <v>0.9049952154286189</v>
+        <v>1.019245598760339</v>
       </c>
       <c r="E11">
-        <v>0.9202735740530759</v>
+        <v>1.016695648057955</v>
       </c>
       <c r="F11">
-        <v>0.9254429722340768</v>
+        <v>1.028035034149129</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038926141769141</v>
+        <v>1.04662441671535</v>
       </c>
       <c r="J11">
-        <v>0.9265371665993534</v>
+        <v>1.0278839713442</v>
       </c>
       <c r="K11">
-        <v>0.9219625382485892</v>
+        <v>1.033813474256408</v>
       </c>
       <c r="L11">
-        <v>0.9368737634257298</v>
+        <v>1.031309430798662</v>
       </c>
       <c r="M11">
-        <v>0.9419226118330101</v>
+        <v>1.042446933531757</v>
       </c>
       <c r="N11">
-        <v>0.9753049005725268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013079442808911</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.042651611899164</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.035048850646287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8877530147132725</v>
+        <v>0.9978513740033786</v>
       </c>
       <c r="D12">
-        <v>0.9012069437000575</v>
+        <v>1.018936700314505</v>
       </c>
       <c r="E12">
-        <v>0.916773687810193</v>
+        <v>1.016384226807649</v>
       </c>
       <c r="F12">
-        <v>0.9218171967826606</v>
+        <v>1.027919378682233</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038617744959535</v>
+        <v>1.046611316697276</v>
       </c>
       <c r="J12">
-        <v>0.9232047905110854</v>
+        <v>1.027746946731818</v>
       </c>
       <c r="K12">
-        <v>0.9185077486938062</v>
+        <v>1.033709878575378</v>
       </c>
       <c r="L12">
-        <v>0.9336901948891478</v>
+        <v>1.031204121615554</v>
       </c>
       <c r="M12">
-        <v>0.938612926568366</v>
+        <v>1.042530546909699</v>
       </c>
       <c r="N12">
-        <v>0.9740823239861548</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013057681714657</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043042700920801</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034975605166432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.888640297074228</v>
+        <v>0.9983076273825749</v>
       </c>
       <c r="D13">
-        <v>0.9020264087005484</v>
+        <v>1.019352448638277</v>
       </c>
       <c r="E13">
-        <v>0.9175306860027498</v>
+        <v>1.016838493581169</v>
       </c>
       <c r="F13">
-        <v>0.922601372159262</v>
+        <v>1.028506124991202</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038684530875379</v>
+        <v>1.046762138215936</v>
       </c>
       <c r="J13">
-        <v>0.9239257346107617</v>
+        <v>1.028090900818243</v>
       </c>
       <c r="K13">
-        <v>0.9192551504072254</v>
+        <v>1.03407522457612</v>
       </c>
       <c r="L13">
-        <v>0.934378885395483</v>
+        <v>1.031607076244496</v>
       </c>
       <c r="M13">
-        <v>0.9393288337618717</v>
+        <v>1.043064566944226</v>
       </c>
       <c r="N13">
-        <v>0.9743467961889408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013197323913376</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.043740513900197</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035231424531427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,81 +1069,105 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8915181587232336</v>
+        <v>0.9991054000274311</v>
       </c>
       <c r="D14">
-        <v>0.9046851283869535</v>
+        <v>1.019974693856484</v>
       </c>
       <c r="E14">
-        <v>0.9199870556902927</v>
+        <v>1.017504946559849</v>
       </c>
       <c r="F14">
-        <v>0.9251461253826734</v>
+        <v>1.02923694365491</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038900932394003</v>
+        <v>1.046942369096595</v>
       </c>
       <c r="J14">
-        <v>0.9262644400187827</v>
+        <v>1.02855115014312</v>
       </c>
       <c r="K14">
-        <v>0.9216797815318586</v>
+        <v>1.034545986453994</v>
       </c>
       <c r="L14">
-        <v>0.9366131892181505</v>
+        <v>1.032120673211854</v>
       </c>
       <c r="M14">
-        <v>0.9416516862038729</v>
+        <v>1.043644056958327</v>
       </c>
       <c r="N14">
-        <v>0.9752048317428696</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013368854803887</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.044371299655809</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035565692609066</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8932694207399207</v>
+        <v>0.9995332703329544</v>
       </c>
       <c r="D15">
-        <v>0.9063036460734479</v>
+        <v>1.02029236626438</v>
       </c>
       <c r="E15">
-        <v>0.9214826262837994</v>
+        <v>1.01784111369422</v>
       </c>
       <c r="F15">
-        <v>0.9266956516789728</v>
+        <v>1.029579800023479</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039032442355311</v>
+        <v>1.047024532686091</v>
       </c>
       <c r="J15">
-        <v>0.9276878656922743</v>
+        <v>1.028774272201303</v>
       </c>
       <c r="K15">
-        <v>0.9231555802233006</v>
+        <v>1.034771622414194</v>
       </c>
       <c r="L15">
-        <v>0.937973239386766</v>
+        <v>1.032364133574688</v>
       </c>
       <c r="M15">
-        <v>0.9430658202487998</v>
+        <v>1.043895689059294</v>
       </c>
       <c r="N15">
-        <v>0.9757271357555058</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013448166063711</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.044607603823041</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035731092701205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.90315144068927</v>
+        <v>1.001752845072708</v>
       </c>
       <c r="D16">
-        <v>0.9154451156287076</v>
+        <v>1.021858571903192</v>
       </c>
       <c r="E16">
-        <v>0.9299328333602513</v>
+        <v>1.019497107323184</v>
       </c>
       <c r="F16">
-        <v>0.9354525853241752</v>
+        <v>1.031158057125499</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039771428756173</v>
+        <v>1.047381931251688</v>
       </c>
       <c r="J16">
-        <v>0.9357232390397042</v>
+        <v>1.029820526932985</v>
       </c>
       <c r="K16">
-        <v>0.9314877339397126</v>
+        <v>1.035808515724679</v>
       </c>
       <c r="L16">
-        <v>0.9456531176958838</v>
+        <v>1.033487366875965</v>
       </c>
       <c r="M16">
-        <v>0.9510535435805584</v>
+        <v>1.044951549252833</v>
       </c>
       <c r="N16">
-        <v>0.9786763970138685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013799398658301</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.045403568967171</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036467377146519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9090986138241238</v>
+        <v>1.003039654158762</v>
       </c>
       <c r="D17">
-        <v>0.9209534297076758</v>
+        <v>1.022736047841683</v>
       </c>
       <c r="E17">
-        <v>0.9350270080517887</v>
+        <v>1.020419915558148</v>
       </c>
       <c r="F17">
-        <v>0.9407330330143935</v>
+        <v>1.031983593823287</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040213004049681</v>
+        <v>1.047558931611272</v>
       </c>
       <c r="J17">
-        <v>0.9405613807990653</v>
+        <v>1.030381522008239</v>
       </c>
       <c r="K17">
-        <v>0.9365055577669792</v>
+        <v>1.036356839240428</v>
       </c>
       <c r="L17">
-        <v>0.9502789612256209</v>
+        <v>1.034079138298162</v>
       </c>
       <c r="M17">
-        <v>0.9558666586287431</v>
+        <v>1.045453148937683</v>
       </c>
       <c r="N17">
-        <v>0.9804526187482765</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013978706469559</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.045671475488513</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036857648091303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9124847873350393</v>
+        <v>1.003633396620061</v>
       </c>
       <c r="D18">
-        <v>0.9240919660952761</v>
+        <v>1.023079314157579</v>
       </c>
       <c r="E18">
-        <v>0.9379303071154269</v>
+        <v>1.020776639764555</v>
       </c>
       <c r="F18">
-        <v>0.9437428881475287</v>
+        <v>1.032202176353229</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040463122997429</v>
+        <v>1.047591910422754</v>
       </c>
       <c r="J18">
-        <v>0.9433167397326512</v>
+        <v>1.030559837879195</v>
       </c>
       <c r="K18">
-        <v>0.9393636037762798</v>
+        <v>1.036511215195095</v>
       </c>
       <c r="L18">
-        <v>0.9529139607997537</v>
+        <v>1.034246126025822</v>
       </c>
       <c r="M18">
-        <v>0.9586088925784622</v>
+        <v>1.045487282294431</v>
       </c>
       <c r="N18">
-        <v>0.981464265560649</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014019920380343</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.045461741227298</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036955170197652</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9136260320215385</v>
+        <v>1.003619193476076</v>
       </c>
       <c r="D19">
-        <v>0.9251501110931186</v>
+        <v>1.022964131079021</v>
       </c>
       <c r="E19">
-        <v>0.9389092559872334</v>
+        <v>1.020637428090279</v>
       </c>
       <c r="F19">
-        <v>0.9447578246978294</v>
+        <v>1.031887354392462</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040547184868718</v>
+        <v>1.047505214074703</v>
       </c>
       <c r="J19">
-        <v>0.9442454728177139</v>
+        <v>1.030412333796354</v>
       </c>
       <c r="K19">
-        <v>0.9403270096551571</v>
+        <v>1.036335423698046</v>
       </c>
       <c r="L19">
-        <v>0.9538022106439216</v>
+        <v>1.034046507605961</v>
       </c>
       <c r="M19">
-        <v>0.9595333766930851</v>
+        <v>1.045115752605974</v>
       </c>
       <c r="N19">
-        <v>0.9818052605548389</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013946313809877</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044843981174943</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036837270407397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9084692588505666</v>
+        <v>1.001881990689127</v>
       </c>
       <c r="D20">
-        <v>0.920370278535238</v>
+        <v>1.021540589171847</v>
       </c>
       <c r="E20">
-        <v>0.9344876217093656</v>
+        <v>1.019102334993629</v>
       </c>
       <c r="F20">
-        <v>0.9401738803362638</v>
+        <v>1.030095123339942</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04016640708842</v>
+        <v>1.047081006972412</v>
       </c>
       <c r="J20">
-        <v>0.940049317323808</v>
+        <v>1.029340557024374</v>
       </c>
       <c r="K20">
-        <v>0.935974439736821</v>
+        <v>1.035214960776734</v>
       </c>
       <c r="L20">
-        <v>0.9497893084198517</v>
+        <v>1.032817408195491</v>
       </c>
       <c r="M20">
-        <v>0.9553571222045284</v>
+        <v>1.043628652758374</v>
       </c>
       <c r="N20">
-        <v>0.9802646157299056</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013545872732507</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.043142195775996</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036048980871958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8906753181053844</v>
+        <v>0.9977170092623884</v>
       </c>
       <c r="D21">
-        <v>0.9039063385275008</v>
+        <v>1.018556327404397</v>
       </c>
       <c r="E21">
-        <v>0.9192674877778443</v>
+        <v>1.015936718461928</v>
       </c>
       <c r="F21">
-        <v>0.924400635758961</v>
+        <v>1.027013177455749</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038837590624303</v>
+        <v>1.046371138553283</v>
       </c>
       <c r="J21">
-        <v>0.9255794472541785</v>
+        <v>1.027310492462165</v>
       </c>
       <c r="K21">
-        <v>0.9209696058610357</v>
+        <v>1.033194470846609</v>
       </c>
       <c r="L21">
-        <v>0.9359587393741015</v>
+        <v>1.030622326833899</v>
       </c>
       <c r="M21">
-        <v>0.9409712604429801</v>
+        <v>1.04150023373937</v>
       </c>
       <c r="N21">
-        <v>0.9749535028085616</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012850432217932</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.041417041234192</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034623647519698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8785525862912397</v>
+        <v>0.9950654649202865</v>
       </c>
       <c r="D22">
-        <v>0.8927168721097366</v>
+        <v>1.016666545040347</v>
       </c>
       <c r="E22">
-        <v>0.9089336829543008</v>
+        <v>1.013938255754365</v>
       </c>
       <c r="F22">
-        <v>0.9136975197575196</v>
+        <v>1.025083431605072</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037923774011804</v>
+        <v>1.045913378319622</v>
       </c>
       <c r="J22">
-        <v>0.9157324521064031</v>
+        <v>1.026023777945309</v>
       </c>
       <c r="K22">
-        <v>0.9107619893051149</v>
+        <v>1.031914910268207</v>
       </c>
       <c r="L22">
-        <v>0.9265541766231377</v>
+        <v>1.029238559299194</v>
       </c>
       <c r="M22">
-        <v>0.9311971411083103</v>
+        <v>1.04017383698678</v>
       </c>
       <c r="N22">
-        <v>0.9713421631555972</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012410350966386</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.040367287707328</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033705432656024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8850787144087147</v>
+        <v>0.9964645011946266</v>
       </c>
       <c r="D23">
-        <v>0.898737774456336</v>
+        <v>1.017655879804663</v>
       </c>
       <c r="E23">
-        <v>0.9144930290640598</v>
+        <v>1.014990023791228</v>
       </c>
       <c r="F23">
-        <v>0.9194548380916333</v>
+        <v>1.026098312748893</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038416280719522</v>
+        <v>1.046153357276473</v>
       </c>
       <c r="J23">
-        <v>0.9210321643284219</v>
+        <v>1.02669752312038</v>
       </c>
       <c r="K23">
-        <v>0.9162554747692725</v>
+        <v>1.032580595036864</v>
       </c>
       <c r="L23">
-        <v>0.931614971374697</v>
+        <v>1.029964187608376</v>
       </c>
       <c r="M23">
-        <v>0.9364559164357453</v>
+        <v>1.04086863495692</v>
       </c>
       <c r="N23">
-        <v>0.9732854106345222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012639937465107</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.040917173607399</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034166461171929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.908753890988255</v>
+        <v>1.001894324781772</v>
       </c>
       <c r="D24">
-        <v>0.9206340076011412</v>
+        <v>1.021523537320658</v>
       </c>
       <c r="E24">
-        <v>0.9347315559569901</v>
+        <v>1.019091214408101</v>
       </c>
       <c r="F24">
-        <v>0.9404267525834633</v>
+        <v>1.030058663808498</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040187485142435</v>
+        <v>1.04706808266803</v>
       </c>
       <c r="J24">
-        <v>0.9402809012441949</v>
+        <v>1.029319648722013</v>
       </c>
       <c r="K24">
-        <v>0.936214640085395</v>
+        <v>1.035182932218293</v>
       </c>
       <c r="L24">
-        <v>0.9500107552893808</v>
+        <v>1.032791161290173</v>
       </c>
       <c r="M24">
-        <v>0.9555875597749988</v>
+        <v>1.043577706486703</v>
       </c>
       <c r="N24">
-        <v>0.9803496410624981</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013534776241981</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.043061217669629</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035998936569366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9330215106616685</v>
+        <v>1.008006026258299</v>
       </c>
       <c r="D25">
-        <v>0.9431604754580059</v>
+        <v>1.025908845717528</v>
       </c>
       <c r="E25">
-        <v>0.9555792125495943</v>
+        <v>1.023738445288574</v>
       </c>
       <c r="F25">
-        <v>0.9620440064817956</v>
+        <v>1.034550163651695</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041953234652465</v>
+        <v>1.048053603417979</v>
       </c>
       <c r="J25">
-        <v>0.9600341643757169</v>
+        <v>1.032266927333302</v>
       </c>
       <c r="K25">
-        <v>0.956710268042565</v>
+        <v>1.038117846180678</v>
       </c>
       <c r="L25">
-        <v>0.968908605635496</v>
+        <v>1.035979099174601</v>
       </c>
       <c r="M25">
-        <v>0.9752615772953207</v>
+        <v>1.046634804393614</v>
       </c>
       <c r="N25">
-        <v>0.98760127865883</v>
+        <v>1.01454022820826</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.045480693122051</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.038071208069016</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012708564532812</v>
+        <v>1.01223295304426</v>
       </c>
       <c r="D2">
-        <v>1.029286864137759</v>
+        <v>1.028185871531854</v>
       </c>
       <c r="E2">
-        <v>1.02733243112088</v>
+        <v>1.026873212759317</v>
       </c>
       <c r="F2">
-        <v>1.038024576604587</v>
+        <v>1.03741525173543</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048768060234196</v>
+        <v>1.048612321986285</v>
       </c>
       <c r="J2">
-        <v>1.034515696875669</v>
+        <v>1.034053834883518</v>
       </c>
       <c r="K2">
-        <v>1.040352724653925</v>
+        <v>1.03926601628905</v>
       </c>
       <c r="L2">
-        <v>1.038423674762039</v>
+        <v>1.037970438037485</v>
       </c>
       <c r="M2">
-        <v>1.048978416141236</v>
+        <v>1.048376826623032</v>
       </c>
       <c r="N2">
-        <v>1.015304854087655</v>
+        <v>1.016161915176962</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04733548964613</v>
+        <v>1.046859376183875</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039603151159554</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038843519308995</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022408044952399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016063316262492</v>
+        <v>1.015452982612813</v>
       </c>
       <c r="D3">
-        <v>1.031721797907937</v>
+        <v>1.030426747818352</v>
       </c>
       <c r="E3">
-        <v>1.029912199104994</v>
+        <v>1.029330078631411</v>
       </c>
       <c r="F3">
-        <v>1.04052129071808</v>
+        <v>1.039781960938507</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049260076871549</v>
+        <v>1.049054730280942</v>
       </c>
       <c r="J3">
-        <v>1.036125455740816</v>
+        <v>1.035531068358705</v>
       </c>
       <c r="K3">
-        <v>1.041964264364777</v>
+        <v>1.040684569579027</v>
       </c>
       <c r="L3">
-        <v>1.040176135113624</v>
+        <v>1.039600940960893</v>
       </c>
       <c r="M3">
-        <v>1.050660673562642</v>
+        <v>1.049929921826866</v>
       </c>
       <c r="N3">
-        <v>1.015853277373944</v>
+        <v>1.016561064821903</v>
       </c>
       <c r="O3">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048666869935268</v>
+        <v>1.04808853516296</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040739985535983</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.03984361939988</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022697407585633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018200286332935</v>
+        <v>1.017505020008612</v>
       </c>
       <c r="D4">
-        <v>1.033279321065122</v>
+        <v>1.031861108938267</v>
       </c>
       <c r="E4">
-        <v>1.031561379004301</v>
+        <v>1.030901646939192</v>
       </c>
       <c r="F4">
-        <v>1.042118158894983</v>
+        <v>1.041296584547755</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049563243163286</v>
+        <v>1.049326524764437</v>
       </c>
       <c r="J4">
-        <v>1.037149613323906</v>
+        <v>1.036471303040687</v>
       </c>
       <c r="K4">
-        <v>1.042992023582271</v>
+        <v>1.041589624253978</v>
       </c>
       <c r="L4">
-        <v>1.041293243102436</v>
+        <v>1.040640890448196</v>
       </c>
       <c r="M4">
-        <v>1.05173350091363</v>
+        <v>1.050920890725919</v>
       </c>
       <c r="N4">
-        <v>1.016202110596781</v>
+        <v>1.016815105122951</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049515930888762</v>
+        <v>1.048872812045273</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041467591069123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040484545036455</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022879856473096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019094166674579</v>
+        <v>1.018363528519002</v>
       </c>
       <c r="D5">
-        <v>1.033934732447189</v>
+        <v>1.032465103467835</v>
       </c>
       <c r="E5">
-        <v>1.032253149852673</v>
+        <v>1.031561069644421</v>
       </c>
       <c r="F5">
-        <v>1.042788429041591</v>
+        <v>1.041932557619864</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049688426573709</v>
+        <v>1.049438618141457</v>
       </c>
       <c r="J5">
-        <v>1.037579365592458</v>
+        <v>1.036866022054057</v>
       </c>
       <c r="K5">
-        <v>1.043425366925667</v>
+        <v>1.041971692370388</v>
       </c>
       <c r="L5">
-        <v>1.041762044342331</v>
+        <v>1.041077500535277</v>
       </c>
       <c r="M5">
-        <v>1.0521841117527</v>
+        <v>1.05133733290452</v>
       </c>
       <c r="N5">
-        <v>1.01634869835004</v>
+        <v>1.016921930931054</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049872554681439</v>
+        <v>1.04920239426412</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041781153429711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040762563812115</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022956882940609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019247909806571</v>
+        <v>1.018511139686036</v>
       </c>
       <c r="D6">
-        <v>1.034050433411571</v>
+        <v>1.032571961990008</v>
       </c>
       <c r="E6">
-        <v>1.032372873846102</v>
+        <v>1.031675187542764</v>
       </c>
       <c r="F6">
-        <v>1.042904753218132</v>
+        <v>1.042042957114507</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049710870065327</v>
+        <v>1.049458787048378</v>
       </c>
       <c r="J6">
-        <v>1.037655301210136</v>
+        <v>1.036935882542354</v>
       </c>
       <c r="K6">
-        <v>1.043503758430642</v>
+        <v>1.042041264609507</v>
       </c>
       <c r="L6">
-        <v>1.041844332266696</v>
+        <v>1.041154208828016</v>
       </c>
       <c r="M6">
-        <v>1.052263550946729</v>
+        <v>1.051410868898171</v>
       </c>
       <c r="N6">
-        <v>1.016374882540241</v>
+        <v>1.016941057506283</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04993542467087</v>
+        <v>1.049260592378717</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041845305783814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040821350425154</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022971523596398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018223360316006</v>
+        <v>1.017533462270819</v>
       </c>
       <c r="D7">
-        <v>1.033303955168415</v>
+        <v>1.031889396897629</v>
       </c>
       <c r="E7">
-        <v>1.031581015692586</v>
+        <v>1.030925736125572</v>
       </c>
       <c r="F7">
-        <v>1.042138007175436</v>
+        <v>1.041319987367062</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049569345099015</v>
+        <v>1.049334661380197</v>
       </c>
       <c r="J7">
-        <v>1.037166200567097</v>
+        <v>1.036493120368914</v>
       </c>
       <c r="K7">
-        <v>1.043013511207338</v>
+        <v>1.041614718745669</v>
       </c>
       <c r="L7">
-        <v>1.04130978163562</v>
+        <v>1.040661828850664</v>
       </c>
       <c r="M7">
-        <v>1.051750292938099</v>
+        <v>1.050941195084327</v>
       </c>
       <c r="N7">
-        <v>1.016208541676308</v>
+        <v>1.016847344148438</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.0495292204866</v>
+        <v>1.04888888139956</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041502849670999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040524355818815</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022887248116811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01386348179163</v>
+        <v>1.013360918051623</v>
       </c>
       <c r="D8">
-        <v>1.030133364952174</v>
+        <v>1.028980827478502</v>
       </c>
       <c r="E8">
-        <v>1.028221620417303</v>
+        <v>1.027736489231808</v>
       </c>
       <c r="F8">
-        <v>1.03888596367391</v>
+        <v>1.03824561280768</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048943094558462</v>
+        <v>1.048777688487596</v>
       </c>
       <c r="J8">
-        <v>1.035077037057171</v>
+        <v>1.034588522126941</v>
       </c>
       <c r="K8">
-        <v>1.040920063010208</v>
+        <v>1.039782038660764</v>
       </c>
       <c r="L8">
-        <v>1.039032413961682</v>
+        <v>1.038553415131537</v>
       </c>
       <c r="M8">
-        <v>1.049563754037957</v>
+        <v>1.048931293506252</v>
       </c>
       <c r="N8">
-        <v>1.015497124677</v>
+        <v>1.016385405990462</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.047798740861452</v>
+        <v>1.047298195588358</v>
       </c>
       <c r="Q8">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040027173463157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039233526541553</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022517754116188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005894260951049</v>
+        <v>1.005720363657118</v>
       </c>
       <c r="D9">
-        <v>1.024377928559839</v>
+        <v>1.023691522021295</v>
       </c>
       <c r="E9">
-        <v>1.022125865297544</v>
+        <v>1.021939468868436</v>
       </c>
       <c r="F9">
-        <v>1.032990014126173</v>
+        <v>1.032664197804627</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047714543000039</v>
+        <v>1.047669597594503</v>
       </c>
       <c r="J9">
-        <v>1.031240580947346</v>
+        <v>1.031072725771859</v>
       </c>
       <c r="K9">
-        <v>1.037087495933572</v>
+        <v>1.036411569064142</v>
       </c>
       <c r="L9">
-        <v>1.034869883106862</v>
+        <v>1.034686346717127</v>
       </c>
       <c r="M9">
-        <v>1.045569602705499</v>
+        <v>1.045248653601685</v>
       </c>
       <c r="N9">
-        <v>1.014188810338862</v>
+        <v>1.015444172834926</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044637662693826</v>
+        <v>1.044383654400254</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037314129348644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036846937458831</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021816519106557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000439890148192</v>
+        <v>1.000521964195972</v>
       </c>
       <c r="D10">
-        <v>1.020496700108333</v>
+        <v>1.020150745109168</v>
       </c>
       <c r="E10">
-        <v>1.018010511032899</v>
+        <v>1.018053735031987</v>
       </c>
       <c r="F10">
-        <v>1.029045216348365</v>
+        <v>1.028955546786833</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046837822108773</v>
+        <v>1.046886236466635</v>
       </c>
       <c r="J10">
-        <v>1.028636066064638</v>
+        <v>1.028714888211546</v>
       </c>
       <c r="K10">
-        <v>1.034505485822997</v>
+        <v>1.034165459700284</v>
       </c>
       <c r="L10">
-        <v>1.032062020173868</v>
+        <v>1.032104499093731</v>
       </c>
       <c r="M10">
-        <v>1.042909132433573</v>
+        <v>1.042820966376197</v>
       </c>
       <c r="N10">
-        <v>1.013304083039039</v>
+        <v>1.014925794230832</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.04258327125198</v>
+        <v>1.042513498233764</v>
       </c>
       <c r="Q10">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R10">
-        <v>1.035505292324167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035277284161771</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021346606041417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.998446418435374</v>
+        <v>0.9986404520218515</v>
       </c>
       <c r="D11">
-        <v>1.019245598760339</v>
+        <v>1.019028219826808</v>
       </c>
       <c r="E11">
-        <v>1.016695648057955</v>
+        <v>1.016834789794434</v>
       </c>
       <c r="F11">
-        <v>1.028035034149129</v>
+        <v>1.028039488251322</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04662441671535</v>
+        <v>1.046712180928805</v>
       </c>
       <c r="J11">
-        <v>1.0278839713442</v>
+        <v>1.028069899358471</v>
       </c>
       <c r="K11">
-        <v>1.033813474256408</v>
+        <v>1.033599997198198</v>
       </c>
       <c r="L11">
-        <v>1.031309430798662</v>
+        <v>1.03144605981888</v>
       </c>
       <c r="M11">
-        <v>1.042446933531757</v>
+        <v>1.04245130946822</v>
       </c>
       <c r="N11">
-        <v>1.013079442808911</v>
+        <v>1.015001265297448</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042651611899164</v>
+        <v>1.042655073211305</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035048850646287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034913532905289</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021274390691479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9978513740033786</v>
+        <v>0.9980720577588253</v>
       </c>
       <c r="D12">
-        <v>1.018936700314505</v>
+        <v>1.018747834906043</v>
       </c>
       <c r="E12">
-        <v>1.016384226807649</v>
+        <v>1.016544415219724</v>
       </c>
       <c r="F12">
-        <v>1.027919378682233</v>
+        <v>1.027944600513971</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046611316697276</v>
+        <v>1.046707128368466</v>
       </c>
       <c r="J12">
-        <v>1.027746946731818</v>
+        <v>1.027958236280176</v>
       </c>
       <c r="K12">
-        <v>1.033709878575378</v>
+        <v>1.033524459429281</v>
       </c>
       <c r="L12">
-        <v>1.031204121615554</v>
+        <v>1.031361369198425</v>
       </c>
       <c r="M12">
-        <v>1.042530546909699</v>
+        <v>1.042555319019819</v>
       </c>
       <c r="N12">
-        <v>1.013057681714657</v>
+        <v>1.015089624161265</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043042700920801</v>
+        <v>1.043062288782794</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034975605166432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034860126371642</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021292193444252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9983076273825749</v>
+        <v>0.9984808460701656</v>
       </c>
       <c r="D13">
-        <v>1.019352448638277</v>
+        <v>1.019108664257722</v>
       </c>
       <c r="E13">
-        <v>1.016838493581169</v>
+        <v>1.016955006874047</v>
       </c>
       <c r="F13">
-        <v>1.028506124991202</v>
+        <v>1.028489716093929</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046762138215936</v>
+        <v>1.046838704715985</v>
       </c>
       <c r="J13">
-        <v>1.028090900818243</v>
+        <v>1.028256781877456</v>
       </c>
       <c r="K13">
-        <v>1.03407522457612</v>
+        <v>1.033835869312081</v>
       </c>
       <c r="L13">
-        <v>1.031607076244496</v>
+        <v>1.031721460035235</v>
       </c>
       <c r="M13">
-        <v>1.043064566944226</v>
+        <v>1.043048449236615</v>
       </c>
       <c r="N13">
-        <v>1.013197323913376</v>
+        <v>1.015163076841504</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.043740513900197</v>
+        <v>1.043727772447021</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035231424531427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035077564237584</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021385974761728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9991054000274311</v>
+        <v>0.9992123203297582</v>
       </c>
       <c r="D14">
-        <v>1.019974693856484</v>
+        <v>1.019655071592529</v>
       </c>
       <c r="E14">
-        <v>1.017504946559849</v>
+        <v>1.017562099710566</v>
       </c>
       <c r="F14">
-        <v>1.02923694365491</v>
+        <v>1.02916355776231</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046942369096595</v>
+        <v>1.046993417616559</v>
       </c>
       <c r="J14">
-        <v>1.02855115014312</v>
+        <v>1.028653605399832</v>
       </c>
       <c r="K14">
-        <v>1.034545986453994</v>
+        <v>1.034232098867897</v>
       </c>
       <c r="L14">
-        <v>1.032120673211854</v>
+        <v>1.032176794931669</v>
       </c>
       <c r="M14">
-        <v>1.043644056958327</v>
+        <v>1.043571956829908</v>
       </c>
       <c r="N14">
-        <v>1.013368854803887</v>
+        <v>1.01520944351815</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.044371299655809</v>
+        <v>1.044314310342624</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035565692609066</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035359268407245</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021486993200692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9995332703329544</v>
+        <v>0.999608288068605</v>
       </c>
       <c r="D15">
-        <v>1.02029236626438</v>
+        <v>1.019936151960011</v>
       </c>
       <c r="E15">
-        <v>1.01784111369422</v>
+        <v>1.017870052531263</v>
       </c>
       <c r="F15">
-        <v>1.029579800023479</v>
+        <v>1.029479154260915</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047024532686091</v>
+        <v>1.047063636200704</v>
       </c>
       <c r="J15">
-        <v>1.028774272201303</v>
+        <v>1.028846184213294</v>
       </c>
       <c r="K15">
-        <v>1.034771622414194</v>
+        <v>1.034421750867268</v>
       </c>
       <c r="L15">
-        <v>1.032364133574688</v>
+        <v>1.032392554151762</v>
       </c>
       <c r="M15">
-        <v>1.043895689059294</v>
+        <v>1.043796793217525</v>
       </c>
       <c r="N15">
-        <v>1.013448166063711</v>
+        <v>1.015222182063523</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.044607603823041</v>
+        <v>1.044529436717509</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035731092701205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035499795109059</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021530893704246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001752845072708</v>
+        <v>1.00168536324383</v>
       </c>
       <c r="D16">
-        <v>1.021858571903192</v>
+        <v>1.021335094493107</v>
       </c>
       <c r="E16">
-        <v>1.019497107323184</v>
+        <v>1.019401280137127</v>
       </c>
       <c r="F16">
-        <v>1.031158057125499</v>
+        <v>1.030935137853366</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047381931251688</v>
+        <v>1.047369284355222</v>
       </c>
       <c r="J16">
-        <v>1.029820526932985</v>
+        <v>1.029755700966241</v>
       </c>
       <c r="K16">
-        <v>1.035808515724679</v>
+        <v>1.035293954528878</v>
       </c>
       <c r="L16">
-        <v>1.033487366875965</v>
+        <v>1.033393180780431</v>
       </c>
       <c r="M16">
-        <v>1.044951549252833</v>
+        <v>1.044732337779891</v>
       </c>
       <c r="N16">
-        <v>1.013799398658301</v>
+        <v>1.015258435375292</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.045403568967171</v>
+        <v>1.045230299687188</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036467377146519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036119936117639</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021708061714379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003039654158762</v>
+        <v>1.002904889676202</v>
       </c>
       <c r="D17">
-        <v>1.022736047841683</v>
+        <v>1.022129594300143</v>
       </c>
       <c r="E17">
-        <v>1.020419915558148</v>
+        <v>1.020265452939554</v>
       </c>
       <c r="F17">
-        <v>1.031983593823287</v>
+        <v>1.031701777599816</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047558931611272</v>
+        <v>1.047522535287748</v>
       </c>
       <c r="J17">
-        <v>1.030381522008239</v>
+        <v>1.030251893137866</v>
       </c>
       <c r="K17">
-        <v>1.036356839240428</v>
+        <v>1.03576042685133</v>
       </c>
       <c r="L17">
-        <v>1.034079138298162</v>
+        <v>1.033927246655463</v>
       </c>
       <c r="M17">
-        <v>1.045453148937683</v>
+        <v>1.045175890175325</v>
       </c>
       <c r="N17">
-        <v>1.013978706469559</v>
+        <v>1.015290502624878</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045671475488513</v>
+        <v>1.045452302735314</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036857648091303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036452582341604</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021791934035213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003633396620061</v>
+        <v>1.003481515695615</v>
       </c>
       <c r="D18">
-        <v>1.023079314157579</v>
+        <v>1.022449129172493</v>
       </c>
       <c r="E18">
-        <v>1.020776639764555</v>
+        <v>1.020608171487831</v>
       </c>
       <c r="F18">
-        <v>1.032202176353229</v>
+        <v>1.031904976660847</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047591910422754</v>
+        <v>1.047550538381399</v>
       </c>
       <c r="J18">
-        <v>1.030559837879195</v>
+        <v>1.030413637726611</v>
       </c>
       <c r="K18">
-        <v>1.036511215195095</v>
+        <v>1.035891294735894</v>
       </c>
       <c r="L18">
-        <v>1.034246126025822</v>
+        <v>1.034080416118772</v>
       </c>
       <c r="M18">
-        <v>1.045487282294431</v>
+        <v>1.045194812400202</v>
       </c>
       <c r="N18">
-        <v>1.014019920380343</v>
+        <v>1.015279698896133</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045461741227298</v>
+        <v>1.045230496255955</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036955170197652</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036532347907752</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021794326700335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003619193476076</v>
+        <v>1.003488311751126</v>
       </c>
       <c r="D19">
-        <v>1.022964131079021</v>
+        <v>1.022357866118903</v>
       </c>
       <c r="E19">
-        <v>1.020637428090279</v>
+        <v>1.020489101522738</v>
       </c>
       <c r="F19">
-        <v>1.031887354392462</v>
+        <v>1.031608789189387</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047505214074703</v>
+        <v>1.04747304483267</v>
       </c>
       <c r="J19">
-        <v>1.030412333796354</v>
+        <v>1.030286318864299</v>
       </c>
       <c r="K19">
-        <v>1.036335423698046</v>
+        <v>1.035738983526762</v>
       </c>
       <c r="L19">
-        <v>1.034046507605961</v>
+        <v>1.033900597447424</v>
       </c>
       <c r="M19">
-        <v>1.045115752605974</v>
+        <v>1.044841600403363</v>
       </c>
       <c r="N19">
-        <v>1.013946313809877</v>
+        <v>1.01521743647106</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044843981174943</v>
+        <v>1.044627149106061</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036837270407397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036431675030131</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021731076626181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001881990689127</v>
+        <v>1.001877173451114</v>
       </c>
       <c r="D20">
-        <v>1.021540589171847</v>
+        <v>1.021089901790873</v>
       </c>
       <c r="E20">
-        <v>1.019102334993629</v>
+        <v>1.019068581129626</v>
       </c>
       <c r="F20">
-        <v>1.030095123339942</v>
+        <v>1.029929391638572</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047081006972412</v>
+        <v>1.047097351645812</v>
       </c>
       <c r="J20">
-        <v>1.029340557024374</v>
+        <v>1.029335924501023</v>
       </c>
       <c r="K20">
-        <v>1.035214960776734</v>
+        <v>1.03477177782324</v>
       </c>
       <c r="L20">
-        <v>1.032817408195491</v>
+        <v>1.032784219543876</v>
       </c>
       <c r="M20">
-        <v>1.043628652758374</v>
+        <v>1.043465621114172</v>
       </c>
       <c r="N20">
-        <v>1.013545872732507</v>
+        <v>1.014996974877708</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043142195775996</v>
+        <v>1.04301317394886</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036048980871958</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035752136241408</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021477243432324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9977170092623884</v>
+        <v>0.9980028409198466</v>
       </c>
       <c r="D21">
-        <v>1.018556327404397</v>
+        <v>1.018441084953259</v>
       </c>
       <c r="E21">
-        <v>1.015936718461928</v>
+        <v>1.016159350833177</v>
       </c>
       <c r="F21">
-        <v>1.027013177455749</v>
+        <v>1.027096223985456</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046371138553283</v>
+        <v>1.046495651383994</v>
       </c>
       <c r="J21">
-        <v>1.027310492462165</v>
+        <v>1.027584300502819</v>
       </c>
       <c r="K21">
-        <v>1.033194470846609</v>
+        <v>1.033081309808014</v>
       </c>
       <c r="L21">
-        <v>1.030622326833899</v>
+        <v>1.030840912929518</v>
       </c>
       <c r="M21">
-        <v>1.04150023373937</v>
+        <v>1.041581812586987</v>
       </c>
       <c r="N21">
-        <v>1.012850432217932</v>
+        <v>1.014936811989032</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041417041234192</v>
+        <v>1.041481605337491</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034623647519698</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.0345604716999</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021119700395721</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9950654649202865</v>
+        <v>0.9955353449726153</v>
       </c>
       <c r="D22">
-        <v>1.016666545040347</v>
+        <v>1.016763243581909</v>
       </c>
       <c r="E22">
-        <v>1.013938255754365</v>
+        <v>1.014323196909303</v>
       </c>
       <c r="F22">
-        <v>1.025083431605072</v>
+        <v>1.025324070016368</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045913378319622</v>
+        <v>1.046106547676137</v>
       </c>
       <c r="J22">
-        <v>1.026023777945309</v>
+        <v>1.026472754643471</v>
       </c>
       <c r="K22">
-        <v>1.031914910268207</v>
+        <v>1.032009774651015</v>
       </c>
       <c r="L22">
-        <v>1.029238559299194</v>
+        <v>1.029616150196755</v>
       </c>
       <c r="M22">
-        <v>1.04017383698678</v>
+        <v>1.04041000906232</v>
       </c>
       <c r="N22">
-        <v>1.012410350966386</v>
+        <v>1.014892226506424</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040367287707328</v>
+        <v>1.040554202080421</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033705432656024</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033788042350602</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020892034145902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9964645011946266</v>
+        <v>0.996826736339616</v>
       </c>
       <c r="D23">
-        <v>1.017655879804663</v>
+        <v>1.01763247451751</v>
       </c>
       <c r="E23">
-        <v>1.014990023791228</v>
+        <v>1.015280369523118</v>
       </c>
       <c r="F23">
-        <v>1.026098312748893</v>
+        <v>1.026248260961935</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046153357276473</v>
+        <v>1.046306161118887</v>
       </c>
       <c r="J23">
-        <v>1.02669752312038</v>
+        <v>1.027044110816715</v>
       </c>
       <c r="K23">
-        <v>1.032580595036864</v>
+        <v>1.032557622421497</v>
       </c>
       <c r="L23">
-        <v>1.029964187608376</v>
+        <v>1.030249131320478</v>
       </c>
       <c r="M23">
-        <v>1.04086863495692</v>
+        <v>1.041015870810436</v>
       </c>
       <c r="N23">
-        <v>1.012639937465107</v>
+        <v>1.01487100597738</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.040917173607399</v>
+        <v>1.041033700836784</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034166461171929</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03416481193571</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021005924621307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001894324781772</v>
+        <v>1.001891326915641</v>
       </c>
       <c r="D24">
-        <v>1.021523537320658</v>
+        <v>1.021074814030791</v>
       </c>
       <c r="E24">
-        <v>1.019091214408101</v>
+        <v>1.019059294879498</v>
       </c>
       <c r="F24">
-        <v>1.030058663808498</v>
+        <v>1.029894581938699</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04706808266803</v>
+        <v>1.047085298666151</v>
       </c>
       <c r="J24">
-        <v>1.029319648722013</v>
+        <v>1.029316765641959</v>
       </c>
       <c r="K24">
-        <v>1.035182932218293</v>
+        <v>1.034741671379637</v>
       </c>
       <c r="L24">
-        <v>1.032791161290173</v>
+        <v>1.03275977558621</v>
       </c>
       <c r="M24">
-        <v>1.043577706486703</v>
+        <v>1.04341629461586</v>
       </c>
       <c r="N24">
-        <v>1.013534776241981</v>
+        <v>1.014984979994119</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043061217669629</v>
+        <v>1.042933471436803</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035998936569366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035700778320106</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021464418901119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008006026258299</v>
+        <v>1.007735817384251</v>
       </c>
       <c r="D25">
-        <v>1.025908845717528</v>
+        <v>1.025092140645346</v>
       </c>
       <c r="E25">
-        <v>1.023738445288574</v>
+        <v>1.023465180263416</v>
       </c>
       <c r="F25">
-        <v>1.034550163651695</v>
+        <v>1.034134565314595</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048053603417979</v>
+        <v>1.047973315431422</v>
       </c>
       <c r="J25">
-        <v>1.032266927333302</v>
+        <v>1.032005615868455</v>
       </c>
       <c r="K25">
-        <v>1.038117846180678</v>
+        <v>1.037313032097059</v>
       </c>
       <c r="L25">
-        <v>1.035979099174601</v>
+        <v>1.035709831560401</v>
       </c>
       <c r="M25">
-        <v>1.046634804393614</v>
+        <v>1.046225126856132</v>
       </c>
       <c r="N25">
-        <v>1.01454022820826</v>
+        <v>1.015664707197536</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045480693122051</v>
+        <v>1.04515646296782</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038071208069016</v>
+        <v>1.037515689633496</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022008047419042</v>
       </c>
     </row>
   </sheetData>
